--- a/dados/ADD/Dados_ADD_PF/relatorio_produtos.xlsx
+++ b/dados/ADD/Dados_ADD_PF/relatorio_produtos.xlsx
@@ -53371,7 +53371,7 @@
         <v>1690</v>
       </c>
       <c r="AF326" t="s">
-        <v>1574</v>
+        <v>2710</v>
       </c>
       <c r="AG326" t="s">
         <v>3077</v>
@@ -62575,7 +62575,7 @@
         <v>1662</v>
       </c>
       <c r="AB398" t="s">
-        <v>2491</v>
+        <v>1574</v>
       </c>
       <c r="AC398" t="s">
         <v>3013</v>
@@ -62605,7 +62605,7 @@
         <v>3013</v>
       </c>
       <c r="AL398">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM398">
         <v>275</v>
@@ -108631,25 +108631,25 @@
         <v>2193</v>
       </c>
       <c r="AE758" t="s">
-        <v>1781</v>
+        <v>1662</v>
       </c>
       <c r="AF758" t="s">
-        <v>2966</v>
+        <v>2478</v>
       </c>
       <c r="AG758" t="s">
-        <v>3092</v>
+        <v>2991</v>
       </c>
       <c r="AH758" t="s">
         <v>2193</v>
       </c>
       <c r="AI758" t="s">
-        <v>1662</v>
+        <v>1781</v>
       </c>
       <c r="AJ758" t="s">
-        <v>2478</v>
+        <v>2966</v>
       </c>
       <c r="AK758" t="s">
-        <v>2991</v>
+        <v>3092</v>
       </c>
       <c r="AL758">
         <v>2.95</v>

--- a/dados/ADD/Dados_ADD_PF/relatorio_produtos.xlsx
+++ b/dados/ADD/Dados_ADD_PF/relatorio_produtos.xlsx
@@ -14233,7 +14233,7 @@
         <v>1784</v>
       </c>
       <c r="AJ20" t="s">
-        <v>2472</v>
+        <v>1574</v>
       </c>
       <c r="AK20" t="s">
         <v>2983</v>
@@ -62575,7 +62575,7 @@
         <v>1662</v>
       </c>
       <c r="AB398" t="s">
-        <v>1574</v>
+        <v>2491</v>
       </c>
       <c r="AC398" t="s">
         <v>3013</v>
@@ -62605,7 +62605,7 @@
         <v>3013</v>
       </c>
       <c r="AL398">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM398">
         <v>275</v>
@@ -108631,25 +108631,25 @@
         <v>2193</v>
       </c>
       <c r="AE758" t="s">
-        <v>1662</v>
+        <v>1781</v>
       </c>
       <c r="AF758" t="s">
-        <v>2478</v>
+        <v>2966</v>
       </c>
       <c r="AG758" t="s">
-        <v>2991</v>
+        <v>3092</v>
       </c>
       <c r="AH758" t="s">
         <v>2193</v>
       </c>
       <c r="AI758" t="s">
-        <v>1781</v>
+        <v>1662</v>
       </c>
       <c r="AJ758" t="s">
-        <v>2966</v>
+        <v>2478</v>
       </c>
       <c r="AK758" t="s">
-        <v>3092</v>
+        <v>2991</v>
       </c>
       <c r="AL758">
         <v>2.95</v>

--- a/dados/ADD/Dados_ADD_PF/relatorio_produtos.xlsx
+++ b/dados/ADD/Dados_ADD_PF/relatorio_produtos.xlsx
@@ -8146,670 +8146,670 @@
     <t xml:space="preserve"> R$ 23,06 </t>
   </si>
   <si>
+    <t xml:space="preserve"> R$ 8,90 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 87,00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 20,99 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 17,00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 9,83 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 10,00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 0,66 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 1,08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 4,68 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 75,00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 3,67 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 7,87 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 13,18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 10,80 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 58,10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 25,25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 2,64 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 8,49 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 4,87 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 11,92 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 50,00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 17,11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 33,99 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 7,10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 4,80 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 75,84 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 18,50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 80,00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 62,00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 6,93 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 16,92 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 24,50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 10,50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 5,59 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 13,88 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 47,00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 39,40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 2,29 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 0,60 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 2,06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 4,08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 34,84 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 164,41 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 16,60 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 17,50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 73,43 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 3,80 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 2,80 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 8,50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 12,50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 1,54 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 2,35 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 39,45 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 157,26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 47,83 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 7,41 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 12,73 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 46,38 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 9,36 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 1,75 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 0,27 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 65,00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 32,00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 19,72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 59,00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 15,99 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 3,46 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 11,94 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 235,00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 43,00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 8,75 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 420,16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 25,00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 50,50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 6,05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 6,49 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 9,07 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 10,58 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 53,00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 480,90 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 8,25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 9,25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 2,54 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 16,00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 44,99 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 1,92 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 28,70 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 23,46 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 16,49 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 27,50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 29,00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 39,90 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 13,45 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 8,28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 466,74 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 18,79 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 21,02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 39,99 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 5,64 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 3,89 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 2,25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 4,99 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 77,13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 13,49 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 1,17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 41,02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 5,74 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 20,79 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 30,26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 23,31 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 20,60 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 2,94 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 20,00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 25,24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 7,72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 18,99 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 9,71 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 94,60 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 11,70 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 1,05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 8,19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 251,82 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 19,36 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 169,37 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 24,95 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 27,99 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 20,93 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 49,50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 24,57 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 26,00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 20,50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 93,99 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 5,79 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 3,17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 136,50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 39,79 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 19,75 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 43,16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 13,99 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 2,50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 125,00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 28,86 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 42,40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 37,88 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 22,71 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 3,56 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 5,12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 23,58 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 31,07 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 22,28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 1,14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 8,80 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 40,80 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 2,89 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 11,87 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 9,69 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 9,45 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 3,49 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 66,02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 9,15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 3,16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 6,55 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 29,66 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 10,53 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 15,16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 22,77 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 26,40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 2,49 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 41,04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 19,28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 10,86 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 9,58 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 32,32 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 18,25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 4,04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 2,15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 29,76 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 122,00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 10,75 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 39,59 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 7,15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 0,81 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 35,25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 0,86 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 3,78 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 17,53 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 1,94 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 4,95 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 23,15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 33,80 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 34,22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 18,36 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 1,19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 7,75 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 20,56 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 13,72 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 5,87 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 4,06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 1,71 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 32,23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 30,25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 1,89 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 6,00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 29,90 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 14,82 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 3,25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 2,04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 3,90 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 1,67 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 10,40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 5,40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 5,75 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 36,09 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 23,49 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 2,24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 3,29 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 6,88 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 18,35 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 5,38 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 0,14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 27,20 </t>
+  </si>
+  <si>
     <t xml:space="preserve"> R$ 6,97 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 8,90 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 87,00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 20,99 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 17,00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 9,83 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 10,00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 0,66 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 1,08 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 4,68 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 75,00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 3,67 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 7,87 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 13,18 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 10,80 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 58,10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 25,25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 2,64 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 8,49 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 4,87 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 11,92 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 50,00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 17,11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 33,99 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 7,10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 4,80 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 75,84 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 18,50 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 80,00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 62,00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 6,93 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 16,92 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 24,50 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 10,50 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 5,59 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 13,88 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 47,00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 39,40 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 2,29 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 0,60 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 2,06 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 4,08 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 34,84 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 164,41 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 16,60 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 17,50 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 73,43 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 3,80 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 2,80 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 8,50 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 12,50 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 1,54 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 2,35 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 39,45 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 157,26 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 47,83 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 7,41 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 12,73 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 46,38 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 9,36 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 1,75 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 0,27 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 65,00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 32,00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 19,72 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 59,00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 15,99 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 3,46 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 11,94 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 235,00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 43,00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 8,75 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 420,16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 25,00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 50,50 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 6,05 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 6,49 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 9,07 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 10,58 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 53,00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 480,90 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 8,25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 9,25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 2,54 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 16,00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 44,99 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 1,92 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 28,70 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 23,46 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 16,49 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 27,50 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 29,00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 39,90 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 13,45 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 8,28 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 466,74 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 18,79 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 21,02 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 39,99 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 5,64 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 3,89 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 2,25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 4,99 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 77,13 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 13,49 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 1,17 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 41,02 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 5,74 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 20,79 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 30,26 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 23,31 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 20,60 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 2,94 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 20,00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 25,24 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 7,72 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 18,99 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 9,71 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 94,60 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 11,70 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 1,05 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 8,19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 251,82 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 19,36 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 169,37 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 24,95 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 27,99 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 20,93 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 49,50 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 24,57 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 26,00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 20,50 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 93,99 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 5,79 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 3,17 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 136,50 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 39,79 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 19,75 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 43,16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 13,99 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 2,50 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 125,00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 28,86 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 42,40 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 37,88 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 22,71 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 3,56 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 5,12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 23,58 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 31,07 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 22,28 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 1,14 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 8,80 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 40,80 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 2,89 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 11,87 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 9,69 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 9,45 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 3,49 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 66,02 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 9,15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 3,16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 6,55 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 29,66 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 10,53 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 15,16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 22,77 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 26,40 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 2,49 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 41,04 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 19,28 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 10,86 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 9,58 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 32,32 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 18,25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 4,04 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 2,15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 29,76 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 122,00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 10,75 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 39,59 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 7,15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 0,81 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 35,25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 0,86 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 3,78 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 17,53 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 1,94 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 4,95 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 23,15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 33,80 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 34,22 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 18,36 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 1,19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 7,75 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 20,56 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 13,72 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 5,87 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 4,06 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 1,71 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 32,23 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 30,25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 1,89 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 6,00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 29,90 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 14,82 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 3,25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 2,04 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 3,90 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 1,67 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 10,40 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 5,40 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 5,75 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 36,09 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 23,49 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 2,24 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 3,29 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 6,88 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 18,35 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 5,38 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 0,14 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 27,20 </t>
   </si>
   <si>
     <t xml:space="preserve"> R$ 11,49 </t>
@@ -12941,7 +12941,7 @@
         <v>3251</v>
       </c>
       <c r="AF10" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="AG10" t="s">
         <v>2976</v>
@@ -13325,7 +13325,7 @@
         <v>3252</v>
       </c>
       <c r="AF13" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="AG13" t="s">
         <v>2999</v>
@@ -17034,7 +17034,7 @@
         <v>2124</v>
       </c>
       <c r="AF42" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="AG42" t="s">
         <v>2982</v>
@@ -17290,7 +17290,7 @@
         <v>1675</v>
       </c>
       <c r="AF44" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="AG44" t="s">
         <v>2982</v>
@@ -21514,7 +21514,7 @@
         <v>1621</v>
       </c>
       <c r="AF77" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="AG77" t="s">
         <v>2169</v>
@@ -23312,7 +23312,7 @@
         <v>1662</v>
       </c>
       <c r="AJ91" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="AK91" t="s">
         <v>2133</v>
@@ -23568,7 +23568,7 @@
         <v>1782</v>
       </c>
       <c r="AJ93" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="AK93" t="s">
         <v>2999</v>
@@ -25217,7 +25217,7 @@
         <v>1686</v>
       </c>
       <c r="AF106" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="AG106" t="s">
         <v>2151</v>
@@ -25229,7 +25229,7 @@
         <v>1677</v>
       </c>
       <c r="AJ106" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="AK106" t="s">
         <v>2151</v>
@@ -25613,7 +25613,7 @@
         <v>1639</v>
       </c>
       <c r="AJ109" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="AK109" t="s">
         <v>3718</v>
@@ -25857,7 +25857,7 @@
         <v>1956</v>
       </c>
       <c r="AF111" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="AG111" t="s">
         <v>3437</v>
@@ -25985,7 +25985,7 @@
         <v>1906</v>
       </c>
       <c r="AF112" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="AG112" t="s">
         <v>2999</v>
@@ -29837,7 +29837,7 @@
         <v>1745</v>
       </c>
       <c r="AJ142" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="AK142" t="s">
         <v>3068</v>
@@ -30721,7 +30721,7 @@
         <v>1647</v>
       </c>
       <c r="AF149" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="AG149" t="s">
         <v>2972</v>
@@ -32269,7 +32269,7 @@
         <v>1660</v>
       </c>
       <c r="AJ161" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="AK161" t="s">
         <v>2133</v>
@@ -32909,7 +32909,7 @@
         <v>1578</v>
       </c>
       <c r="AJ166" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="AL166">
         <v>3.02</v>
@@ -34558,7 +34558,7 @@
         <v>1690</v>
       </c>
       <c r="AF179" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="AG179" t="s">
         <v>3042</v>
@@ -34570,7 +34570,7 @@
         <v>1589</v>
       </c>
       <c r="AJ179" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="AK179" t="s">
         <v>3068</v>
@@ -36350,7 +36350,7 @@
         <v>1670</v>
       </c>
       <c r="AF193" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="AG193" t="s">
         <v>2991</v>
@@ -36362,7 +36362,7 @@
         <v>1650</v>
       </c>
       <c r="AJ193" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="AK193" t="s">
         <v>2991</v>
@@ -36734,7 +36734,7 @@
         <v>1630</v>
       </c>
       <c r="AF196" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="AG196" t="s">
         <v>2982</v>
@@ -36746,7 +36746,7 @@
         <v>1630</v>
       </c>
       <c r="AJ196" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="AK196" t="s">
         <v>2151</v>
@@ -38142,7 +38142,7 @@
         <v>1589</v>
       </c>
       <c r="AF207" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="AG207" t="s">
         <v>3068</v>
@@ -38154,7 +38154,7 @@
         <v>1589</v>
       </c>
       <c r="AJ207" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="AK207" t="s">
         <v>3042</v>
@@ -38270,7 +38270,7 @@
         <v>1624</v>
       </c>
       <c r="AF208" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="AG208" t="s">
         <v>3038</v>
@@ -39419,7 +39419,7 @@
         <v>1589</v>
       </c>
       <c r="AF217" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="AG217" t="s">
         <v>3451</v>
@@ -39431,7 +39431,7 @@
         <v>1621</v>
       </c>
       <c r="AJ217" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="AK217" t="s">
         <v>2997</v>
@@ -40327,7 +40327,7 @@
         <v>1621</v>
       </c>
       <c r="AJ224" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="AK224" t="s">
         <v>2982</v>
@@ -40967,7 +40967,7 @@
         <v>1662</v>
       </c>
       <c r="AJ229" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="AK229" t="s">
         <v>3731</v>
@@ -41467,7 +41467,7 @@
         <v>1678</v>
       </c>
       <c r="AF233" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="AG233" t="s">
         <v>3453</v>
@@ -41479,7 +41479,7 @@
         <v>1670</v>
       </c>
       <c r="AJ233" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="AK233" t="s">
         <v>3732</v>
@@ -42235,7 +42235,7 @@
         <v>2037</v>
       </c>
       <c r="AF239" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="AG239" t="s">
         <v>2997</v>
@@ -42247,7 +42247,7 @@
         <v>1656</v>
       </c>
       <c r="AJ239" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="AK239" t="s">
         <v>2151</v>
@@ -43399,7 +43399,7 @@
         <v>1633</v>
       </c>
       <c r="AJ248" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="AK248" t="s">
         <v>3736</v>
@@ -44027,7 +44027,7 @@
         <v>1654</v>
       </c>
       <c r="AF253" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="AG253" t="s">
         <v>2997</v>
@@ -44039,7 +44039,7 @@
         <v>1628</v>
       </c>
       <c r="AJ253" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="AK253" t="s">
         <v>3738</v>
@@ -44795,7 +44795,7 @@
         <v>1656</v>
       </c>
       <c r="AF259" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="AG259" t="s">
         <v>3097</v>
@@ -46203,7 +46203,7 @@
         <v>1656</v>
       </c>
       <c r="AF270" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="AG270" t="s">
         <v>3038</v>
@@ -46215,7 +46215,7 @@
         <v>1656</v>
       </c>
       <c r="AJ270" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="AK270" t="s">
         <v>2980</v>
@@ -47611,7 +47611,7 @@
         <v>1670</v>
       </c>
       <c r="AF281" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="AG281" t="s">
         <v>2997</v>
@@ -47623,7 +47623,7 @@
         <v>1670</v>
       </c>
       <c r="AJ281" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="AK281" t="s">
         <v>2997</v>
@@ -50427,7 +50427,7 @@
         <v>1670</v>
       </c>
       <c r="AF303" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="AG303" t="s">
         <v>2993</v>
@@ -50439,7 +50439,7 @@
         <v>1650</v>
       </c>
       <c r="AJ303" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="AK303" t="s">
         <v>3741</v>
@@ -50555,7 +50555,7 @@
         <v>1636</v>
       </c>
       <c r="AF304" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="AG304" t="s">
         <v>3075</v>
@@ -50567,7 +50567,7 @@
         <v>1674</v>
       </c>
       <c r="AJ304" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="AK304" t="s">
         <v>3001</v>
@@ -52603,7 +52603,7 @@
         <v>1625</v>
       </c>
       <c r="AF320" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="AG320" t="s">
         <v>3465</v>
@@ -52615,7 +52615,7 @@
         <v>1651</v>
       </c>
       <c r="AJ320" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="AK320" t="s">
         <v>3003</v>
@@ -53359,7 +53359,7 @@
         <v>1690</v>
       </c>
       <c r="AB326" t="s">
-        <v>2710</v>
+        <v>1574</v>
       </c>
       <c r="AC326" t="s">
         <v>3077</v>
@@ -53371,7 +53371,7 @@
         <v>1690</v>
       </c>
       <c r="AF326" t="s">
-        <v>2710</v>
+        <v>2931</v>
       </c>
       <c r="AG326" t="s">
         <v>3077</v>
@@ -53383,13 +53383,13 @@
         <v>1690</v>
       </c>
       <c r="AJ326" t="s">
-        <v>2710</v>
+        <v>2931</v>
       </c>
       <c r="AK326" t="s">
         <v>3077</v>
       </c>
       <c r="AL326">
-        <v>6.97</v>
+        <v>0</v>
       </c>
       <c r="AM326">
         <v>247.8</v>
@@ -53487,7 +53487,7 @@
         <v>1630</v>
       </c>
       <c r="AB327" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="AC327" t="s">
         <v>2151</v>
@@ -53639,7 +53639,7 @@
         <v>1578</v>
       </c>
       <c r="AJ328" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="AK328" t="s">
         <v>3067</v>
@@ -53871,7 +53871,7 @@
         <v>1611</v>
       </c>
       <c r="AB330" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="AC330" t="s">
         <v>3079</v>
@@ -53883,7 +53883,7 @@
         <v>1611</v>
       </c>
       <c r="AF330" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="AG330" t="s">
         <v>3079</v>
@@ -53895,7 +53895,7 @@
         <v>1691</v>
       </c>
       <c r="AJ330" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="AK330" t="s">
         <v>3026</v>
@@ -54255,7 +54255,7 @@
         <v>1633</v>
       </c>
       <c r="AB333" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="AC333" t="s">
         <v>2982</v>
@@ -54267,7 +54267,7 @@
         <v>1633</v>
       </c>
       <c r="AF333" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="AG333" t="s">
         <v>2151</v>
@@ -54279,7 +54279,7 @@
         <v>1662</v>
       </c>
       <c r="AJ333" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="AK333" t="s">
         <v>3743</v>
@@ -54383,7 +54383,7 @@
         <v>1625</v>
       </c>
       <c r="AB334" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="AC334" t="s">
         <v>2982</v>
@@ -54395,7 +54395,7 @@
         <v>1625</v>
       </c>
       <c r="AF334" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="AG334" t="s">
         <v>2982</v>
@@ -54407,7 +54407,7 @@
         <v>1625</v>
       </c>
       <c r="AJ334" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="AK334" t="s">
         <v>2151</v>
@@ -54639,7 +54639,7 @@
         <v>1589</v>
       </c>
       <c r="AB336" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="AC336" t="s">
         <v>3030</v>
@@ -54651,7 +54651,7 @@
         <v>1589</v>
       </c>
       <c r="AF336" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="AG336" t="s">
         <v>3049</v>
@@ -54663,7 +54663,7 @@
         <v>1589</v>
       </c>
       <c r="AJ336" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="AK336" t="s">
         <v>3049</v>
@@ -55407,7 +55407,7 @@
         <v>1662</v>
       </c>
       <c r="AB342" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="AC342" t="s">
         <v>3081</v>
@@ -55419,7 +55419,7 @@
         <v>1662</v>
       </c>
       <c r="AF342" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="AG342" t="s">
         <v>2983</v>
@@ -55535,7 +55535,7 @@
         <v>1739</v>
       </c>
       <c r="AB343" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="AC343" t="s">
         <v>3068</v>
@@ -55663,7 +55663,7 @@
         <v>1647</v>
       </c>
       <c r="AB344" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="AC344" t="s">
         <v>3068</v>
@@ -55791,7 +55791,7 @@
         <v>1636</v>
       </c>
       <c r="AB345" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="AC345" t="s">
         <v>3067</v>
@@ -55919,7 +55919,7 @@
         <v>1630</v>
       </c>
       <c r="AB346" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="AC346" t="s">
         <v>2137</v>
@@ -55931,7 +55931,7 @@
         <v>1630</v>
       </c>
       <c r="AF346" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="AG346" t="s">
         <v>3468</v>
@@ -55943,7 +55943,7 @@
         <v>1670</v>
       </c>
       <c r="AJ346" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="AK346" t="s">
         <v>2979</v>
@@ -56047,7 +56047,7 @@
         <v>1690</v>
       </c>
       <c r="AB347" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="AC347" t="s">
         <v>2148</v>
@@ -56059,7 +56059,7 @@
         <v>1589</v>
       </c>
       <c r="AF347" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="AG347" t="s">
         <v>2148</v>
@@ -56303,7 +56303,7 @@
         <v>1680</v>
       </c>
       <c r="AB349" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="AC349" t="s">
         <v>2973</v>
@@ -56315,7 +56315,7 @@
         <v>1662</v>
       </c>
       <c r="AF349" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="AG349" t="s">
         <v>2973</v>
@@ -56327,7 +56327,7 @@
         <v>1633</v>
       </c>
       <c r="AJ349" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="AK349" t="s">
         <v>3004</v>
@@ -56431,7 +56431,7 @@
         <v>1628</v>
       </c>
       <c r="AB350" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="AC350" t="s">
         <v>2999</v>
@@ -56443,7 +56443,7 @@
         <v>1628</v>
       </c>
       <c r="AF350" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="AG350" t="s">
         <v>2999</v>
@@ -56455,7 +56455,7 @@
         <v>1628</v>
       </c>
       <c r="AJ350" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="AK350" t="s">
         <v>2999</v>
@@ -56559,7 +56559,7 @@
         <v>1670</v>
       </c>
       <c r="AB351" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="AC351" t="s">
         <v>3082</v>
@@ -56571,7 +56571,7 @@
         <v>1578</v>
       </c>
       <c r="AF351" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="AG351" t="s">
         <v>3469</v>
@@ -56583,7 +56583,7 @@
         <v>1630</v>
       </c>
       <c r="AJ351" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="AK351" t="s">
         <v>2991</v>
@@ -56687,7 +56687,7 @@
         <v>1636</v>
       </c>
       <c r="AB352" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="AC352" t="s">
         <v>2981</v>
@@ -56943,7 +56943,7 @@
         <v>1625</v>
       </c>
       <c r="AB354" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="AC354" t="s">
         <v>2981</v>
@@ -56955,7 +56955,7 @@
         <v>1633</v>
       </c>
       <c r="AF354" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="AG354" t="s">
         <v>2148</v>
@@ -57199,7 +57199,7 @@
         <v>1636</v>
       </c>
       <c r="AB356" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="AC356" t="s">
         <v>3070</v>
@@ -57211,7 +57211,7 @@
         <v>1636</v>
       </c>
       <c r="AF356" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="AG356" t="s">
         <v>3070</v>
@@ -57455,7 +57455,7 @@
         <v>1589</v>
       </c>
       <c r="AB358" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="AC358" t="s">
         <v>2149</v>
@@ -57467,7 +57467,7 @@
         <v>1670</v>
       </c>
       <c r="AF358" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="AG358" t="s">
         <v>2149</v>
@@ -57583,7 +57583,7 @@
         <v>1624</v>
       </c>
       <c r="AB359" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="AC359" t="s">
         <v>3070</v>
@@ -57595,7 +57595,7 @@
         <v>1624</v>
       </c>
       <c r="AF359" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="AG359" t="s">
         <v>3070</v>
@@ -57607,7 +57607,7 @@
         <v>1624</v>
       </c>
       <c r="AJ359" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="AK359" t="s">
         <v>3070</v>
@@ -57711,7 +57711,7 @@
         <v>1589</v>
       </c>
       <c r="AB360" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="AC360" t="s">
         <v>3083</v>
@@ -57839,7 +57839,7 @@
         <v>1625</v>
       </c>
       <c r="AB361" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="AC361" t="s">
         <v>3084</v>
@@ -58095,7 +58095,7 @@
         <v>1670</v>
       </c>
       <c r="AB363" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="AC363" t="s">
         <v>2999</v>
@@ -58351,7 +58351,7 @@
         <v>1625</v>
       </c>
       <c r="AB365" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="AC365" t="s">
         <v>2982</v>
@@ -58363,7 +58363,7 @@
         <v>1670</v>
       </c>
       <c r="AF365" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="AG365" t="s">
         <v>2149</v>
@@ -58375,7 +58375,7 @@
         <v>1651</v>
       </c>
       <c r="AJ365" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="AK365" t="s">
         <v>2151</v>
@@ -58479,7 +58479,7 @@
         <v>1670</v>
       </c>
       <c r="AB366" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="AC366" t="s">
         <v>2149</v>
@@ -58491,7 +58491,7 @@
         <v>1670</v>
       </c>
       <c r="AF366" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="AG366" t="s">
         <v>2149</v>
@@ -58607,7 +58607,7 @@
         <v>1670</v>
       </c>
       <c r="AB367" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="AC367" t="s">
         <v>2997</v>
@@ -58619,7 +58619,7 @@
         <v>1670</v>
       </c>
       <c r="AF367" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="AG367" t="s">
         <v>2997</v>
@@ -58631,7 +58631,7 @@
         <v>1650</v>
       </c>
       <c r="AJ367" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="AK367" t="s">
         <v>2997</v>
@@ -58735,7 +58735,7 @@
         <v>1670</v>
       </c>
       <c r="AB368" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="AC368" t="s">
         <v>3085</v>
@@ -58759,7 +58759,7 @@
         <v>1670</v>
       </c>
       <c r="AJ368" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="AK368" t="s">
         <v>2987</v>
@@ -58863,7 +58863,7 @@
         <v>1650</v>
       </c>
       <c r="AB369" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="AC369" t="s">
         <v>2133</v>
@@ -58875,7 +58875,7 @@
         <v>1578</v>
       </c>
       <c r="AF369" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="AG369" t="s">
         <v>2151</v>
@@ -58887,7 +58887,7 @@
         <v>1625</v>
       </c>
       <c r="AJ369" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="AK369" t="s">
         <v>2133</v>
@@ -58991,7 +58991,7 @@
         <v>1677</v>
       </c>
       <c r="AB370" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="AC370" t="s">
         <v>2996</v>
@@ -59247,7 +59247,7 @@
         <v>1633</v>
       </c>
       <c r="AB372" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="AC372" t="s">
         <v>3027</v>
@@ -59387,7 +59387,7 @@
         <v>1624</v>
       </c>
       <c r="AF373" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="AG373" t="s">
         <v>3472</v>
@@ -59503,7 +59503,7 @@
         <v>1687</v>
       </c>
       <c r="AB374" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="AC374" t="s">
         <v>2999</v>
@@ -59515,7 +59515,7 @@
         <v>1653</v>
       </c>
       <c r="AF374" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="AG374" t="s">
         <v>2999</v>
@@ -59631,7 +59631,7 @@
         <v>1650</v>
       </c>
       <c r="AB375" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="AC375" t="s">
         <v>2148</v>
@@ -59643,7 +59643,7 @@
         <v>1662</v>
       </c>
       <c r="AF375" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="AG375" t="s">
         <v>3473</v>
@@ -59655,7 +59655,7 @@
         <v>1630</v>
       </c>
       <c r="AJ375" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="AK375" t="s">
         <v>2148</v>
@@ -59759,7 +59759,7 @@
         <v>1671</v>
       </c>
       <c r="AB376" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="AC376" t="s">
         <v>2972</v>
@@ -59771,7 +59771,7 @@
         <v>1660</v>
       </c>
       <c r="AF376" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="AG376" t="s">
         <v>2972</v>
@@ -59783,7 +59783,7 @@
         <v>1660</v>
       </c>
       <c r="AJ376" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="AK376" t="s">
         <v>2151</v>
@@ -60271,7 +60271,7 @@
         <v>1625</v>
       </c>
       <c r="AB380" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="AC380" t="s">
         <v>3089</v>
@@ -60283,7 +60283,7 @@
         <v>1625</v>
       </c>
       <c r="AF380" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="AG380" t="s">
         <v>3072</v>
@@ -60399,7 +60399,7 @@
         <v>1630</v>
       </c>
       <c r="AB381" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="AC381" t="s">
         <v>3042</v>
@@ -60411,7 +60411,7 @@
         <v>1578</v>
       </c>
       <c r="AF381" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="AG381" t="s">
         <v>2149</v>
@@ -60423,7 +60423,7 @@
         <v>1578</v>
       </c>
       <c r="AJ381" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="AK381" t="s">
         <v>3747</v>
@@ -60783,7 +60783,7 @@
         <v>1662</v>
       </c>
       <c r="AB384" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="AC384" t="s">
         <v>3077</v>
@@ -60795,7 +60795,7 @@
         <v>1662</v>
       </c>
       <c r="AF384" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="AG384" t="s">
         <v>3077</v>
@@ -60807,7 +60807,7 @@
         <v>1662</v>
       </c>
       <c r="AJ384" t="s">
-        <v>2745</v>
+        <v>1574</v>
       </c>
       <c r="AK384" t="s">
         <v>3077</v>
@@ -60911,7 +60911,7 @@
         <v>1578</v>
       </c>
       <c r="AB385" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="AC385" t="s">
         <v>3048</v>
@@ -60935,7 +60935,7 @@
         <v>1578</v>
       </c>
       <c r="AJ385" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="AK385" t="s">
         <v>2165</v>
@@ -61039,7 +61039,7 @@
         <v>1624</v>
       </c>
       <c r="AB386" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="AC386" t="s">
         <v>3050</v>
@@ -61167,7 +61167,7 @@
         <v>1589</v>
       </c>
       <c r="AB387" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="AC387" t="s">
         <v>3091</v>
@@ -61191,7 +61191,7 @@
         <v>1589</v>
       </c>
       <c r="AJ387" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="AK387" t="s">
         <v>2972</v>
@@ -61423,7 +61423,7 @@
         <v>1677</v>
       </c>
       <c r="AB389" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="AC389" t="s">
         <v>2982</v>
@@ -61435,7 +61435,7 @@
         <v>1956</v>
       </c>
       <c r="AF389" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="AG389" t="s">
         <v>2149</v>
@@ -61447,7 +61447,7 @@
         <v>1677</v>
       </c>
       <c r="AJ389" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="AK389" t="s">
         <v>2149</v>
@@ -61551,7 +61551,7 @@
         <v>1596</v>
       </c>
       <c r="AB390" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="AC390" t="s">
         <v>2991</v>
@@ -61563,7 +61563,7 @@
         <v>1662</v>
       </c>
       <c r="AF390" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="AG390" t="s">
         <v>2149</v>
@@ -61575,7 +61575,7 @@
         <v>1642</v>
       </c>
       <c r="AJ390" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="AK390" t="s">
         <v>2148</v>
@@ -61679,7 +61679,7 @@
         <v>1624</v>
       </c>
       <c r="AB391" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="AC391" t="s">
         <v>2149</v>
@@ -61691,7 +61691,7 @@
         <v>1630</v>
       </c>
       <c r="AF391" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="AG391" t="s">
         <v>2149</v>
@@ -61703,7 +61703,7 @@
         <v>1625</v>
       </c>
       <c r="AJ391" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="AK391" t="s">
         <v>3733</v>
@@ -61935,7 +61935,7 @@
         <v>1656</v>
       </c>
       <c r="AB393" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="AC393" t="s">
         <v>2976</v>
@@ -62063,7 +62063,7 @@
         <v>1662</v>
       </c>
       <c r="AB394" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="AC394" t="s">
         <v>3092</v>
@@ -62319,7 +62319,7 @@
         <v>1589</v>
       </c>
       <c r="AB396" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="AC396" t="s">
         <v>2999</v>
@@ -62447,7 +62447,7 @@
         <v>1670</v>
       </c>
       <c r="AB397" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="AC397" t="s">
         <v>2997</v>
@@ -62459,7 +62459,7 @@
         <v>1578</v>
       </c>
       <c r="AF397" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="AG397" t="s">
         <v>2149</v>
@@ -62471,7 +62471,7 @@
         <v>1636</v>
       </c>
       <c r="AJ397" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="AK397" t="s">
         <v>2149</v>
@@ -62599,7 +62599,7 @@
         <v>1662</v>
       </c>
       <c r="AJ398" t="s">
-        <v>1574</v>
+        <v>2491</v>
       </c>
       <c r="AK398" t="s">
         <v>3013</v>
@@ -62959,7 +62959,7 @@
         <v>1656</v>
       </c>
       <c r="AB401" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="AC401" t="s">
         <v>2985</v>
@@ -62971,7 +62971,7 @@
         <v>1624</v>
       </c>
       <c r="AF401" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="AG401" t="s">
         <v>3036</v>
@@ -62983,7 +62983,7 @@
         <v>1656</v>
       </c>
       <c r="AJ401" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="AK401" t="s">
         <v>2985</v>
@@ -63215,7 +63215,7 @@
         <v>1624</v>
       </c>
       <c r="AB403" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="AC403" t="s">
         <v>2995</v>
@@ -63227,7 +63227,7 @@
         <v>1662</v>
       </c>
       <c r="AF403" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="AG403" t="s">
         <v>2997</v>
@@ -63239,7 +63239,7 @@
         <v>1624</v>
       </c>
       <c r="AJ403" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="AK403" t="s">
         <v>2995</v>
@@ -63343,7 +63343,7 @@
         <v>1624</v>
       </c>
       <c r="AB404" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="AC404" t="s">
         <v>2995</v>
@@ -63355,7 +63355,7 @@
         <v>1630</v>
       </c>
       <c r="AF404" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="AG404" t="s">
         <v>2997</v>
@@ -63367,7 +63367,7 @@
         <v>1578</v>
       </c>
       <c r="AJ404" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="AK404" t="s">
         <v>2151</v>
@@ -63599,7 +63599,7 @@
         <v>1630</v>
       </c>
       <c r="AB406" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="AC406" t="s">
         <v>2997</v>
@@ -63611,7 +63611,7 @@
         <v>1670</v>
       </c>
       <c r="AF406" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="AG406" t="s">
         <v>2991</v>
@@ -63623,7 +63623,7 @@
         <v>1670</v>
       </c>
       <c r="AJ406" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="AK406" t="s">
         <v>2991</v>
@@ -63727,7 +63727,7 @@
         <v>1674</v>
       </c>
       <c r="AB407" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="AC407" t="s">
         <v>3027</v>
@@ -63855,7 +63855,7 @@
         <v>1677</v>
       </c>
       <c r="AB408" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="AC408" t="s">
         <v>3027</v>
@@ -63867,7 +63867,7 @@
         <v>1624</v>
       </c>
       <c r="AF408" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="AG408" t="s">
         <v>2151</v>
@@ -63983,7 +63983,7 @@
         <v>1630</v>
       </c>
       <c r="AB409" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="AC409" t="s">
         <v>2997</v>
@@ -63995,7 +63995,7 @@
         <v>1624</v>
       </c>
       <c r="AF409" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="AG409" t="s">
         <v>2149</v>
@@ -64111,7 +64111,7 @@
         <v>1662</v>
       </c>
       <c r="AB410" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="AC410" t="s">
         <v>2999</v>
@@ -64123,7 +64123,7 @@
         <v>1662</v>
       </c>
       <c r="AF410" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="AG410" t="s">
         <v>3047</v>
@@ -64135,7 +64135,7 @@
         <v>1630</v>
       </c>
       <c r="AJ410" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="AK410" t="s">
         <v>2149</v>
@@ -64239,7 +64239,7 @@
         <v>1662</v>
       </c>
       <c r="AB411" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="AC411" t="s">
         <v>2995</v>
@@ -64367,7 +64367,7 @@
         <v>1578</v>
       </c>
       <c r="AB412" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="AC412" t="s">
         <v>2999</v>
@@ -64623,7 +64623,7 @@
         <v>1784</v>
       </c>
       <c r="AB414" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="AC414" t="s">
         <v>3043</v>
@@ -64751,7 +64751,7 @@
         <v>1670</v>
       </c>
       <c r="AB415" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="AC415" t="s">
         <v>2148</v>
@@ -64763,7 +64763,7 @@
         <v>1636</v>
       </c>
       <c r="AF415" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="AG415" t="s">
         <v>2981</v>
@@ -64775,7 +64775,7 @@
         <v>1636</v>
       </c>
       <c r="AJ415" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="AK415" t="s">
         <v>2148</v>
@@ -64879,7 +64879,7 @@
         <v>1625</v>
       </c>
       <c r="AB416" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="AC416" t="s">
         <v>3003</v>
@@ -65007,7 +65007,7 @@
         <v>1650</v>
       </c>
       <c r="AB417" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="AC417" t="s">
         <v>2148</v>
@@ -65019,7 +65019,7 @@
         <v>1636</v>
       </c>
       <c r="AF417" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="AG417" t="s">
         <v>2981</v>
@@ -65135,7 +65135,7 @@
         <v>1628</v>
       </c>
       <c r="AB418" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="AC418" t="s">
         <v>3029</v>
@@ -65147,7 +65147,7 @@
         <v>1578</v>
       </c>
       <c r="AF418" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="AG418" t="s">
         <v>2148</v>
@@ -65159,7 +65159,7 @@
         <v>1628</v>
       </c>
       <c r="AJ418" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="AK418" t="s">
         <v>3042</v>
@@ -65263,7 +65263,7 @@
         <v>1650</v>
       </c>
       <c r="AB419" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="AC419" t="s">
         <v>2151</v>
@@ -65275,7 +65275,7 @@
         <v>1630</v>
       </c>
       <c r="AF419" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="AG419" t="s">
         <v>2151</v>
@@ -65287,7 +65287,7 @@
         <v>1621</v>
       </c>
       <c r="AJ419" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="AK419" t="s">
         <v>2982</v>
@@ -65519,7 +65519,7 @@
         <v>1670</v>
       </c>
       <c r="AB421" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="AC421" t="s">
         <v>2991</v>
@@ -65647,7 +65647,7 @@
         <v>1636</v>
       </c>
       <c r="AB422" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="AC422" t="s">
         <v>3093</v>
@@ -66159,7 +66159,7 @@
         <v>1650</v>
       </c>
       <c r="AB426" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="AC426" t="s">
         <v>3095</v>
@@ -66287,7 +66287,7 @@
         <v>1670</v>
       </c>
       <c r="AB427" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="AC427" t="s">
         <v>2148</v>
@@ -66299,7 +66299,7 @@
         <v>1650</v>
       </c>
       <c r="AF427" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="AG427" t="s">
         <v>3475</v>
@@ -66311,7 +66311,7 @@
         <v>1625</v>
       </c>
       <c r="AJ427" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="AK427" t="s">
         <v>2148</v>
@@ -66543,7 +66543,7 @@
         <v>1633</v>
       </c>
       <c r="AB429" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="AC429" t="s">
         <v>3027</v>
@@ -66671,7 +66671,7 @@
         <v>1650</v>
       </c>
       <c r="AB430" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="AC430" t="s">
         <v>2982</v>
@@ -66683,7 +66683,7 @@
         <v>1578</v>
       </c>
       <c r="AF430" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="AG430" t="s">
         <v>2149</v>
@@ -66695,7 +66695,7 @@
         <v>1578</v>
       </c>
       <c r="AJ430" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="AK430" t="s">
         <v>2151</v>
@@ -67055,7 +67055,7 @@
         <v>1624</v>
       </c>
       <c r="AB433" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="AC433" t="s">
         <v>3070</v>
@@ -67067,7 +67067,7 @@
         <v>1608</v>
       </c>
       <c r="AF433" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="AG433" t="s">
         <v>3045</v>
@@ -67183,7 +67183,7 @@
         <v>1662</v>
       </c>
       <c r="AB434" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="AC434" t="s">
         <v>3096</v>
@@ -67439,7 +67439,7 @@
         <v>1578</v>
       </c>
       <c r="AB436" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="AC436" t="s">
         <v>2149</v>
@@ -67567,7 +67567,7 @@
         <v>1630</v>
       </c>
       <c r="AB437" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="AC437" t="s">
         <v>3097</v>
@@ -67579,7 +67579,7 @@
         <v>1670</v>
       </c>
       <c r="AF437" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="AG437" t="s">
         <v>3478</v>
@@ -67591,7 +67591,7 @@
         <v>1670</v>
       </c>
       <c r="AJ437" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="AK437" t="s">
         <v>3097</v>
@@ -67695,7 +67695,7 @@
         <v>1633</v>
       </c>
       <c r="AB438" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="AC438" t="s">
         <v>2151</v>
@@ -67823,7 +67823,7 @@
         <v>1625</v>
       </c>
       <c r="AB439" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="AC439" t="s">
         <v>3047</v>
@@ -67951,7 +67951,7 @@
         <v>1636</v>
       </c>
       <c r="AB440" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="AC440" t="s">
         <v>3098</v>
@@ -68076,7 +68076,7 @@
         <v>1656</v>
       </c>
       <c r="AB441" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="AC441" t="s">
         <v>3047</v>
@@ -68088,7 +68088,7 @@
         <v>1670</v>
       </c>
       <c r="AF441" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="AG441" t="s">
         <v>3479</v>
@@ -68100,7 +68100,7 @@
         <v>1633</v>
       </c>
       <c r="AJ441" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="AK441" t="s">
         <v>3750</v>
@@ -68204,7 +68204,7 @@
         <v>1662</v>
       </c>
       <c r="AB442" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="AC442" t="s">
         <v>2997</v>
@@ -68588,7 +68588,7 @@
         <v>1589</v>
       </c>
       <c r="AB445" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="AC445" t="s">
         <v>2149</v>
@@ -68600,7 +68600,7 @@
         <v>1670</v>
       </c>
       <c r="AF445" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="AG445" t="s">
         <v>2151</v>
@@ -68612,7 +68612,7 @@
         <v>1578</v>
       </c>
       <c r="AJ445" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="AK445" t="s">
         <v>2991</v>
@@ -68716,7 +68716,7 @@
         <v>1636</v>
       </c>
       <c r="AB446" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="AC446" t="s">
         <v>2151</v>
@@ -68728,7 +68728,7 @@
         <v>1578</v>
       </c>
       <c r="AF446" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="AG446" t="s">
         <v>2149</v>
@@ -68844,7 +68844,7 @@
         <v>1636</v>
       </c>
       <c r="AB447" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="AC447" t="s">
         <v>2148</v>
@@ -68972,7 +68972,7 @@
         <v>1662</v>
       </c>
       <c r="AB448" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="AC448" t="s">
         <v>3049</v>
@@ -69100,7 +69100,7 @@
         <v>1674</v>
       </c>
       <c r="AB449" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="AC449" t="s">
         <v>3043</v>
@@ -69356,7 +69356,7 @@
         <v>1650</v>
       </c>
       <c r="AB451" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="AC451" t="s">
         <v>3099</v>
@@ -69484,7 +69484,7 @@
         <v>1636</v>
       </c>
       <c r="AB452" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="AC452" t="s">
         <v>2981</v>
@@ -69740,7 +69740,7 @@
         <v>1650</v>
       </c>
       <c r="AB454" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="AC454" t="s">
         <v>2151</v>
@@ -69752,7 +69752,7 @@
         <v>1578</v>
       </c>
       <c r="AF454" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="AG454" t="s">
         <v>2151</v>
@@ -69764,7 +69764,7 @@
         <v>1625</v>
       </c>
       <c r="AJ454" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="AK454" t="s">
         <v>2982</v>
@@ -69868,7 +69868,7 @@
         <v>1636</v>
       </c>
       <c r="AB455" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="AC455" t="s">
         <v>3100</v>
@@ -69880,7 +69880,7 @@
         <v>1630</v>
       </c>
       <c r="AF455" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="AG455" t="s">
         <v>2993</v>
@@ -69892,7 +69892,7 @@
         <v>1650</v>
       </c>
       <c r="AJ455" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="AK455" t="s">
         <v>2133</v>
@@ -69996,7 +69996,7 @@
         <v>1690</v>
       </c>
       <c r="AB456" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="AC456" t="s">
         <v>3101</v>
@@ -70252,7 +70252,7 @@
         <v>1624</v>
       </c>
       <c r="AB458" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="AC458" t="s">
         <v>3102</v>
@@ -70264,7 +70264,7 @@
         <v>1624</v>
       </c>
       <c r="AF458" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="AG458" t="s">
         <v>3070</v>
@@ -70508,7 +70508,7 @@
         <v>1636</v>
       </c>
       <c r="AB460" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="AC460" t="s">
         <v>2991</v>
@@ -70520,7 +70520,7 @@
         <v>1650</v>
       </c>
       <c r="AF460" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="AG460" t="s">
         <v>2149</v>
@@ -70532,7 +70532,7 @@
         <v>1578</v>
       </c>
       <c r="AJ460" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="AK460" t="s">
         <v>3751</v>
@@ -70636,7 +70636,7 @@
         <v>1660</v>
       </c>
       <c r="AB461" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="AC461" t="s">
         <v>2151</v>
@@ -71020,7 +71020,7 @@
         <v>1784</v>
       </c>
       <c r="AB464" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="AC464" t="s">
         <v>2999</v>
@@ -71032,7 +71032,7 @@
         <v>1674</v>
       </c>
       <c r="AF464" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="AG464" t="s">
         <v>2982</v>
@@ -71401,7 +71401,7 @@
         <v>1650</v>
       </c>
       <c r="AB467" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="AC467" t="s">
         <v>3103</v>
@@ -71529,7 +71529,7 @@
         <v>1662</v>
       </c>
       <c r="AB468" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="AC468" t="s">
         <v>3050</v>
@@ -71657,7 +71657,7 @@
         <v>1670</v>
       </c>
       <c r="AB469" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="AC469" t="s">
         <v>3055</v>
@@ -71669,7 +71669,7 @@
         <v>1633</v>
       </c>
       <c r="AF469" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="AG469" t="s">
         <v>3055</v>
@@ -71681,7 +71681,7 @@
         <v>1636</v>
       </c>
       <c r="AJ469" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="AK469" t="s">
         <v>3055</v>
@@ -71785,7 +71785,7 @@
         <v>1651</v>
       </c>
       <c r="AB470" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="AC470" t="s">
         <v>3104</v>
@@ -71797,7 +71797,7 @@
         <v>1633</v>
       </c>
       <c r="AF470" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="AG470" t="s">
         <v>3481</v>
@@ -71809,7 +71809,7 @@
         <v>1678</v>
       </c>
       <c r="AJ470" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="AK470" t="s">
         <v>3481</v>
@@ -72169,7 +72169,7 @@
         <v>1636</v>
       </c>
       <c r="AB473" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="AC473" t="s">
         <v>2148</v>
@@ -72181,7 +72181,7 @@
         <v>1578</v>
       </c>
       <c r="AF473" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="AG473" t="s">
         <v>2148</v>
@@ -72193,7 +72193,7 @@
         <v>1630</v>
       </c>
       <c r="AJ473" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="AK473" t="s">
         <v>3473</v>
@@ -72425,7 +72425,7 @@
         <v>1636</v>
       </c>
       <c r="AB475" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="AC475" t="s">
         <v>3055</v>
@@ -72553,7 +72553,7 @@
         <v>1662</v>
       </c>
       <c r="AB476" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="AC476" t="s">
         <v>2148</v>
@@ -72681,7 +72681,7 @@
         <v>1630</v>
       </c>
       <c r="AB477" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="AC477" t="s">
         <v>2148</v>
@@ -72809,7 +72809,7 @@
         <v>1650</v>
       </c>
       <c r="AB478" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="AC478" t="s">
         <v>2999</v>
@@ -72821,7 +72821,7 @@
         <v>1650</v>
       </c>
       <c r="AF478" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="AG478" t="s">
         <v>2999</v>
@@ -72833,7 +72833,7 @@
         <v>1578</v>
       </c>
       <c r="AJ478" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="AK478" t="s">
         <v>2165</v>
@@ -72937,7 +72937,7 @@
         <v>1630</v>
       </c>
       <c r="AB479" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="AC479" t="s">
         <v>3107</v>
@@ -72949,7 +72949,7 @@
         <v>1578</v>
       </c>
       <c r="AF479" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="AG479" t="s">
         <v>2151</v>
@@ -72961,7 +72961,7 @@
         <v>1650</v>
       </c>
       <c r="AJ479" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="AK479" t="s">
         <v>2982</v>
@@ -73449,7 +73449,7 @@
         <v>1625</v>
       </c>
       <c r="AB483" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="AC483" t="s">
         <v>2981</v>
@@ -73833,7 +73833,7 @@
         <v>1636</v>
       </c>
       <c r="AB486" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="AC486" t="s">
         <v>3055</v>
@@ -73961,7 +73961,7 @@
         <v>1660</v>
       </c>
       <c r="AB487" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="AC487" t="s">
         <v>3109</v>
@@ -74217,7 +74217,7 @@
         <v>1589</v>
       </c>
       <c r="AB489" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="AC489" t="s">
         <v>2148</v>
@@ -74229,7 +74229,7 @@
         <v>1596</v>
       </c>
       <c r="AF489" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="AG489" t="s">
         <v>3482</v>
@@ -74345,7 +74345,7 @@
         <v>1782</v>
       </c>
       <c r="AB490" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="AC490" t="s">
         <v>3027</v>
@@ -74473,7 +74473,7 @@
         <v>1625</v>
       </c>
       <c r="AB491" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="AC491" t="s">
         <v>2149</v>
@@ -74485,7 +74485,7 @@
         <v>1578</v>
       </c>
       <c r="AF491" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="AG491" t="s">
         <v>2149</v>
@@ -74497,7 +74497,7 @@
         <v>1578</v>
       </c>
       <c r="AJ491" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="AK491" t="s">
         <v>2151</v>
@@ -74601,7 +74601,7 @@
         <v>1625</v>
       </c>
       <c r="AB492" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="AC492" t="s">
         <v>3110</v>
@@ -74613,7 +74613,7 @@
         <v>1624</v>
       </c>
       <c r="AF492" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="AG492" t="s">
         <v>2976</v>
@@ -74857,7 +74857,7 @@
         <v>1625</v>
       </c>
       <c r="AB494" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="AC494" t="s">
         <v>2982</v>
@@ -74869,7 +74869,7 @@
         <v>1578</v>
       </c>
       <c r="AF494" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="AG494" t="s">
         <v>2982</v>
@@ -74881,7 +74881,7 @@
         <v>1633</v>
       </c>
       <c r="AJ494" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="AK494" t="s">
         <v>2151</v>
@@ -74985,7 +74985,7 @@
         <v>1662</v>
       </c>
       <c r="AB495" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="AC495" t="s">
         <v>2981</v>
@@ -74997,7 +74997,7 @@
         <v>1589</v>
       </c>
       <c r="AF495" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="AG495" t="s">
         <v>2148</v>
@@ -75009,7 +75009,7 @@
         <v>1662</v>
       </c>
       <c r="AJ495" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="AK495" t="s">
         <v>2148</v>
@@ -75113,7 +75113,7 @@
         <v>1624</v>
       </c>
       <c r="AB496" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="AC496" t="s">
         <v>3096</v>
@@ -75369,7 +75369,7 @@
         <v>1630</v>
       </c>
       <c r="AB498" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="AC498" t="s">
         <v>3045</v>
@@ -75497,7 +75497,7 @@
         <v>1805</v>
       </c>
       <c r="AB499" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="AC499" t="s">
         <v>2976</v>
@@ -75509,7 +75509,7 @@
         <v>1805</v>
       </c>
       <c r="AF499" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="AG499" t="s">
         <v>3069</v>
@@ -75521,7 +75521,7 @@
         <v>1784</v>
       </c>
       <c r="AJ499" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="AK499" t="s">
         <v>3069</v>
@@ -75753,7 +75753,7 @@
         <v>1662</v>
       </c>
       <c r="AB501" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="AC501" t="s">
         <v>3103</v>
@@ -75765,7 +75765,7 @@
         <v>1662</v>
       </c>
       <c r="AF501" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="AG501" t="s">
         <v>3070</v>
@@ -75777,7 +75777,7 @@
         <v>1630</v>
       </c>
       <c r="AJ501" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="AK501" t="s">
         <v>3446</v>
@@ -75881,7 +75881,7 @@
         <v>1625</v>
       </c>
       <c r="AB502" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="AC502" t="s">
         <v>3111</v>
@@ -76009,7 +76009,7 @@
         <v>1628</v>
       </c>
       <c r="AB503" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="AC503" t="s">
         <v>2148</v>
@@ -76265,7 +76265,7 @@
         <v>1660</v>
       </c>
       <c r="AB505" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="AC505" t="s">
         <v>3089</v>
@@ -76277,7 +76277,7 @@
         <v>1636</v>
       </c>
       <c r="AF505" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="AG505" t="s">
         <v>3089</v>
@@ -76289,7 +76289,7 @@
         <v>1624</v>
       </c>
       <c r="AJ505" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="AK505" t="s">
         <v>3089</v>
@@ -76393,7 +76393,7 @@
         <v>1589</v>
       </c>
       <c r="AB506" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="AC506" t="s">
         <v>3042</v>
@@ -76521,7 +76521,7 @@
         <v>1630</v>
       </c>
       <c r="AB507" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="AC507" t="s">
         <v>3070</v>
@@ -76533,7 +76533,7 @@
         <v>1662</v>
       </c>
       <c r="AF507" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="AG507" t="s">
         <v>3070</v>
@@ -76545,7 +76545,7 @@
         <v>1650</v>
       </c>
       <c r="AJ507" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="AK507" t="s">
         <v>2151</v>
@@ -76649,7 +76649,7 @@
         <v>1670</v>
       </c>
       <c r="AB508" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="AC508" t="s">
         <v>3075</v>
@@ -76661,7 +76661,7 @@
         <v>1625</v>
       </c>
       <c r="AF508" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="AG508" t="s">
         <v>3484</v>
@@ -77033,7 +77033,7 @@
         <v>1656</v>
       </c>
       <c r="AB511" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="AC511" t="s">
         <v>3113</v>
@@ -77045,7 +77045,7 @@
         <v>1630</v>
       </c>
       <c r="AF511" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="AG511" t="s">
         <v>3055</v>
@@ -77057,7 +77057,7 @@
         <v>1650</v>
       </c>
       <c r="AJ511" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="AK511" t="s">
         <v>3055</v>
@@ -77161,7 +77161,7 @@
         <v>1642</v>
       </c>
       <c r="AB512" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="AC512" t="s">
         <v>3069</v>
@@ -77289,7 +77289,7 @@
         <v>1633</v>
       </c>
       <c r="AB513" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="AC513" t="s">
         <v>3067</v>
@@ -77417,7 +77417,7 @@
         <v>1670</v>
       </c>
       <c r="AB514" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="AC514" t="s">
         <v>2982</v>
@@ -77429,7 +77429,7 @@
         <v>1645</v>
       </c>
       <c r="AF514" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="AG514" t="s">
         <v>2982</v>
@@ -77441,7 +77441,7 @@
         <v>1670</v>
       </c>
       <c r="AJ514" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="AK514" t="s">
         <v>2982</v>
@@ -77545,7 +77545,7 @@
         <v>1596</v>
       </c>
       <c r="AB515" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="AC515" t="s">
         <v>3096</v>
@@ -77673,7 +77673,7 @@
         <v>1670</v>
       </c>
       <c r="AB516" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="AC516" t="s">
         <v>2991</v>
@@ -77801,7 +77801,7 @@
         <v>1630</v>
       </c>
       <c r="AB517" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="AC517" t="s">
         <v>3050</v>
@@ -77813,7 +77813,7 @@
         <v>1630</v>
       </c>
       <c r="AF517" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="AG517" t="s">
         <v>3050</v>
@@ -77825,7 +77825,7 @@
         <v>1662</v>
       </c>
       <c r="AJ517" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="AK517" t="s">
         <v>3480</v>
@@ -77929,7 +77929,7 @@
         <v>1636</v>
       </c>
       <c r="AB518" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="AC518" t="s">
         <v>3048</v>
@@ -77941,7 +77941,7 @@
         <v>1633</v>
       </c>
       <c r="AF518" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="AG518" t="s">
         <v>3486</v>
@@ -78313,7 +78313,7 @@
         <v>1621</v>
       </c>
       <c r="AB521" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="AC521" t="s">
         <v>3097</v>
@@ -78325,7 +78325,7 @@
         <v>1621</v>
       </c>
       <c r="AF521" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="AG521" t="s">
         <v>3097</v>
@@ -78441,7 +78441,7 @@
         <v>1596</v>
       </c>
       <c r="AB522" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="AC522" t="s">
         <v>3114</v>
@@ -78569,7 +78569,7 @@
         <v>1670</v>
       </c>
       <c r="AB523" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="AC523" t="s">
         <v>2999</v>
@@ -78581,7 +78581,7 @@
         <v>1670</v>
       </c>
       <c r="AF523" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="AG523" t="s">
         <v>2999</v>
@@ -78953,7 +78953,7 @@
         <v>1674</v>
       </c>
       <c r="AB526" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="AC526" t="s">
         <v>3069</v>
@@ -79209,7 +79209,7 @@
         <v>1660</v>
       </c>
       <c r="AB528" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="AC528" t="s">
         <v>2999</v>
@@ -79221,7 +79221,7 @@
         <v>1660</v>
       </c>
       <c r="AF528" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="AG528" t="s">
         <v>2999</v>
@@ -79233,7 +79233,7 @@
         <v>1660</v>
       </c>
       <c r="AJ528" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="AK528" t="s">
         <v>2999</v>
@@ -79465,7 +79465,7 @@
         <v>1630</v>
       </c>
       <c r="AB530" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="AC530" t="s">
         <v>3038</v>
@@ -79477,7 +79477,7 @@
         <v>1630</v>
       </c>
       <c r="AF530" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="AG530" t="s">
         <v>3487</v>
@@ -79489,7 +79489,7 @@
         <v>1636</v>
       </c>
       <c r="AJ530" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="AK530" t="s">
         <v>3001</v>
@@ -79593,7 +79593,7 @@
         <v>1609</v>
       </c>
       <c r="AB531" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="AC531" t="s">
         <v>2976</v>
@@ -79605,7 +79605,7 @@
         <v>2003</v>
       </c>
       <c r="AF531" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="AG531" t="s">
         <v>2976</v>
@@ -79849,7 +79849,7 @@
         <v>1589</v>
       </c>
       <c r="AB533" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="AC533" t="s">
         <v>3047</v>
@@ -80105,7 +80105,7 @@
         <v>1630</v>
       </c>
       <c r="AB535" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="AC535" t="s">
         <v>2999</v>
@@ -80230,7 +80230,7 @@
         <v>1737</v>
       </c>
       <c r="AB536" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="AC536" t="s">
         <v>3116</v>
@@ -80382,7 +80382,7 @@
         <v>1642</v>
       </c>
       <c r="AJ537" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="AK537" t="s">
         <v>3753</v>
@@ -80614,7 +80614,7 @@
         <v>1625</v>
       </c>
       <c r="AB539" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="AC539" t="s">
         <v>3070</v>
@@ -80626,7 +80626,7 @@
         <v>1662</v>
       </c>
       <c r="AF539" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="AG539" t="s">
         <v>3070</v>
@@ -80638,7 +80638,7 @@
         <v>1654</v>
       </c>
       <c r="AJ539" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="AK539" t="s">
         <v>3070</v>
@@ -80870,7 +80870,7 @@
         <v>1624</v>
       </c>
       <c r="AB541" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="AC541" t="s">
         <v>2980</v>
@@ -80882,7 +80882,7 @@
         <v>1630</v>
       </c>
       <c r="AF541" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="AG541" t="s">
         <v>2980</v>
@@ -80998,7 +80998,7 @@
         <v>1662</v>
       </c>
       <c r="AB542" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="AC542" t="s">
         <v>3117</v>
@@ -81126,7 +81126,7 @@
         <v>1628</v>
       </c>
       <c r="AB543" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="AC543" t="s">
         <v>3079</v>
@@ -81138,7 +81138,7 @@
         <v>1628</v>
       </c>
       <c r="AF543" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="AG543" t="s">
         <v>3079</v>
@@ -81766,7 +81766,7 @@
         <v>1630</v>
       </c>
       <c r="AB548" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="AC548" t="s">
         <v>3038</v>
@@ -81894,7 +81894,7 @@
         <v>1628</v>
       </c>
       <c r="AB549" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="AC549" t="s">
         <v>2151</v>
@@ -82022,7 +82022,7 @@
         <v>1589</v>
       </c>
       <c r="AB550" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="AC550" t="s">
         <v>2973</v>
@@ -82150,7 +82150,7 @@
         <v>1662</v>
       </c>
       <c r="AB551" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="AC551" t="s">
         <v>2999</v>
@@ -82534,7 +82534,7 @@
         <v>1660</v>
       </c>
       <c r="AB554" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="AC554" t="s">
         <v>2976</v>
@@ -82790,7 +82790,7 @@
         <v>1589</v>
       </c>
       <c r="AB556" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="AC556" t="s">
         <v>3042</v>
@@ -82918,7 +82918,7 @@
         <v>1688</v>
       </c>
       <c r="AB557" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="AC557" t="s">
         <v>2976</v>
@@ -83302,7 +83302,7 @@
         <v>1671</v>
       </c>
       <c r="AB560" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="AC560" t="s">
         <v>3070</v>
@@ -83314,7 +83314,7 @@
         <v>1660</v>
       </c>
       <c r="AF560" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="AG560" t="s">
         <v>3489</v>
@@ -83686,7 +83686,7 @@
         <v>1662</v>
       </c>
       <c r="AB563" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="AC563" t="s">
         <v>2151</v>
@@ -83698,7 +83698,7 @@
         <v>1589</v>
       </c>
       <c r="AF563" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="AG563" t="s">
         <v>2982</v>
@@ -83814,7 +83814,7 @@
         <v>1630</v>
       </c>
       <c r="AB564" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="AC564" t="s">
         <v>2997</v>
@@ -83942,7 +83942,7 @@
         <v>1687</v>
       </c>
       <c r="AB565" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="AC565" t="s">
         <v>3018</v>
@@ -83954,7 +83954,7 @@
         <v>3256</v>
       </c>
       <c r="AF565" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="AG565" t="s">
         <v>3441</v>
@@ -84198,7 +84198,7 @@
         <v>1630</v>
       </c>
       <c r="AB567" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="AC567" t="s">
         <v>3120</v>
@@ -84210,7 +84210,7 @@
         <v>1630</v>
       </c>
       <c r="AF567" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="AG567" t="s">
         <v>2975</v>
@@ -84222,7 +84222,7 @@
         <v>1630</v>
       </c>
       <c r="AJ567" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="AK567" t="s">
         <v>2975</v>
@@ -84326,7 +84326,7 @@
         <v>1662</v>
       </c>
       <c r="AB568" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="AC568" t="s">
         <v>2983</v>
@@ -84338,7 +84338,7 @@
         <v>1662</v>
       </c>
       <c r="AF568" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="AG568" t="s">
         <v>3081</v>
@@ -84350,7 +84350,7 @@
         <v>1670</v>
       </c>
       <c r="AJ568" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="AK568" t="s">
         <v>3081</v>
@@ -84582,7 +84582,7 @@
         <v>1630</v>
       </c>
       <c r="AB570" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="AC570" t="s">
         <v>3027</v>
@@ -84966,7 +84966,7 @@
         <v>1671</v>
       </c>
       <c r="AB573" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="AC573" t="s">
         <v>3096</v>
@@ -85094,7 +85094,7 @@
         <v>1630</v>
       </c>
       <c r="AB574" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="AC574" t="s">
         <v>3069</v>
@@ -85222,7 +85222,7 @@
         <v>1628</v>
       </c>
       <c r="AB575" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="AC575" t="s">
         <v>3121</v>
@@ -85362,7 +85362,7 @@
         <v>1660</v>
       </c>
       <c r="AF576" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="AG576" t="s">
         <v>2148</v>
@@ -85374,7 +85374,7 @@
         <v>1625</v>
       </c>
       <c r="AJ576" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="AK576" t="s">
         <v>2148</v>
@@ -85478,7 +85478,7 @@
         <v>1654</v>
       </c>
       <c r="AB577" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="AC577" t="s">
         <v>2148</v>
@@ -85606,7 +85606,7 @@
         <v>1589</v>
       </c>
       <c r="AB578" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="AD578" t="s">
         <v>1574</v>
@@ -85859,7 +85859,7 @@
         <v>1589</v>
       </c>
       <c r="AB580" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="AC580" t="s">
         <v>2999</v>
@@ -85987,7 +85987,7 @@
         <v>1662</v>
       </c>
       <c r="AB581" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="AC581" t="s">
         <v>3122</v>
@@ -86115,7 +86115,7 @@
         <v>1624</v>
       </c>
       <c r="AB582" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="AC582" t="s">
         <v>3070</v>
@@ -86127,7 +86127,7 @@
         <v>1662</v>
       </c>
       <c r="AF582" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="AG582" t="s">
         <v>2997</v>
@@ -86139,7 +86139,7 @@
         <v>1636</v>
       </c>
       <c r="AJ582" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="AK582" t="s">
         <v>3070</v>
@@ -86243,7 +86243,7 @@
         <v>1647</v>
       </c>
       <c r="AB583" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="AC583" t="s">
         <v>3068</v>
@@ -86255,7 +86255,7 @@
         <v>1647</v>
       </c>
       <c r="AF583" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="AG583" t="s">
         <v>3042</v>
@@ -86499,7 +86499,7 @@
         <v>1692</v>
       </c>
       <c r="AB585" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="AC585" t="s">
         <v>3043</v>
@@ -86627,7 +86627,7 @@
         <v>1662</v>
       </c>
       <c r="AB586" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="AC586" t="s">
         <v>3092</v>
@@ -86639,7 +86639,7 @@
         <v>1662</v>
       </c>
       <c r="AF586" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="AG586" t="s">
         <v>3092</v>
@@ -86883,7 +86883,7 @@
         <v>1589</v>
       </c>
       <c r="AB588" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="AC588" t="s">
         <v>2972</v>
@@ -86895,7 +86895,7 @@
         <v>1670</v>
       </c>
       <c r="AF588" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="AG588" t="s">
         <v>2151</v>
@@ -86907,7 +86907,7 @@
         <v>1578</v>
       </c>
       <c r="AJ588" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="AK588" t="s">
         <v>2151</v>
@@ -87011,7 +87011,7 @@
         <v>1630</v>
       </c>
       <c r="AB589" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="AC589" t="s">
         <v>2999</v>
@@ -87264,7 +87264,7 @@
         <v>1662</v>
       </c>
       <c r="AB591" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="AC591" t="s">
         <v>2133</v>
@@ -87520,7 +87520,7 @@
         <v>1589</v>
       </c>
       <c r="AB593" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="AC593" t="s">
         <v>3049</v>
@@ -87648,7 +87648,7 @@
         <v>1670</v>
       </c>
       <c r="AB594" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="AC594" t="s">
         <v>2997</v>
@@ -87660,7 +87660,7 @@
         <v>1630</v>
       </c>
       <c r="AF594" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="AG594" t="s">
         <v>2982</v>
@@ -87776,7 +87776,7 @@
         <v>1624</v>
       </c>
       <c r="AB595" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="AC595" t="s">
         <v>2982</v>
@@ -87788,7 +87788,7 @@
         <v>1670</v>
       </c>
       <c r="AF595" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="AG595" t="s">
         <v>2982</v>
@@ -87904,7 +87904,7 @@
         <v>1656</v>
       </c>
       <c r="AB596" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="AC596" t="s">
         <v>3069</v>
@@ -88032,7 +88032,7 @@
         <v>2444</v>
       </c>
       <c r="AB597" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="AC597" t="s">
         <v>2999</v>
@@ -88160,7 +88160,7 @@
         <v>1739</v>
       </c>
       <c r="AB598" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="AC598" t="s">
         <v>3029</v>
@@ -88288,7 +88288,7 @@
         <v>1596</v>
       </c>
       <c r="AB599" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="AC599" t="s">
         <v>3124</v>
@@ -88300,7 +88300,7 @@
         <v>1667</v>
       </c>
       <c r="AF599" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="AG599" t="s">
         <v>2983</v>
@@ -88544,7 +88544,7 @@
         <v>1625</v>
       </c>
       <c r="AB601" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="AC601" t="s">
         <v>3092</v>
@@ -88556,7 +88556,7 @@
         <v>1625</v>
       </c>
       <c r="AF601" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="AG601" t="s">
         <v>3092</v>
@@ -88800,7 +88800,7 @@
         <v>1777</v>
       </c>
       <c r="AB603" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="AC603" t="s">
         <v>2148</v>
@@ -88812,7 +88812,7 @@
         <v>1841</v>
       </c>
       <c r="AF603" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="AG603" t="s">
         <v>3492</v>
@@ -88824,7 +88824,7 @@
         <v>1906</v>
       </c>
       <c r="AJ603" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="AK603" t="s">
         <v>3081</v>
@@ -88928,7 +88928,7 @@
         <v>1662</v>
       </c>
       <c r="AB604" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="AC604" t="s">
         <v>3077</v>
@@ -88940,7 +88940,7 @@
         <v>1662</v>
       </c>
       <c r="AF604" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="AG604" t="s">
         <v>3077</v>
@@ -88952,7 +88952,7 @@
         <v>1662</v>
       </c>
       <c r="AJ604" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="AK604" t="s">
         <v>3077</v>
@@ -89056,7 +89056,7 @@
         <v>1690</v>
       </c>
       <c r="AB605" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="AC605" t="s">
         <v>2978</v>
@@ -89184,7 +89184,7 @@
         <v>1674</v>
       </c>
       <c r="AB606" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="AC606" t="s">
         <v>2999</v>
@@ -89196,7 +89196,7 @@
         <v>1674</v>
       </c>
       <c r="AF606" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="AG606" t="s">
         <v>2999</v>
@@ -89208,7 +89208,7 @@
         <v>1674</v>
       </c>
       <c r="AJ606" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="AK606" t="s">
         <v>2999</v>
@@ -89312,7 +89312,7 @@
         <v>1921</v>
       </c>
       <c r="AB607" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="AC607" t="s">
         <v>3069</v>
@@ -89440,7 +89440,7 @@
         <v>1739</v>
       </c>
       <c r="AB608" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="AC608" t="s">
         <v>3004</v>
@@ -89568,7 +89568,7 @@
         <v>1656</v>
       </c>
       <c r="AB609" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="AC609" t="s">
         <v>2978</v>
@@ -89696,7 +89696,7 @@
         <v>1674</v>
       </c>
       <c r="AB610" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="AC610" t="s">
         <v>3031</v>
@@ -89708,7 +89708,7 @@
         <v>1674</v>
       </c>
       <c r="AF610" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="AG610" t="s">
         <v>3031</v>
@@ -89720,7 +89720,7 @@
         <v>1624</v>
       </c>
       <c r="AJ610" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="AK610" t="s">
         <v>3031</v>
@@ -89824,7 +89824,7 @@
         <v>1656</v>
       </c>
       <c r="AB611" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="AC611" t="s">
         <v>3047</v>
@@ -89952,7 +89952,7 @@
         <v>1739</v>
       </c>
       <c r="AB612" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="AC612" t="s">
         <v>3030</v>
@@ -90080,7 +90080,7 @@
         <v>1624</v>
       </c>
       <c r="AB613" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="AC613" t="s">
         <v>3096</v>
@@ -90208,7 +90208,7 @@
         <v>1589</v>
       </c>
       <c r="AB614" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="AC614" t="s">
         <v>3127</v>
@@ -90336,7 +90336,7 @@
         <v>1656</v>
       </c>
       <c r="AB615" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="AC615" t="s">
         <v>2980</v>
@@ -90348,7 +90348,7 @@
         <v>1630</v>
       </c>
       <c r="AF615" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="AG615" t="s">
         <v>2980</v>
@@ -90464,7 +90464,7 @@
         <v>1624</v>
       </c>
       <c r="AB616" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="AC616" t="s">
         <v>2999</v>
@@ -90476,7 +90476,7 @@
         <v>1624</v>
       </c>
       <c r="AF616" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="AG616" t="s">
         <v>2999</v>
@@ -90488,7 +90488,7 @@
         <v>1624</v>
       </c>
       <c r="AJ616" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="AK616" t="s">
         <v>2999</v>
@@ -90604,7 +90604,7 @@
         <v>1678</v>
       </c>
       <c r="AF617" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="AG617" t="s">
         <v>3089</v>
@@ -90616,7 +90616,7 @@
         <v>1745</v>
       </c>
       <c r="AJ617" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="AK617" t="s">
         <v>3089</v>
@@ -90720,7 +90720,7 @@
         <v>1589</v>
       </c>
       <c r="AB618" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="AC618" t="s">
         <v>2999</v>
@@ -90848,7 +90848,7 @@
         <v>1752</v>
       </c>
       <c r="AB619" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="AC619" t="s">
         <v>3042</v>
@@ -90860,7 +90860,7 @@
         <v>1633</v>
       </c>
       <c r="AF619" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="AG619" t="s">
         <v>3112</v>
@@ -90872,7 +90872,7 @@
         <v>1589</v>
       </c>
       <c r="AJ619" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="AK619" t="s">
         <v>3042</v>
@@ -91256,7 +91256,7 @@
         <v>1650</v>
       </c>
       <c r="AJ622" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="AK622" t="s">
         <v>2151</v>
@@ -91360,7 +91360,7 @@
         <v>1674</v>
       </c>
       <c r="AB623" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="AC623" t="s">
         <v>2999</v>
@@ -91372,7 +91372,7 @@
         <v>1578</v>
       </c>
       <c r="AF623" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="AG623" t="s">
         <v>2149</v>
@@ -91384,7 +91384,7 @@
         <v>1578</v>
       </c>
       <c r="AJ623" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="AK623" t="s">
         <v>2149</v>
@@ -91616,7 +91616,7 @@
         <v>1624</v>
       </c>
       <c r="AB625" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="AC625" t="s">
         <v>2985</v>
@@ -91628,7 +91628,7 @@
         <v>1678</v>
       </c>
       <c r="AF625" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="AG625" t="s">
         <v>3036</v>
@@ -91744,7 +91744,7 @@
         <v>1674</v>
       </c>
       <c r="AB626" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="AC626" t="s">
         <v>2985</v>
@@ -91756,7 +91756,7 @@
         <v>1674</v>
       </c>
       <c r="AF626" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="AG626" t="s">
         <v>3036</v>
@@ -91768,7 +91768,7 @@
         <v>1636</v>
       </c>
       <c r="AJ626" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="AK626" t="s">
         <v>2151</v>
@@ -92000,7 +92000,7 @@
         <v>1624</v>
       </c>
       <c r="AB628" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="AC628" t="s">
         <v>3047</v>
@@ -92012,7 +92012,7 @@
         <v>1589</v>
       </c>
       <c r="AF628" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="AG628" t="s">
         <v>3047</v>
@@ -92384,7 +92384,7 @@
         <v>1662</v>
       </c>
       <c r="AB631" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="AC631" t="s">
         <v>3055</v>
@@ -92396,7 +92396,7 @@
         <v>1596</v>
       </c>
       <c r="AF631" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="AG631" t="s">
         <v>3494</v>
@@ -92408,7 +92408,7 @@
         <v>1784</v>
       </c>
       <c r="AJ631" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="AK631" t="s">
         <v>2993</v>
@@ -92512,7 +92512,7 @@
         <v>1647</v>
       </c>
       <c r="AB632" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="AC632" t="s">
         <v>3042</v>
@@ -92524,7 +92524,7 @@
         <v>1688</v>
       </c>
       <c r="AF632" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="AG632" t="s">
         <v>2982</v>
@@ -92640,7 +92640,7 @@
         <v>1630</v>
       </c>
       <c r="AB633" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="AC633" t="s">
         <v>2976</v>
@@ -92768,7 +92768,7 @@
         <v>1647</v>
       </c>
       <c r="AB634" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="AC634" t="s">
         <v>3042</v>
@@ -93024,7 +93024,7 @@
         <v>1621</v>
       </c>
       <c r="AB636" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="AC636" t="s">
         <v>2999</v>
@@ -93036,7 +93036,7 @@
         <v>1621</v>
       </c>
       <c r="AF636" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="AG636" t="s">
         <v>2999</v>
@@ -93048,7 +93048,7 @@
         <v>1621</v>
       </c>
       <c r="AJ636" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="AK636" t="s">
         <v>2999</v>
@@ -93152,7 +93152,7 @@
         <v>1621</v>
       </c>
       <c r="AB637" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="AC637" t="s">
         <v>3128</v>
@@ -93164,7 +93164,7 @@
         <v>1636</v>
       </c>
       <c r="AF637" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="AG637" t="s">
         <v>2151</v>
@@ -93176,7 +93176,7 @@
         <v>1656</v>
       </c>
       <c r="AJ637" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="AK637" t="s">
         <v>3756</v>
@@ -93408,7 +93408,7 @@
         <v>1589</v>
       </c>
       <c r="AB639" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="AC639" t="s">
         <v>3042</v>
@@ -93536,7 +93536,7 @@
         <v>1589</v>
       </c>
       <c r="AB640" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="AC640" t="s">
         <v>3069</v>
@@ -93664,7 +93664,7 @@
         <v>1642</v>
       </c>
       <c r="AB641" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="AD641" t="s">
         <v>3239</v>
@@ -93917,7 +93917,7 @@
         <v>1674</v>
       </c>
       <c r="AB643" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="AC643" t="s">
         <v>3129</v>
@@ -94045,7 +94045,7 @@
         <v>1687</v>
       </c>
       <c r="AB644" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="AC644" t="s">
         <v>2976</v>
@@ -94173,7 +94173,7 @@
         <v>1656</v>
       </c>
       <c r="AB645" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="AC645" t="s">
         <v>3045</v>
@@ -94185,7 +94185,7 @@
         <v>1656</v>
       </c>
       <c r="AF645" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="AG645" t="s">
         <v>3045</v>
@@ -94429,7 +94429,7 @@
         <v>1670</v>
       </c>
       <c r="AB647" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="AC647" t="s">
         <v>2999</v>
@@ -94441,7 +94441,7 @@
         <v>1608</v>
       </c>
       <c r="AF647" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="AG647" t="s">
         <v>2999</v>
@@ -94557,7 +94557,7 @@
         <v>1647</v>
       </c>
       <c r="AB648" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="AC648" t="s">
         <v>3131</v>
@@ -94569,7 +94569,7 @@
         <v>1647</v>
       </c>
       <c r="AF648" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="AG648" t="s">
         <v>3068</v>
@@ -94685,7 +94685,7 @@
         <v>1784</v>
       </c>
       <c r="AB649" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="AC649" t="s">
         <v>2999</v>
@@ -94697,7 +94697,7 @@
         <v>1784</v>
       </c>
       <c r="AF649" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="AG649" t="s">
         <v>2999</v>
@@ -94709,7 +94709,7 @@
         <v>1784</v>
       </c>
       <c r="AJ649" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="AK649" t="s">
         <v>2999</v>
@@ -94813,7 +94813,7 @@
         <v>1589</v>
       </c>
       <c r="AB650" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="AC650" t="s">
         <v>2978</v>
@@ -94941,7 +94941,7 @@
         <v>1598</v>
       </c>
       <c r="AB651" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="AC651" t="s">
         <v>2999</v>
@@ -94953,7 +94953,7 @@
         <v>1598</v>
       </c>
       <c r="AF651" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="AG651" t="s">
         <v>2999</v>
@@ -94965,7 +94965,7 @@
         <v>1598</v>
       </c>
       <c r="AJ651" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="AK651" t="s">
         <v>2999</v>
@@ -95322,7 +95322,7 @@
         <v>1731</v>
       </c>
       <c r="AB654" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="AC654" t="s">
         <v>2999</v>
@@ -95450,7 +95450,7 @@
         <v>1739</v>
       </c>
       <c r="AB655" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="AC655" t="s">
         <v>3077</v>
@@ -95462,7 +95462,7 @@
         <v>1739</v>
       </c>
       <c r="AF655" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="AG655" t="s">
         <v>3077</v>
@@ -95474,7 +95474,7 @@
         <v>1739</v>
       </c>
       <c r="AJ655" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="AK655" t="s">
         <v>3077</v>
@@ -95578,7 +95578,7 @@
         <v>1656</v>
       </c>
       <c r="AB656" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="AC656" t="s">
         <v>3070</v>
@@ -95834,7 +95834,7 @@
         <v>1674</v>
       </c>
       <c r="AB658" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="AC658" t="s">
         <v>3096</v>
@@ -95962,7 +95962,7 @@
         <v>1624</v>
       </c>
       <c r="AB659" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="AC659" t="s">
         <v>2978</v>
@@ -95974,7 +95974,7 @@
         <v>1674</v>
       </c>
       <c r="AF659" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="AG659" t="s">
         <v>2999</v>
@@ -95986,7 +95986,7 @@
         <v>1624</v>
       </c>
       <c r="AJ659" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="AK659" t="s">
         <v>2999</v>
@@ -96090,7 +96090,7 @@
         <v>1956</v>
       </c>
       <c r="AB660" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="AC660" t="s">
         <v>3079</v>
@@ -96102,7 +96102,7 @@
         <v>1956</v>
       </c>
       <c r="AF660" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="AG660" t="s">
         <v>3079</v>
@@ -96218,7 +96218,7 @@
         <v>1578</v>
       </c>
       <c r="AB661" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="AC661" t="s">
         <v>3133</v>
@@ -96358,7 +96358,7 @@
         <v>1678</v>
       </c>
       <c r="AF662" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="AG662" t="s">
         <v>2133</v>
@@ -96474,7 +96474,7 @@
         <v>1596</v>
       </c>
       <c r="AB663" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="AC663" t="s">
         <v>2999</v>
@@ -96486,7 +96486,7 @@
         <v>1596</v>
       </c>
       <c r="AF663" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="AG663" t="s">
         <v>2999</v>
@@ -96498,7 +96498,7 @@
         <v>1596</v>
       </c>
       <c r="AJ663" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="AK663" t="s">
         <v>2999</v>
@@ -96602,7 +96602,7 @@
         <v>1660</v>
       </c>
       <c r="AB664" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="AC664" t="s">
         <v>3055</v>
@@ -96614,7 +96614,7 @@
         <v>1650</v>
       </c>
       <c r="AF664" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="AG664" t="s">
         <v>2993</v>
@@ -96730,7 +96730,7 @@
         <v>1647</v>
       </c>
       <c r="AB665" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="AC665" t="s">
         <v>2999</v>
@@ -96858,7 +96858,7 @@
         <v>1687</v>
       </c>
       <c r="AB666" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="AC666" t="s">
         <v>2981</v>
@@ -96870,7 +96870,7 @@
         <v>1687</v>
       </c>
       <c r="AF666" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="AG666" t="s">
         <v>2981</v>
@@ -96882,7 +96882,7 @@
         <v>1687</v>
       </c>
       <c r="AJ666" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="AK666" t="s">
         <v>2981</v>
@@ -96986,7 +96986,7 @@
         <v>1677</v>
       </c>
       <c r="AB667" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="AC667" t="s">
         <v>3068</v>
@@ -96998,7 +96998,7 @@
         <v>1677</v>
       </c>
       <c r="AF667" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="AG667" t="s">
         <v>3068</v>
@@ -97111,7 +97111,7 @@
         <v>1642</v>
       </c>
       <c r="AB668" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="AC668" t="s">
         <v>2978</v>
@@ -97123,7 +97123,7 @@
         <v>1642</v>
       </c>
       <c r="AF668" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="AG668" t="s">
         <v>2999</v>
@@ -97367,7 +97367,7 @@
         <v>1651</v>
       </c>
       <c r="AB670" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="AC670" t="s">
         <v>2151</v>
@@ -97379,7 +97379,7 @@
         <v>1598</v>
       </c>
       <c r="AF670" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="AG670" t="s">
         <v>2151</v>
@@ -97391,7 +97391,7 @@
         <v>1662</v>
       </c>
       <c r="AJ670" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="AK670" t="s">
         <v>2151</v>
@@ -97495,7 +97495,7 @@
         <v>1687</v>
       </c>
       <c r="AB671" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="AC671" t="s">
         <v>3016</v>
@@ -97507,7 +97507,7 @@
         <v>1687</v>
       </c>
       <c r="AF671" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="AG671" t="s">
         <v>3016</v>
@@ -97519,7 +97519,7 @@
         <v>1687</v>
       </c>
       <c r="AJ671" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="AK671" t="s">
         <v>3016</v>
@@ -97775,7 +97775,7 @@
         <v>1608</v>
       </c>
       <c r="AJ673" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="AK673" t="s">
         <v>3446</v>
@@ -97879,7 +97879,7 @@
         <v>2089</v>
       </c>
       <c r="AB674" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="AC674" t="s">
         <v>2976</v>
@@ -98007,7 +98007,7 @@
         <v>2446</v>
       </c>
       <c r="AB675" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="AC675" t="s">
         <v>3030</v>
@@ -98019,7 +98019,7 @@
         <v>1660</v>
       </c>
       <c r="AF675" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="AG675" t="s">
         <v>3496</v>
@@ -98031,7 +98031,7 @@
         <v>1906</v>
       </c>
       <c r="AJ675" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="AK675" t="s">
         <v>3030</v>
@@ -98135,7 +98135,7 @@
         <v>1677</v>
       </c>
       <c r="AB676" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="AC676" t="s">
         <v>2979</v>
@@ -98147,7 +98147,7 @@
         <v>1677</v>
       </c>
       <c r="AF676" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="AG676" t="s">
         <v>2979</v>
@@ -98159,7 +98159,7 @@
         <v>1686</v>
       </c>
       <c r="AJ676" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="AK676" t="s">
         <v>2137</v>
@@ -98263,7 +98263,7 @@
         <v>1690</v>
       </c>
       <c r="AB677" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="AC677" t="s">
         <v>2999</v>
@@ -98275,7 +98275,7 @@
         <v>1690</v>
       </c>
       <c r="AF677" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="AG677" t="s">
         <v>2999</v>
@@ -98287,7 +98287,7 @@
         <v>1690</v>
       </c>
       <c r="AJ677" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="AK677" t="s">
         <v>2999</v>
@@ -98519,7 +98519,7 @@
         <v>1677</v>
       </c>
       <c r="AB679" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="AC679" t="s">
         <v>2973</v>
@@ -98531,7 +98531,7 @@
         <v>1677</v>
       </c>
       <c r="AF679" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="AG679" t="s">
         <v>3429</v>
@@ -98543,7 +98543,7 @@
         <v>1624</v>
       </c>
       <c r="AJ679" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="AK679" t="s">
         <v>3758</v>
@@ -98647,7 +98647,7 @@
         <v>1805</v>
       </c>
       <c r="AB680" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="AC680" t="s">
         <v>3001</v>
@@ -98659,7 +98659,7 @@
         <v>1589</v>
       </c>
       <c r="AF680" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="AG680" t="s">
         <v>3075</v>
@@ -98671,7 +98671,7 @@
         <v>1642</v>
       </c>
       <c r="AJ680" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="AK680" t="s">
         <v>3003</v>
@@ -98787,7 +98787,7 @@
         <v>1623</v>
       </c>
       <c r="AF681" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="AG681" t="s">
         <v>2145</v>
@@ -98903,7 +98903,7 @@
         <v>1784</v>
       </c>
       <c r="AB682" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="AC682" t="s">
         <v>3092</v>
@@ -98915,7 +98915,7 @@
         <v>1784</v>
       </c>
       <c r="AF682" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="AG682" t="s">
         <v>3092</v>
@@ -98927,7 +98927,7 @@
         <v>1674</v>
       </c>
       <c r="AJ682" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="AK682" t="s">
         <v>3092</v>
@@ -99031,7 +99031,7 @@
         <v>1633</v>
       </c>
       <c r="AB683" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="AC683" t="s">
         <v>2993</v>
@@ -99043,7 +99043,7 @@
         <v>1633</v>
       </c>
       <c r="AF683" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="AG683" t="s">
         <v>2993</v>
@@ -99055,7 +99055,7 @@
         <v>1633</v>
       </c>
       <c r="AJ683" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="AK683" t="s">
         <v>2993</v>
@@ -99159,7 +99159,7 @@
         <v>1782</v>
       </c>
       <c r="AB684" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="AC684" t="s">
         <v>3027</v>
@@ -99287,7 +99287,7 @@
         <v>1644</v>
       </c>
       <c r="AB685" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="AC685" t="s">
         <v>2972</v>
@@ -99299,7 +99299,7 @@
         <v>1673</v>
       </c>
       <c r="AF685" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="AG685" t="s">
         <v>2133</v>
@@ -99311,7 +99311,7 @@
         <v>1673</v>
       </c>
       <c r="AJ685" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="AL685">
         <v>3.29</v>
@@ -99412,7 +99412,7 @@
         <v>1621</v>
       </c>
       <c r="AB686" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="AC686" t="s">
         <v>2149</v>
@@ -99668,7 +99668,7 @@
         <v>1784</v>
       </c>
       <c r="AB688" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="AC688" t="s">
         <v>3069</v>
@@ -99692,7 +99692,7 @@
         <v>1805</v>
       </c>
       <c r="AJ688" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="AK688" t="s">
         <v>2976</v>
@@ -99924,7 +99924,7 @@
         <v>1647</v>
       </c>
       <c r="AB690" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="AC690" t="s">
         <v>2999</v>
@@ -99936,7 +99936,7 @@
         <v>1647</v>
       </c>
       <c r="AF690" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="AG690" t="s">
         <v>2999</v>
@@ -100052,7 +100052,7 @@
         <v>1642</v>
       </c>
       <c r="AB691" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="AC691" t="s">
         <v>2999</v>
@@ -100180,7 +100180,7 @@
         <v>1677</v>
       </c>
       <c r="AB692" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="AC692" t="s">
         <v>3013</v>
@@ -100192,7 +100192,7 @@
         <v>1624</v>
       </c>
       <c r="AF692" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="AG692" t="s">
         <v>2149</v>
@@ -100204,7 +100204,7 @@
         <v>1677</v>
       </c>
       <c r="AJ692" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="AK692" t="s">
         <v>2149</v>
@@ -100436,7 +100436,7 @@
         <v>1624</v>
       </c>
       <c r="AB694" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="AC694" t="s">
         <v>3027</v>
@@ -100564,7 +100564,7 @@
         <v>1805</v>
       </c>
       <c r="AB695" t="s">
-        <v>2710</v>
+        <v>2931</v>
       </c>
       <c r="AC695" t="s">
         <v>3135</v>
@@ -100832,7 +100832,7 @@
         <v>1784</v>
       </c>
       <c r="AF697" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="AG697" t="s">
         <v>3500</v>
@@ -100844,7 +100844,7 @@
         <v>1673</v>
       </c>
       <c r="AJ697" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="AK697" t="s">
         <v>3760</v>
@@ -101076,7 +101076,7 @@
         <v>1784</v>
       </c>
       <c r="AB699" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="AC699" t="s">
         <v>2993</v>
@@ -101088,7 +101088,7 @@
         <v>1739</v>
       </c>
       <c r="AF699" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="AG699" t="s">
         <v>2993</v>
@@ -101460,7 +101460,7 @@
         <v>1902</v>
       </c>
       <c r="AB702" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="AC702" t="s">
         <v>3068</v>
@@ -102484,7 +102484,7 @@
         <v>1739</v>
       </c>
       <c r="AB710" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="AC710" t="s">
         <v>3138</v>
@@ -102612,7 +102612,7 @@
         <v>1745</v>
       </c>
       <c r="AB711" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="AC711" t="s">
         <v>3068</v>
@@ -102624,7 +102624,7 @@
         <v>1745</v>
       </c>
       <c r="AF711" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="AG711" t="s">
         <v>3068</v>
@@ -102636,7 +102636,7 @@
         <v>1745</v>
       </c>
       <c r="AJ711" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="AK711" t="s">
         <v>3042</v>
@@ -102880,7 +102880,7 @@
         <v>1624</v>
       </c>
       <c r="AF713" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="AG713" t="s">
         <v>3043</v>
@@ -102892,7 +102892,7 @@
         <v>1656</v>
       </c>
       <c r="AJ713" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="AK713" t="s">
         <v>3043</v>
@@ -103764,7 +103764,7 @@
         <v>1784</v>
       </c>
       <c r="AB720" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="AC720" t="s">
         <v>2999</v>
@@ -103776,7 +103776,7 @@
         <v>1784</v>
       </c>
       <c r="AF720" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="AG720" t="s">
         <v>2999</v>
@@ -103788,7 +103788,7 @@
         <v>1784</v>
       </c>
       <c r="AJ720" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="AK720" t="s">
         <v>2999</v>
@@ -104276,7 +104276,7 @@
         <v>1784</v>
       </c>
       <c r="AB724" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="AC724" t="s">
         <v>3096</v>
@@ -104288,7 +104288,7 @@
         <v>1784</v>
       </c>
       <c r="AF724" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="AG724" t="s">
         <v>3096</v>
@@ -104809,7 +104809,7 @@
         <v>1956</v>
       </c>
       <c r="AJ728" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="AK728" t="s">
         <v>3043</v>
@@ -105553,7 +105553,7 @@
         <v>1686</v>
       </c>
       <c r="AB734" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="AC734" t="s">
         <v>2991</v>
@@ -106586,7 +106586,7 @@
         <v>1902</v>
       </c>
       <c r="AF742" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="AG742" t="s">
         <v>3043</v>
@@ -107342,7 +107342,7 @@
         <v>2105</v>
       </c>
       <c r="AB748" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="AC748" t="s">
         <v>3069</v>
@@ -108110,7 +108110,7 @@
         <v>2077</v>
       </c>
       <c r="AB754" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="AC754" t="s">
         <v>2999</v>
@@ -108122,7 +108122,7 @@
         <v>2077</v>
       </c>
       <c r="AF754" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="AG754" t="s">
         <v>2999</v>
@@ -108134,7 +108134,7 @@
         <v>2077</v>
       </c>
       <c r="AJ754" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="AK754" t="s">
         <v>2999</v>
@@ -108262,7 +108262,7 @@
         <v>1662</v>
       </c>
       <c r="AJ755" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="AK755" t="s">
         <v>3125</v>
@@ -108494,7 +108494,7 @@
         <v>1769</v>
       </c>
       <c r="AB757" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="AC757" t="s">
         <v>2985</v>
@@ -108506,7 +108506,7 @@
         <v>1983</v>
       </c>
       <c r="AF757" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="AG757" t="s">
         <v>3036</v>
@@ -109018,7 +109018,7 @@
         <v>1654</v>
       </c>
       <c r="AF761" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="AG761" t="s">
         <v>2149</v>
@@ -109030,7 +109030,7 @@
         <v>1690</v>
       </c>
       <c r="AJ761" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="AK761" t="s">
         <v>2149</v>
@@ -109390,7 +109390,7 @@
         <v>1589</v>
       </c>
       <c r="AB764" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="AC764" t="s">
         <v>2973</v>
@@ -109402,7 +109402,7 @@
         <v>1589</v>
       </c>
       <c r="AF764" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="AG764" t="s">
         <v>2972</v>
@@ -109414,7 +109414,7 @@
         <v>1578</v>
       </c>
       <c r="AJ764" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="AK764" t="s">
         <v>2133</v>

--- a/dados/ADD/Dados_ADD_PF/relatorio_produtos.xlsx
+++ b/dados/ADD/Dados_ADD_PF/relatorio_produtos.xlsx
@@ -8146,6 +8146,9 @@
     <t xml:space="preserve"> R$ 23,06 </t>
   </si>
   <si>
+    <t xml:space="preserve"> R$ 6,97 </t>
+  </si>
+  <si>
     <t xml:space="preserve"> R$ 8,90 </t>
   </si>
   <si>
@@ -8807,9 +8810,6 @@
   </si>
   <si>
     <t xml:space="preserve"> R$ 27,20 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> R$ 6,97 </t>
   </si>
   <si>
     <t xml:space="preserve"> R$ 11,49 </t>
@@ -12941,7 +12941,7 @@
         <v>3251</v>
       </c>
       <c r="AF10" t="s">
-        <v>2928</v>
+        <v>2929</v>
       </c>
       <c r="AG10" t="s">
         <v>2976</v>
@@ -13325,7 +13325,7 @@
         <v>3252</v>
       </c>
       <c r="AF13" t="s">
-        <v>2814</v>
+        <v>2815</v>
       </c>
       <c r="AG13" t="s">
         <v>2999</v>
@@ -17034,7 +17034,7 @@
         <v>2124</v>
       </c>
       <c r="AF42" t="s">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="AG42" t="s">
         <v>2982</v>
@@ -17290,7 +17290,7 @@
         <v>1675</v>
       </c>
       <c r="AF44" t="s">
-        <v>2915</v>
+        <v>2916</v>
       </c>
       <c r="AG44" t="s">
         <v>2982</v>
@@ -21514,7 +21514,7 @@
         <v>1621</v>
       </c>
       <c r="AF77" t="s">
-        <v>2800</v>
+        <v>2801</v>
       </c>
       <c r="AG77" t="s">
         <v>2169</v>
@@ -23312,7 +23312,7 @@
         <v>1662</v>
       </c>
       <c r="AJ91" t="s">
-        <v>2917</v>
+        <v>2918</v>
       </c>
       <c r="AK91" t="s">
         <v>2133</v>
@@ -23568,7 +23568,7 @@
         <v>1782</v>
       </c>
       <c r="AJ93" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="AK93" t="s">
         <v>2999</v>
@@ -25217,7 +25217,7 @@
         <v>1686</v>
       </c>
       <c r="AF106" t="s">
-        <v>2893</v>
+        <v>2894</v>
       </c>
       <c r="AG106" t="s">
         <v>2151</v>
@@ -25229,7 +25229,7 @@
         <v>1677</v>
       </c>
       <c r="AJ106" t="s">
-        <v>2829</v>
+        <v>2830</v>
       </c>
       <c r="AK106" t="s">
         <v>2151</v>
@@ -25613,7 +25613,7 @@
         <v>1639</v>
       </c>
       <c r="AJ109" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="AK109" t="s">
         <v>3718</v>
@@ -25857,7 +25857,7 @@
         <v>1956</v>
       </c>
       <c r="AF111" t="s">
-        <v>2749</v>
+        <v>2750</v>
       </c>
       <c r="AG111" t="s">
         <v>3437</v>
@@ -25985,7 +25985,7 @@
         <v>1906</v>
       </c>
       <c r="AF112" t="s">
-        <v>2919</v>
+        <v>2920</v>
       </c>
       <c r="AG112" t="s">
         <v>2999</v>
@@ -29837,7 +29837,7 @@
         <v>1745</v>
       </c>
       <c r="AJ142" t="s">
-        <v>2891</v>
+        <v>2892</v>
       </c>
       <c r="AK142" t="s">
         <v>3068</v>
@@ -30721,7 +30721,7 @@
         <v>1647</v>
       </c>
       <c r="AF149" t="s">
-        <v>2842</v>
+        <v>2843</v>
       </c>
       <c r="AG149" t="s">
         <v>2972</v>
@@ -32269,7 +32269,7 @@
         <v>1660</v>
       </c>
       <c r="AJ161" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="AK161" t="s">
         <v>2133</v>
@@ -32909,7 +32909,7 @@
         <v>1578</v>
       </c>
       <c r="AJ166" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
       <c r="AL166">
         <v>3.02</v>
@@ -34558,7 +34558,7 @@
         <v>1690</v>
       </c>
       <c r="AF179" t="s">
-        <v>2795</v>
+        <v>2796</v>
       </c>
       <c r="AG179" t="s">
         <v>3042</v>
@@ -34570,7 +34570,7 @@
         <v>1589</v>
       </c>
       <c r="AJ179" t="s">
-        <v>2795</v>
+        <v>2796</v>
       </c>
       <c r="AK179" t="s">
         <v>3068</v>
@@ -36350,7 +36350,7 @@
         <v>1670</v>
       </c>
       <c r="AF193" t="s">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="AG193" t="s">
         <v>2991</v>
@@ -36362,7 +36362,7 @@
         <v>1650</v>
       </c>
       <c r="AJ193" t="s">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="AK193" t="s">
         <v>2991</v>
@@ -36734,7 +36734,7 @@
         <v>1630</v>
       </c>
       <c r="AF196" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="AG196" t="s">
         <v>2982</v>
@@ -36746,7 +36746,7 @@
         <v>1630</v>
       </c>
       <c r="AJ196" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="AK196" t="s">
         <v>2151</v>
@@ -38142,7 +38142,7 @@
         <v>1589</v>
       </c>
       <c r="AF207" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="AG207" t="s">
         <v>3068</v>
@@ -38154,7 +38154,7 @@
         <v>1589</v>
       </c>
       <c r="AJ207" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="AK207" t="s">
         <v>3042</v>
@@ -38270,7 +38270,7 @@
         <v>1624</v>
       </c>
       <c r="AF208" t="s">
-        <v>2839</v>
+        <v>2840</v>
       </c>
       <c r="AG208" t="s">
         <v>3038</v>
@@ -39419,7 +39419,7 @@
         <v>1589</v>
       </c>
       <c r="AF217" t="s">
-        <v>2824</v>
+        <v>2825</v>
       </c>
       <c r="AG217" t="s">
         <v>3451</v>
@@ -39431,7 +39431,7 @@
         <v>1621</v>
       </c>
       <c r="AJ217" t="s">
-        <v>2824</v>
+        <v>2825</v>
       </c>
       <c r="AK217" t="s">
         <v>2997</v>
@@ -40327,7 +40327,7 @@
         <v>1621</v>
       </c>
       <c r="AJ224" t="s">
-        <v>2839</v>
+        <v>2840</v>
       </c>
       <c r="AK224" t="s">
         <v>2982</v>
@@ -40967,7 +40967,7 @@
         <v>1662</v>
       </c>
       <c r="AJ229" t="s">
-        <v>2842</v>
+        <v>2843</v>
       </c>
       <c r="AK229" t="s">
         <v>3731</v>
@@ -41467,7 +41467,7 @@
         <v>1678</v>
       </c>
       <c r="AF233" t="s">
-        <v>2800</v>
+        <v>2801</v>
       </c>
       <c r="AG233" t="s">
         <v>3453</v>
@@ -41479,7 +41479,7 @@
         <v>1670</v>
       </c>
       <c r="AJ233" t="s">
-        <v>2732</v>
+        <v>2733</v>
       </c>
       <c r="AK233" t="s">
         <v>3732</v>
@@ -42235,7 +42235,7 @@
         <v>2037</v>
       </c>
       <c r="AF239" t="s">
-        <v>2877</v>
+        <v>2878</v>
       </c>
       <c r="AG239" t="s">
         <v>2997</v>
@@ -42247,7 +42247,7 @@
         <v>1656</v>
       </c>
       <c r="AJ239" t="s">
-        <v>2877</v>
+        <v>2878</v>
       </c>
       <c r="AK239" t="s">
         <v>2151</v>
@@ -43399,7 +43399,7 @@
         <v>1633</v>
       </c>
       <c r="AJ248" t="s">
-        <v>2782</v>
+        <v>2783</v>
       </c>
       <c r="AK248" t="s">
         <v>3736</v>
@@ -44027,7 +44027,7 @@
         <v>1654</v>
       </c>
       <c r="AF253" t="s">
-        <v>2810</v>
+        <v>2811</v>
       </c>
       <c r="AG253" t="s">
         <v>2997</v>
@@ -44039,7 +44039,7 @@
         <v>1628</v>
       </c>
       <c r="AJ253" t="s">
-        <v>2810</v>
+        <v>2811</v>
       </c>
       <c r="AK253" t="s">
         <v>3738</v>
@@ -44795,7 +44795,7 @@
         <v>1656</v>
       </c>
       <c r="AF259" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="AG259" t="s">
         <v>3097</v>
@@ -46203,7 +46203,7 @@
         <v>1656</v>
       </c>
       <c r="AF270" t="s">
-        <v>2839</v>
+        <v>2840</v>
       </c>
       <c r="AG270" t="s">
         <v>3038</v>
@@ -46215,7 +46215,7 @@
         <v>1656</v>
       </c>
       <c r="AJ270" t="s">
-        <v>2839</v>
+        <v>2840</v>
       </c>
       <c r="AK270" t="s">
         <v>2980</v>
@@ -47611,7 +47611,7 @@
         <v>1670</v>
       </c>
       <c r="AF281" t="s">
-        <v>2913</v>
+        <v>2914</v>
       </c>
       <c r="AG281" t="s">
         <v>2997</v>
@@ -47623,7 +47623,7 @@
         <v>1670</v>
       </c>
       <c r="AJ281" t="s">
-        <v>2913</v>
+        <v>2914</v>
       </c>
       <c r="AK281" t="s">
         <v>2997</v>
@@ -50427,7 +50427,7 @@
         <v>1670</v>
       </c>
       <c r="AF303" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="AG303" t="s">
         <v>2993</v>
@@ -50439,7 +50439,7 @@
         <v>1650</v>
       </c>
       <c r="AJ303" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="AK303" t="s">
         <v>3741</v>
@@ -50555,7 +50555,7 @@
         <v>1636</v>
       </c>
       <c r="AF304" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
       <c r="AG304" t="s">
         <v>3075</v>
@@ -50567,7 +50567,7 @@
         <v>1674</v>
       </c>
       <c r="AJ304" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
       <c r="AK304" t="s">
         <v>3001</v>
@@ -52603,7 +52603,7 @@
         <v>1625</v>
       </c>
       <c r="AF320" t="s">
-        <v>2766</v>
+        <v>2767</v>
       </c>
       <c r="AG320" t="s">
         <v>3465</v>
@@ -52615,7 +52615,7 @@
         <v>1651</v>
       </c>
       <c r="AJ320" t="s">
-        <v>2766</v>
+        <v>2767</v>
       </c>
       <c r="AK320" t="s">
         <v>3003</v>
@@ -53359,7 +53359,7 @@
         <v>1690</v>
       </c>
       <c r="AB326" t="s">
-        <v>1574</v>
+        <v>2710</v>
       </c>
       <c r="AC326" t="s">
         <v>3077</v>
@@ -53371,7 +53371,7 @@
         <v>1690</v>
       </c>
       <c r="AF326" t="s">
-        <v>2931</v>
+        <v>2710</v>
       </c>
       <c r="AG326" t="s">
         <v>3077</v>
@@ -53383,13 +53383,13 @@
         <v>1690</v>
       </c>
       <c r="AJ326" t="s">
-        <v>2931</v>
+        <v>2710</v>
       </c>
       <c r="AK326" t="s">
         <v>3077</v>
       </c>
       <c r="AL326">
-        <v>0</v>
+        <v>6.97</v>
       </c>
       <c r="AM326">
         <v>247.8</v>
@@ -53487,7 +53487,7 @@
         <v>1630</v>
       </c>
       <c r="AB327" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
       <c r="AC327" t="s">
         <v>2151</v>
@@ -53639,7 +53639,7 @@
         <v>1578</v>
       </c>
       <c r="AJ328" t="s">
-        <v>2811</v>
+        <v>2812</v>
       </c>
       <c r="AK328" t="s">
         <v>3067</v>
@@ -53871,7 +53871,7 @@
         <v>1611</v>
       </c>
       <c r="AB330" t="s">
-        <v>2711</v>
+        <v>2712</v>
       </c>
       <c r="AC330" t="s">
         <v>3079</v>
@@ -53883,7 +53883,7 @@
         <v>1611</v>
       </c>
       <c r="AF330" t="s">
-        <v>2711</v>
+        <v>2712</v>
       </c>
       <c r="AG330" t="s">
         <v>3079</v>
@@ -53895,7 +53895,7 @@
         <v>1691</v>
       </c>
       <c r="AJ330" t="s">
-        <v>2711</v>
+        <v>2712</v>
       </c>
       <c r="AK330" t="s">
         <v>3026</v>
@@ -54255,7 +54255,7 @@
         <v>1633</v>
       </c>
       <c r="AB333" t="s">
-        <v>2712</v>
+        <v>2713</v>
       </c>
       <c r="AC333" t="s">
         <v>2982</v>
@@ -54267,7 +54267,7 @@
         <v>1633</v>
       </c>
       <c r="AF333" t="s">
-        <v>2712</v>
+        <v>2713</v>
       </c>
       <c r="AG333" t="s">
         <v>2151</v>
@@ -54279,7 +54279,7 @@
         <v>1662</v>
       </c>
       <c r="AJ333" t="s">
-        <v>2712</v>
+        <v>2713</v>
       </c>
       <c r="AK333" t="s">
         <v>3743</v>
@@ -54383,7 +54383,7 @@
         <v>1625</v>
       </c>
       <c r="AB334" t="s">
-        <v>2713</v>
+        <v>2714</v>
       </c>
       <c r="AC334" t="s">
         <v>2982</v>
@@ -54395,7 +54395,7 @@
         <v>1625</v>
       </c>
       <c r="AF334" t="s">
-        <v>2713</v>
+        <v>2714</v>
       </c>
       <c r="AG334" t="s">
         <v>2982</v>
@@ -54407,7 +54407,7 @@
         <v>1625</v>
       </c>
       <c r="AJ334" t="s">
-        <v>2713</v>
+        <v>2714</v>
       </c>
       <c r="AK334" t="s">
         <v>2151</v>
@@ -54639,7 +54639,7 @@
         <v>1589</v>
       </c>
       <c r="AB336" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
       <c r="AC336" t="s">
         <v>3030</v>
@@ -54651,7 +54651,7 @@
         <v>1589</v>
       </c>
       <c r="AF336" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
       <c r="AG336" t="s">
         <v>3049</v>
@@ -54663,7 +54663,7 @@
         <v>1589</v>
       </c>
       <c r="AJ336" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
       <c r="AK336" t="s">
         <v>3049</v>
@@ -55407,7 +55407,7 @@
         <v>1662</v>
       </c>
       <c r="AB342" t="s">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="AC342" t="s">
         <v>3081</v>
@@ -55419,7 +55419,7 @@
         <v>1662</v>
       </c>
       <c r="AF342" t="s">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="AG342" t="s">
         <v>2983</v>
@@ -55535,7 +55535,7 @@
         <v>1739</v>
       </c>
       <c r="AB343" t="s">
-        <v>2716</v>
+        <v>2717</v>
       </c>
       <c r="AC343" t="s">
         <v>3068</v>
@@ -55663,7 +55663,7 @@
         <v>1647</v>
       </c>
       <c r="AB344" t="s">
-        <v>2717</v>
+        <v>2718</v>
       </c>
       <c r="AC344" t="s">
         <v>3068</v>
@@ -55791,7 +55791,7 @@
         <v>1636</v>
       </c>
       <c r="AB345" t="s">
-        <v>2718</v>
+        <v>2719</v>
       </c>
       <c r="AC345" t="s">
         <v>3067</v>
@@ -55919,7 +55919,7 @@
         <v>1630</v>
       </c>
       <c r="AB346" t="s">
-        <v>2719</v>
+        <v>2720</v>
       </c>
       <c r="AC346" t="s">
         <v>2137</v>
@@ -55931,7 +55931,7 @@
         <v>1630</v>
       </c>
       <c r="AF346" t="s">
-        <v>2719</v>
+        <v>2720</v>
       </c>
       <c r="AG346" t="s">
         <v>3468</v>
@@ -55943,7 +55943,7 @@
         <v>1670</v>
       </c>
       <c r="AJ346" t="s">
-        <v>2719</v>
+        <v>2720</v>
       </c>
       <c r="AK346" t="s">
         <v>2979</v>
@@ -56047,7 +56047,7 @@
         <v>1690</v>
       </c>
       <c r="AB347" t="s">
-        <v>2720</v>
+        <v>2721</v>
       </c>
       <c r="AC347" t="s">
         <v>2148</v>
@@ -56059,7 +56059,7 @@
         <v>1589</v>
       </c>
       <c r="AF347" t="s">
-        <v>2720</v>
+        <v>2721</v>
       </c>
       <c r="AG347" t="s">
         <v>2148</v>
@@ -56303,7 +56303,7 @@
         <v>1680</v>
       </c>
       <c r="AB349" t="s">
-        <v>2721</v>
+        <v>2722</v>
       </c>
       <c r="AC349" t="s">
         <v>2973</v>
@@ -56315,7 +56315,7 @@
         <v>1662</v>
       </c>
       <c r="AF349" t="s">
-        <v>2721</v>
+        <v>2722</v>
       </c>
       <c r="AG349" t="s">
         <v>2973</v>
@@ -56327,7 +56327,7 @@
         <v>1633</v>
       </c>
       <c r="AJ349" t="s">
-        <v>2721</v>
+        <v>2722</v>
       </c>
       <c r="AK349" t="s">
         <v>3004</v>
@@ -56431,7 +56431,7 @@
         <v>1628</v>
       </c>
       <c r="AB350" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
       <c r="AC350" t="s">
         <v>2999</v>
@@ -56443,7 +56443,7 @@
         <v>1628</v>
       </c>
       <c r="AF350" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
       <c r="AG350" t="s">
         <v>2999</v>
@@ -56455,7 +56455,7 @@
         <v>1628</v>
       </c>
       <c r="AJ350" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
       <c r="AK350" t="s">
         <v>2999</v>
@@ -56559,7 +56559,7 @@
         <v>1670</v>
       </c>
       <c r="AB351" t="s">
-        <v>2723</v>
+        <v>2724</v>
       </c>
       <c r="AC351" t="s">
         <v>3082</v>
@@ -56571,7 +56571,7 @@
         <v>1578</v>
       </c>
       <c r="AF351" t="s">
-        <v>2723</v>
+        <v>2724</v>
       </c>
       <c r="AG351" t="s">
         <v>3469</v>
@@ -56583,7 +56583,7 @@
         <v>1630</v>
       </c>
       <c r="AJ351" t="s">
-        <v>2723</v>
+        <v>2724</v>
       </c>
       <c r="AK351" t="s">
         <v>2991</v>
@@ -56687,7 +56687,7 @@
         <v>1636</v>
       </c>
       <c r="AB352" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="AC352" t="s">
         <v>2981</v>
@@ -56943,7 +56943,7 @@
         <v>1625</v>
       </c>
       <c r="AB354" t="s">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="AC354" t="s">
         <v>2981</v>
@@ -56955,7 +56955,7 @@
         <v>1633</v>
       </c>
       <c r="AF354" t="s">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="AG354" t="s">
         <v>2148</v>
@@ -57199,7 +57199,7 @@
         <v>1636</v>
       </c>
       <c r="AB356" t="s">
-        <v>2726</v>
+        <v>2727</v>
       </c>
       <c r="AC356" t="s">
         <v>3070</v>
@@ -57211,7 +57211,7 @@
         <v>1636</v>
       </c>
       <c r="AF356" t="s">
-        <v>2726</v>
+        <v>2727</v>
       </c>
       <c r="AG356" t="s">
         <v>3070</v>
@@ -57455,7 +57455,7 @@
         <v>1589</v>
       </c>
       <c r="AB358" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="AC358" t="s">
         <v>2149</v>
@@ -57467,7 +57467,7 @@
         <v>1670</v>
       </c>
       <c r="AF358" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="AG358" t="s">
         <v>2149</v>
@@ -57583,7 +57583,7 @@
         <v>1624</v>
       </c>
       <c r="AB359" t="s">
-        <v>2728</v>
+        <v>2729</v>
       </c>
       <c r="AC359" t="s">
         <v>3070</v>
@@ -57595,7 +57595,7 @@
         <v>1624</v>
       </c>
       <c r="AF359" t="s">
-        <v>2728</v>
+        <v>2729</v>
       </c>
       <c r="AG359" t="s">
         <v>3070</v>
@@ -57607,7 +57607,7 @@
         <v>1624</v>
       </c>
       <c r="AJ359" t="s">
-        <v>2728</v>
+        <v>2729</v>
       </c>
       <c r="AK359" t="s">
         <v>3070</v>
@@ -57711,7 +57711,7 @@
         <v>1589</v>
       </c>
       <c r="AB360" t="s">
-        <v>2729</v>
+        <v>2730</v>
       </c>
       <c r="AC360" t="s">
         <v>3083</v>
@@ -57839,7 +57839,7 @@
         <v>1625</v>
       </c>
       <c r="AB361" t="s">
-        <v>2730</v>
+        <v>2731</v>
       </c>
       <c r="AC361" t="s">
         <v>3084</v>
@@ -58095,7 +58095,7 @@
         <v>1670</v>
       </c>
       <c r="AB363" t="s">
-        <v>2731</v>
+        <v>2732</v>
       </c>
       <c r="AC363" t="s">
         <v>2999</v>
@@ -58351,7 +58351,7 @@
         <v>1625</v>
       </c>
       <c r="AB365" t="s">
-        <v>2732</v>
+        <v>2733</v>
       </c>
       <c r="AC365" t="s">
         <v>2982</v>
@@ -58363,7 +58363,7 @@
         <v>1670</v>
       </c>
       <c r="AF365" t="s">
-        <v>2732</v>
+        <v>2733</v>
       </c>
       <c r="AG365" t="s">
         <v>2149</v>
@@ -58375,7 +58375,7 @@
         <v>1651</v>
       </c>
       <c r="AJ365" t="s">
-        <v>2732</v>
+        <v>2733</v>
       </c>
       <c r="AK365" t="s">
         <v>2151</v>
@@ -58479,7 +58479,7 @@
         <v>1670</v>
       </c>
       <c r="AB366" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="AC366" t="s">
         <v>2149</v>
@@ -58491,7 +58491,7 @@
         <v>1670</v>
       </c>
       <c r="AF366" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="AG366" t="s">
         <v>2149</v>
@@ -58607,7 +58607,7 @@
         <v>1670</v>
       </c>
       <c r="AB367" t="s">
-        <v>2734</v>
+        <v>2735</v>
       </c>
       <c r="AC367" t="s">
         <v>2997</v>
@@ -58619,7 +58619,7 @@
         <v>1670</v>
       </c>
       <c r="AF367" t="s">
-        <v>2734</v>
+        <v>2735</v>
       </c>
       <c r="AG367" t="s">
         <v>2997</v>
@@ -58631,7 +58631,7 @@
         <v>1650</v>
       </c>
       <c r="AJ367" t="s">
-        <v>2734</v>
+        <v>2735</v>
       </c>
       <c r="AK367" t="s">
         <v>2997</v>
@@ -58735,7 +58735,7 @@
         <v>1670</v>
       </c>
       <c r="AB368" t="s">
-        <v>2735</v>
+        <v>2736</v>
       </c>
       <c r="AC368" t="s">
         <v>3085</v>
@@ -58759,7 +58759,7 @@
         <v>1670</v>
       </c>
       <c r="AJ368" t="s">
-        <v>2771</v>
+        <v>2772</v>
       </c>
       <c r="AK368" t="s">
         <v>2987</v>
@@ -58863,7 +58863,7 @@
         <v>1650</v>
       </c>
       <c r="AB369" t="s">
-        <v>2736</v>
+        <v>2737</v>
       </c>
       <c r="AC369" t="s">
         <v>2133</v>
@@ -58875,7 +58875,7 @@
         <v>1578</v>
       </c>
       <c r="AF369" t="s">
-        <v>2736</v>
+        <v>2737</v>
       </c>
       <c r="AG369" t="s">
         <v>2151</v>
@@ -58887,7 +58887,7 @@
         <v>1625</v>
       </c>
       <c r="AJ369" t="s">
-        <v>2736</v>
+        <v>2737</v>
       </c>
       <c r="AK369" t="s">
         <v>2133</v>
@@ -58991,7 +58991,7 @@
         <v>1677</v>
       </c>
       <c r="AB370" t="s">
-        <v>2737</v>
+        <v>2738</v>
       </c>
       <c r="AC370" t="s">
         <v>2996</v>
@@ -59247,7 +59247,7 @@
         <v>1633</v>
       </c>
       <c r="AB372" t="s">
-        <v>2738</v>
+        <v>2739</v>
       </c>
       <c r="AC372" t="s">
         <v>3027</v>
@@ -59387,7 +59387,7 @@
         <v>1624</v>
       </c>
       <c r="AF373" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="AG373" t="s">
         <v>3472</v>
@@ -59503,7 +59503,7 @@
         <v>1687</v>
       </c>
       <c r="AB374" t="s">
-        <v>2739</v>
+        <v>2740</v>
       </c>
       <c r="AC374" t="s">
         <v>2999</v>
@@ -59515,7 +59515,7 @@
         <v>1653</v>
       </c>
       <c r="AF374" t="s">
-        <v>2739</v>
+        <v>2740</v>
       </c>
       <c r="AG374" t="s">
         <v>2999</v>
@@ -59631,7 +59631,7 @@
         <v>1650</v>
       </c>
       <c r="AB375" t="s">
-        <v>2740</v>
+        <v>2741</v>
       </c>
       <c r="AC375" t="s">
         <v>2148</v>
@@ -59643,7 +59643,7 @@
         <v>1662</v>
       </c>
       <c r="AF375" t="s">
-        <v>2740</v>
+        <v>2741</v>
       </c>
       <c r="AG375" t="s">
         <v>3473</v>
@@ -59655,7 +59655,7 @@
         <v>1630</v>
       </c>
       <c r="AJ375" t="s">
-        <v>2740</v>
+        <v>2741</v>
       </c>
       <c r="AK375" t="s">
         <v>2148</v>
@@ -59759,7 +59759,7 @@
         <v>1671</v>
       </c>
       <c r="AB376" t="s">
-        <v>2741</v>
+        <v>2742</v>
       </c>
       <c r="AC376" t="s">
         <v>2972</v>
@@ -59771,7 +59771,7 @@
         <v>1660</v>
       </c>
       <c r="AF376" t="s">
-        <v>2741</v>
+        <v>2742</v>
       </c>
       <c r="AG376" t="s">
         <v>2972</v>
@@ -59783,7 +59783,7 @@
         <v>1660</v>
       </c>
       <c r="AJ376" t="s">
-        <v>2741</v>
+        <v>2742</v>
       </c>
       <c r="AK376" t="s">
         <v>2151</v>
@@ -60271,7 +60271,7 @@
         <v>1625</v>
       </c>
       <c r="AB380" t="s">
-        <v>2742</v>
+        <v>2743</v>
       </c>
       <c r="AC380" t="s">
         <v>3089</v>
@@ -60283,7 +60283,7 @@
         <v>1625</v>
       </c>
       <c r="AF380" t="s">
-        <v>2742</v>
+        <v>2743</v>
       </c>
       <c r="AG380" t="s">
         <v>3072</v>
@@ -60399,7 +60399,7 @@
         <v>1630</v>
       </c>
       <c r="AB381" t="s">
-        <v>2743</v>
+        <v>2744</v>
       </c>
       <c r="AC381" t="s">
         <v>3042</v>
@@ -60411,7 +60411,7 @@
         <v>1578</v>
       </c>
       <c r="AF381" t="s">
-        <v>2743</v>
+        <v>2744</v>
       </c>
       <c r="AG381" t="s">
         <v>2149</v>
@@ -60423,7 +60423,7 @@
         <v>1578</v>
       </c>
       <c r="AJ381" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="AK381" t="s">
         <v>3747</v>
@@ -60783,7 +60783,7 @@
         <v>1662</v>
       </c>
       <c r="AB384" t="s">
-        <v>2744</v>
+        <v>2745</v>
       </c>
       <c r="AC384" t="s">
         <v>3077</v>
@@ -60795,7 +60795,7 @@
         <v>1662</v>
       </c>
       <c r="AF384" t="s">
-        <v>2744</v>
+        <v>1574</v>
       </c>
       <c r="AG384" t="s">
         <v>3077</v>
@@ -60807,7 +60807,7 @@
         <v>1662</v>
       </c>
       <c r="AJ384" t="s">
-        <v>1574</v>
+        <v>2745</v>
       </c>
       <c r="AK384" t="s">
         <v>3077</v>
@@ -60911,7 +60911,7 @@
         <v>1578</v>
       </c>
       <c r="AB385" t="s">
-        <v>2745</v>
+        <v>2746</v>
       </c>
       <c r="AC385" t="s">
         <v>3048</v>
@@ -60935,7 +60935,7 @@
         <v>1578</v>
       </c>
       <c r="AJ385" t="s">
-        <v>2745</v>
+        <v>2746</v>
       </c>
       <c r="AK385" t="s">
         <v>2165</v>
@@ -61039,7 +61039,7 @@
         <v>1624</v>
       </c>
       <c r="AB386" t="s">
-        <v>2746</v>
+        <v>2747</v>
       </c>
       <c r="AC386" t="s">
         <v>3050</v>
@@ -61167,7 +61167,7 @@
         <v>1589</v>
       </c>
       <c r="AB387" t="s">
-        <v>2747</v>
+        <v>2748</v>
       </c>
       <c r="AC387" t="s">
         <v>3091</v>
@@ -61191,7 +61191,7 @@
         <v>1589</v>
       </c>
       <c r="AJ387" t="s">
-        <v>2747</v>
+        <v>2748</v>
       </c>
       <c r="AK387" t="s">
         <v>2972</v>
@@ -61423,7 +61423,7 @@
         <v>1677</v>
       </c>
       <c r="AB389" t="s">
-        <v>2748</v>
+        <v>2749</v>
       </c>
       <c r="AC389" t="s">
         <v>2982</v>
@@ -61435,7 +61435,7 @@
         <v>1956</v>
       </c>
       <c r="AF389" t="s">
-        <v>2748</v>
+        <v>2749</v>
       </c>
       <c r="AG389" t="s">
         <v>2149</v>
@@ -61447,7 +61447,7 @@
         <v>1677</v>
       </c>
       <c r="AJ389" t="s">
-        <v>2748</v>
+        <v>2749</v>
       </c>
       <c r="AK389" t="s">
         <v>2149</v>
@@ -61551,7 +61551,7 @@
         <v>1596</v>
       </c>
       <c r="AB390" t="s">
-        <v>2749</v>
+        <v>2750</v>
       </c>
       <c r="AC390" t="s">
         <v>2991</v>
@@ -61563,7 +61563,7 @@
         <v>1662</v>
       </c>
       <c r="AF390" t="s">
-        <v>2749</v>
+        <v>2750</v>
       </c>
       <c r="AG390" t="s">
         <v>2149</v>
@@ -61575,7 +61575,7 @@
         <v>1642</v>
       </c>
       <c r="AJ390" t="s">
-        <v>2749</v>
+        <v>2750</v>
       </c>
       <c r="AK390" t="s">
         <v>2148</v>
@@ -61679,7 +61679,7 @@
         <v>1624</v>
       </c>
       <c r="AB391" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
       <c r="AC391" t="s">
         <v>2149</v>
@@ -61691,7 +61691,7 @@
         <v>1630</v>
       </c>
       <c r="AF391" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
       <c r="AG391" t="s">
         <v>2149</v>
@@ -61703,7 +61703,7 @@
         <v>1625</v>
       </c>
       <c r="AJ391" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
       <c r="AK391" t="s">
         <v>3733</v>
@@ -61935,7 +61935,7 @@
         <v>1656</v>
       </c>
       <c r="AB393" t="s">
-        <v>2751</v>
+        <v>2752</v>
       </c>
       <c r="AC393" t="s">
         <v>2976</v>
@@ -62063,7 +62063,7 @@
         <v>1662</v>
       </c>
       <c r="AB394" t="s">
-        <v>2752</v>
+        <v>2753</v>
       </c>
       <c r="AC394" t="s">
         <v>3092</v>
@@ -62319,7 +62319,7 @@
         <v>1589</v>
       </c>
       <c r="AB396" t="s">
-        <v>2753</v>
+        <v>2754</v>
       </c>
       <c r="AC396" t="s">
         <v>2999</v>
@@ -62447,7 +62447,7 @@
         <v>1670</v>
       </c>
       <c r="AB397" t="s">
-        <v>2754</v>
+        <v>2755</v>
       </c>
       <c r="AC397" t="s">
         <v>2997</v>
@@ -62459,7 +62459,7 @@
         <v>1578</v>
       </c>
       <c r="AF397" t="s">
-        <v>2754</v>
+        <v>2755</v>
       </c>
       <c r="AG397" t="s">
         <v>2149</v>
@@ -62471,7 +62471,7 @@
         <v>1636</v>
       </c>
       <c r="AJ397" t="s">
-        <v>2754</v>
+        <v>2755</v>
       </c>
       <c r="AK397" t="s">
         <v>2149</v>
@@ -62959,7 +62959,7 @@
         <v>1656</v>
       </c>
       <c r="AB401" t="s">
-        <v>2755</v>
+        <v>2756</v>
       </c>
       <c r="AC401" t="s">
         <v>2985</v>
@@ -62971,7 +62971,7 @@
         <v>1624</v>
       </c>
       <c r="AF401" t="s">
-        <v>2755</v>
+        <v>2756</v>
       </c>
       <c r="AG401" t="s">
         <v>3036</v>
@@ -62983,7 +62983,7 @@
         <v>1656</v>
       </c>
       <c r="AJ401" t="s">
-        <v>2755</v>
+        <v>2756</v>
       </c>
       <c r="AK401" t="s">
         <v>2985</v>
@@ -63215,7 +63215,7 @@
         <v>1624</v>
       </c>
       <c r="AB403" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="AC403" t="s">
         <v>2995</v>
@@ -63227,7 +63227,7 @@
         <v>1662</v>
       </c>
       <c r="AF403" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="AG403" t="s">
         <v>2997</v>
@@ -63239,7 +63239,7 @@
         <v>1624</v>
       </c>
       <c r="AJ403" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="AK403" t="s">
         <v>2995</v>
@@ -63343,7 +63343,7 @@
         <v>1624</v>
       </c>
       <c r="AB404" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="AC404" t="s">
         <v>2995</v>
@@ -63355,7 +63355,7 @@
         <v>1630</v>
       </c>
       <c r="AF404" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="AG404" t="s">
         <v>2997</v>
@@ -63367,7 +63367,7 @@
         <v>1578</v>
       </c>
       <c r="AJ404" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="AK404" t="s">
         <v>2151</v>
@@ -63599,7 +63599,7 @@
         <v>1630</v>
       </c>
       <c r="AB406" t="s">
-        <v>2758</v>
+        <v>2759</v>
       </c>
       <c r="AC406" t="s">
         <v>2997</v>
@@ -63611,7 +63611,7 @@
         <v>1670</v>
       </c>
       <c r="AF406" t="s">
-        <v>2758</v>
+        <v>2759</v>
       </c>
       <c r="AG406" t="s">
         <v>2991</v>
@@ -63623,7 +63623,7 @@
         <v>1670</v>
       </c>
       <c r="AJ406" t="s">
-        <v>2758</v>
+        <v>2759</v>
       </c>
       <c r="AK406" t="s">
         <v>2991</v>
@@ -63727,7 +63727,7 @@
         <v>1674</v>
       </c>
       <c r="AB407" t="s">
-        <v>2759</v>
+        <v>2760</v>
       </c>
       <c r="AC407" t="s">
         <v>3027</v>
@@ -63855,7 +63855,7 @@
         <v>1677</v>
       </c>
       <c r="AB408" t="s">
-        <v>2760</v>
+        <v>2761</v>
       </c>
       <c r="AC408" t="s">
         <v>3027</v>
@@ -63867,7 +63867,7 @@
         <v>1624</v>
       </c>
       <c r="AF408" t="s">
-        <v>2925</v>
+        <v>2926</v>
       </c>
       <c r="AG408" t="s">
         <v>2151</v>
@@ -63983,7 +63983,7 @@
         <v>1630</v>
       </c>
       <c r="AB409" t="s">
-        <v>2761</v>
+        <v>2762</v>
       </c>
       <c r="AC409" t="s">
         <v>2997</v>
@@ -63995,7 +63995,7 @@
         <v>1624</v>
       </c>
       <c r="AF409" t="s">
-        <v>2761</v>
+        <v>2762</v>
       </c>
       <c r="AG409" t="s">
         <v>2149</v>
@@ -64111,7 +64111,7 @@
         <v>1662</v>
       </c>
       <c r="AB410" t="s">
-        <v>2762</v>
+        <v>2763</v>
       </c>
       <c r="AC410" t="s">
         <v>2999</v>
@@ -64123,7 +64123,7 @@
         <v>1662</v>
       </c>
       <c r="AF410" t="s">
-        <v>2762</v>
+        <v>2763</v>
       </c>
       <c r="AG410" t="s">
         <v>3047</v>
@@ -64135,7 +64135,7 @@
         <v>1630</v>
       </c>
       <c r="AJ410" t="s">
-        <v>2730</v>
+        <v>2731</v>
       </c>
       <c r="AK410" t="s">
         <v>2149</v>
@@ -64239,7 +64239,7 @@
         <v>1662</v>
       </c>
       <c r="AB411" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
       <c r="AC411" t="s">
         <v>2995</v>
@@ -64367,7 +64367,7 @@
         <v>1578</v>
       </c>
       <c r="AB412" t="s">
-        <v>2763</v>
+        <v>2764</v>
       </c>
       <c r="AC412" t="s">
         <v>2999</v>
@@ -64623,7 +64623,7 @@
         <v>1784</v>
       </c>
       <c r="AB414" t="s">
-        <v>2764</v>
+        <v>2765</v>
       </c>
       <c r="AC414" t="s">
         <v>3043</v>
@@ -64751,7 +64751,7 @@
         <v>1670</v>
       </c>
       <c r="AB415" t="s">
-        <v>2765</v>
+        <v>2766</v>
       </c>
       <c r="AC415" t="s">
         <v>2148</v>
@@ -64763,7 +64763,7 @@
         <v>1636</v>
       </c>
       <c r="AF415" t="s">
-        <v>2765</v>
+        <v>2766</v>
       </c>
       <c r="AG415" t="s">
         <v>2981</v>
@@ -64775,7 +64775,7 @@
         <v>1636</v>
       </c>
       <c r="AJ415" t="s">
-        <v>2765</v>
+        <v>2766</v>
       </c>
       <c r="AK415" t="s">
         <v>2148</v>
@@ -64879,7 +64879,7 @@
         <v>1625</v>
       </c>
       <c r="AB416" t="s">
-        <v>2766</v>
+        <v>2767</v>
       </c>
       <c r="AC416" t="s">
         <v>3003</v>
@@ -65007,7 +65007,7 @@
         <v>1650</v>
       </c>
       <c r="AB417" t="s">
-        <v>2767</v>
+        <v>2768</v>
       </c>
       <c r="AC417" t="s">
         <v>2148</v>
@@ -65019,7 +65019,7 @@
         <v>1636</v>
       </c>
       <c r="AF417" t="s">
-        <v>2767</v>
+        <v>2768</v>
       </c>
       <c r="AG417" t="s">
         <v>2981</v>
@@ -65135,7 +65135,7 @@
         <v>1628</v>
       </c>
       <c r="AB418" t="s">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="AC418" t="s">
         <v>3029</v>
@@ -65147,7 +65147,7 @@
         <v>1578</v>
       </c>
       <c r="AF418" t="s">
-        <v>2758</v>
+        <v>2759</v>
       </c>
       <c r="AG418" t="s">
         <v>2148</v>
@@ -65159,7 +65159,7 @@
         <v>1628</v>
       </c>
       <c r="AJ418" t="s">
-        <v>2758</v>
+        <v>2759</v>
       </c>
       <c r="AK418" t="s">
         <v>3042</v>
@@ -65263,7 +65263,7 @@
         <v>1650</v>
       </c>
       <c r="AB419" t="s">
-        <v>2769</v>
+        <v>2770</v>
       </c>
       <c r="AC419" t="s">
         <v>2151</v>
@@ -65275,7 +65275,7 @@
         <v>1630</v>
       </c>
       <c r="AF419" t="s">
-        <v>2769</v>
+        <v>2770</v>
       </c>
       <c r="AG419" t="s">
         <v>2151</v>
@@ -65287,7 +65287,7 @@
         <v>1621</v>
       </c>
       <c r="AJ419" t="s">
-        <v>2769</v>
+        <v>2770</v>
       </c>
       <c r="AK419" t="s">
         <v>2982</v>
@@ -65519,7 +65519,7 @@
         <v>1670</v>
       </c>
       <c r="AB421" t="s">
-        <v>2770</v>
+        <v>2771</v>
       </c>
       <c r="AC421" t="s">
         <v>2991</v>
@@ -65647,7 +65647,7 @@
         <v>1636</v>
       </c>
       <c r="AB422" t="s">
-        <v>2771</v>
+        <v>2772</v>
       </c>
       <c r="AC422" t="s">
         <v>3093</v>
@@ -66159,7 +66159,7 @@
         <v>1650</v>
       </c>
       <c r="AB426" t="s">
-        <v>2772</v>
+        <v>2773</v>
       </c>
       <c r="AC426" t="s">
         <v>3095</v>
@@ -66287,7 +66287,7 @@
         <v>1670</v>
       </c>
       <c r="AB427" t="s">
-        <v>2773</v>
+        <v>2774</v>
       </c>
       <c r="AC427" t="s">
         <v>2148</v>
@@ -66299,7 +66299,7 @@
         <v>1650</v>
       </c>
       <c r="AF427" t="s">
-        <v>2773</v>
+        <v>2774</v>
       </c>
       <c r="AG427" t="s">
         <v>3475</v>
@@ -66311,7 +66311,7 @@
         <v>1625</v>
       </c>
       <c r="AJ427" t="s">
-        <v>2773</v>
+        <v>2774</v>
       </c>
       <c r="AK427" t="s">
         <v>2148</v>
@@ -66543,7 +66543,7 @@
         <v>1633</v>
       </c>
       <c r="AB429" t="s">
-        <v>2774</v>
+        <v>2775</v>
       </c>
       <c r="AC429" t="s">
         <v>3027</v>
@@ -66671,7 +66671,7 @@
         <v>1650</v>
       </c>
       <c r="AB430" t="s">
-        <v>2775</v>
+        <v>2776</v>
       </c>
       <c r="AC430" t="s">
         <v>2982</v>
@@ -66683,7 +66683,7 @@
         <v>1578</v>
       </c>
       <c r="AF430" t="s">
-        <v>2775</v>
+        <v>2776</v>
       </c>
       <c r="AG430" t="s">
         <v>2149</v>
@@ -66695,7 +66695,7 @@
         <v>1578</v>
       </c>
       <c r="AJ430" t="s">
-        <v>2775</v>
+        <v>2776</v>
       </c>
       <c r="AK430" t="s">
         <v>2151</v>
@@ -67055,7 +67055,7 @@
         <v>1624</v>
       </c>
       <c r="AB433" t="s">
-        <v>2776</v>
+        <v>2777</v>
       </c>
       <c r="AC433" t="s">
         <v>3070</v>
@@ -67067,7 +67067,7 @@
         <v>1608</v>
       </c>
       <c r="AF433" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="AG433" t="s">
         <v>3045</v>
@@ -67183,7 +67183,7 @@
         <v>1662</v>
       </c>
       <c r="AB434" t="s">
-        <v>2777</v>
+        <v>2778</v>
       </c>
       <c r="AC434" t="s">
         <v>3096</v>
@@ -67439,7 +67439,7 @@
         <v>1578</v>
       </c>
       <c r="AB436" t="s">
-        <v>2778</v>
+        <v>2779</v>
       </c>
       <c r="AC436" t="s">
         <v>2149</v>
@@ -67567,7 +67567,7 @@
         <v>1630</v>
       </c>
       <c r="AB437" t="s">
-        <v>2779</v>
+        <v>2780</v>
       </c>
       <c r="AC437" t="s">
         <v>3097</v>
@@ -67579,7 +67579,7 @@
         <v>1670</v>
       </c>
       <c r="AF437" t="s">
-        <v>2779</v>
+        <v>2780</v>
       </c>
       <c r="AG437" t="s">
         <v>3478</v>
@@ -67591,7 +67591,7 @@
         <v>1670</v>
       </c>
       <c r="AJ437" t="s">
-        <v>2779</v>
+        <v>2780</v>
       </c>
       <c r="AK437" t="s">
         <v>3097</v>
@@ -67695,7 +67695,7 @@
         <v>1633</v>
       </c>
       <c r="AB438" t="s">
-        <v>2780</v>
+        <v>2781</v>
       </c>
       <c r="AC438" t="s">
         <v>2151</v>
@@ -67823,7 +67823,7 @@
         <v>1625</v>
       </c>
       <c r="AB439" t="s">
-        <v>2781</v>
+        <v>2782</v>
       </c>
       <c r="AC439" t="s">
         <v>3047</v>
@@ -67951,7 +67951,7 @@
         <v>1636</v>
       </c>
       <c r="AB440" t="s">
-        <v>2782</v>
+        <v>2783</v>
       </c>
       <c r="AC440" t="s">
         <v>3098</v>
@@ -68076,7 +68076,7 @@
         <v>1656</v>
       </c>
       <c r="AB441" t="s">
-        <v>2783</v>
+        <v>2784</v>
       </c>
       <c r="AC441" t="s">
         <v>3047</v>
@@ -68088,7 +68088,7 @@
         <v>1670</v>
       </c>
       <c r="AF441" t="s">
-        <v>2783</v>
+        <v>2784</v>
       </c>
       <c r="AG441" t="s">
         <v>3479</v>
@@ -68100,7 +68100,7 @@
         <v>1633</v>
       </c>
       <c r="AJ441" t="s">
-        <v>2783</v>
+        <v>2784</v>
       </c>
       <c r="AK441" t="s">
         <v>3750</v>
@@ -68204,7 +68204,7 @@
         <v>1662</v>
       </c>
       <c r="AB442" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="AC442" t="s">
         <v>2997</v>
@@ -68588,7 +68588,7 @@
         <v>1589</v>
       </c>
       <c r="AB445" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="AC445" t="s">
         <v>2149</v>
@@ -68600,7 +68600,7 @@
         <v>1670</v>
       </c>
       <c r="AF445" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="AG445" t="s">
         <v>2151</v>
@@ -68612,7 +68612,7 @@
         <v>1578</v>
       </c>
       <c r="AJ445" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="AK445" t="s">
         <v>2991</v>
@@ -68716,7 +68716,7 @@
         <v>1636</v>
       </c>
       <c r="AB446" t="s">
-        <v>2785</v>
+        <v>2786</v>
       </c>
       <c r="AC446" t="s">
         <v>2151</v>
@@ -68728,7 +68728,7 @@
         <v>1578</v>
       </c>
       <c r="AF446" t="s">
-        <v>2785</v>
+        <v>2786</v>
       </c>
       <c r="AG446" t="s">
         <v>2149</v>
@@ -68844,7 +68844,7 @@
         <v>1636</v>
       </c>
       <c r="AB447" t="s">
-        <v>2786</v>
+        <v>2787</v>
       </c>
       <c r="AC447" t="s">
         <v>2148</v>
@@ -68972,7 +68972,7 @@
         <v>1662</v>
       </c>
       <c r="AB448" t="s">
-        <v>2787</v>
+        <v>2788</v>
       </c>
       <c r="AC448" t="s">
         <v>3049</v>
@@ -69100,7 +69100,7 @@
         <v>1674</v>
       </c>
       <c r="AB449" t="s">
-        <v>2788</v>
+        <v>2789</v>
       </c>
       <c r="AC449" t="s">
         <v>3043</v>
@@ -69356,7 +69356,7 @@
         <v>1650</v>
       </c>
       <c r="AB451" t="s">
-        <v>2789</v>
+        <v>2790</v>
       </c>
       <c r="AC451" t="s">
         <v>3099</v>
@@ -69484,7 +69484,7 @@
         <v>1636</v>
       </c>
       <c r="AB452" t="s">
-        <v>2790</v>
+        <v>2791</v>
       </c>
       <c r="AC452" t="s">
         <v>2981</v>
@@ -69740,7 +69740,7 @@
         <v>1650</v>
       </c>
       <c r="AB454" t="s">
-        <v>2791</v>
+        <v>2792</v>
       </c>
       <c r="AC454" t="s">
         <v>2151</v>
@@ -69752,7 +69752,7 @@
         <v>1578</v>
       </c>
       <c r="AF454" t="s">
-        <v>2791</v>
+        <v>2792</v>
       </c>
       <c r="AG454" t="s">
         <v>2151</v>
@@ -69764,7 +69764,7 @@
         <v>1625</v>
       </c>
       <c r="AJ454" t="s">
-        <v>2791</v>
+        <v>2792</v>
       </c>
       <c r="AK454" t="s">
         <v>2982</v>
@@ -69868,7 +69868,7 @@
         <v>1636</v>
       </c>
       <c r="AB455" t="s">
-        <v>2759</v>
+        <v>2760</v>
       </c>
       <c r="AC455" t="s">
         <v>3100</v>
@@ -69880,7 +69880,7 @@
         <v>1630</v>
       </c>
       <c r="AF455" t="s">
-        <v>2775</v>
+        <v>2776</v>
       </c>
       <c r="AG455" t="s">
         <v>2993</v>
@@ -69892,7 +69892,7 @@
         <v>1650</v>
       </c>
       <c r="AJ455" t="s">
-        <v>2775</v>
+        <v>2776</v>
       </c>
       <c r="AK455" t="s">
         <v>2133</v>
@@ -69996,7 +69996,7 @@
         <v>1690</v>
       </c>
       <c r="AB456" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="AC456" t="s">
         <v>3101</v>
@@ -70252,7 +70252,7 @@
         <v>1624</v>
       </c>
       <c r="AB458" t="s">
-        <v>2792</v>
+        <v>2793</v>
       </c>
       <c r="AC458" t="s">
         <v>3102</v>
@@ -70264,7 +70264,7 @@
         <v>1624</v>
       </c>
       <c r="AF458" t="s">
-        <v>2792</v>
+        <v>2793</v>
       </c>
       <c r="AG458" t="s">
         <v>3070</v>
@@ -70508,7 +70508,7 @@
         <v>1636</v>
       </c>
       <c r="AB460" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="AC460" t="s">
         <v>2991</v>
@@ -70520,7 +70520,7 @@
         <v>1650</v>
       </c>
       <c r="AF460" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="AG460" t="s">
         <v>2149</v>
@@ -70532,7 +70532,7 @@
         <v>1578</v>
       </c>
       <c r="AJ460" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="AK460" t="s">
         <v>3751</v>
@@ -70636,7 +70636,7 @@
         <v>1660</v>
       </c>
       <c r="AB461" t="s">
-        <v>2794</v>
+        <v>2795</v>
       </c>
       <c r="AC461" t="s">
         <v>2151</v>
@@ -71020,7 +71020,7 @@
         <v>1784</v>
       </c>
       <c r="AB464" t="s">
-        <v>2795</v>
+        <v>2796</v>
       </c>
       <c r="AC464" t="s">
         <v>2999</v>
@@ -71032,7 +71032,7 @@
         <v>1674</v>
       </c>
       <c r="AF464" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="AG464" t="s">
         <v>2982</v>
@@ -71401,7 +71401,7 @@
         <v>1650</v>
       </c>
       <c r="AB467" t="s">
-        <v>2796</v>
+        <v>2797</v>
       </c>
       <c r="AC467" t="s">
         <v>3103</v>
@@ -71529,7 +71529,7 @@
         <v>1662</v>
       </c>
       <c r="AB468" t="s">
-        <v>2797</v>
+        <v>2798</v>
       </c>
       <c r="AC468" t="s">
         <v>3050</v>
@@ -71657,7 +71657,7 @@
         <v>1670</v>
       </c>
       <c r="AB469" t="s">
-        <v>2798</v>
+        <v>2799</v>
       </c>
       <c r="AC469" t="s">
         <v>3055</v>
@@ -71669,7 +71669,7 @@
         <v>1633</v>
       </c>
       <c r="AF469" t="s">
-        <v>2798</v>
+        <v>2799</v>
       </c>
       <c r="AG469" t="s">
         <v>3055</v>
@@ -71681,7 +71681,7 @@
         <v>1636</v>
       </c>
       <c r="AJ469" t="s">
-        <v>2798</v>
+        <v>2799</v>
       </c>
       <c r="AK469" t="s">
         <v>3055</v>
@@ -71785,7 +71785,7 @@
         <v>1651</v>
       </c>
       <c r="AB470" t="s">
-        <v>2799</v>
+        <v>2800</v>
       </c>
       <c r="AC470" t="s">
         <v>3104</v>
@@ -71797,7 +71797,7 @@
         <v>1633</v>
       </c>
       <c r="AF470" t="s">
-        <v>2799</v>
+        <v>2800</v>
       </c>
       <c r="AG470" t="s">
         <v>3481</v>
@@ -71809,7 +71809,7 @@
         <v>1678</v>
       </c>
       <c r="AJ470" t="s">
-        <v>2799</v>
+        <v>2800</v>
       </c>
       <c r="AK470" t="s">
         <v>3481</v>
@@ -72169,7 +72169,7 @@
         <v>1636</v>
       </c>
       <c r="AB473" t="s">
-        <v>2800</v>
+        <v>2801</v>
       </c>
       <c r="AC473" t="s">
         <v>2148</v>
@@ -72181,7 +72181,7 @@
         <v>1578</v>
       </c>
       <c r="AF473" t="s">
-        <v>2800</v>
+        <v>2801</v>
       </c>
       <c r="AG473" t="s">
         <v>2148</v>
@@ -72193,7 +72193,7 @@
         <v>1630</v>
       </c>
       <c r="AJ473" t="s">
-        <v>2800</v>
+        <v>2801</v>
       </c>
       <c r="AK473" t="s">
         <v>3473</v>
@@ -72425,7 +72425,7 @@
         <v>1636</v>
       </c>
       <c r="AB475" t="s">
-        <v>2801</v>
+        <v>2802</v>
       </c>
       <c r="AC475" t="s">
         <v>3055</v>
@@ -72553,7 +72553,7 @@
         <v>1662</v>
       </c>
       <c r="AB476" t="s">
-        <v>2802</v>
+        <v>2803</v>
       </c>
       <c r="AC476" t="s">
         <v>2148</v>
@@ -72681,7 +72681,7 @@
         <v>1630</v>
       </c>
       <c r="AB477" t="s">
-        <v>2803</v>
+        <v>2804</v>
       </c>
       <c r="AC477" t="s">
         <v>2148</v>
@@ -72809,7 +72809,7 @@
         <v>1650</v>
       </c>
       <c r="AB478" t="s">
-        <v>2804</v>
+        <v>2805</v>
       </c>
       <c r="AC478" t="s">
         <v>2999</v>
@@ -72821,7 +72821,7 @@
         <v>1650</v>
       </c>
       <c r="AF478" t="s">
-        <v>2804</v>
+        <v>2805</v>
       </c>
       <c r="AG478" t="s">
         <v>2999</v>
@@ -72833,7 +72833,7 @@
         <v>1578</v>
       </c>
       <c r="AJ478" t="s">
-        <v>2771</v>
+        <v>2772</v>
       </c>
       <c r="AK478" t="s">
         <v>2165</v>
@@ -72937,7 +72937,7 @@
         <v>1630</v>
       </c>
       <c r="AB479" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="AC479" t="s">
         <v>3107</v>
@@ -72949,7 +72949,7 @@
         <v>1578</v>
       </c>
       <c r="AF479" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="AG479" t="s">
         <v>2151</v>
@@ -72961,7 +72961,7 @@
         <v>1650</v>
       </c>
       <c r="AJ479" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="AK479" t="s">
         <v>2982</v>
@@ -73449,7 +73449,7 @@
         <v>1625</v>
       </c>
       <c r="AB483" t="s">
-        <v>2806</v>
+        <v>2807</v>
       </c>
       <c r="AC483" t="s">
         <v>2981</v>
@@ -73833,7 +73833,7 @@
         <v>1636</v>
       </c>
       <c r="AB486" t="s">
-        <v>2807</v>
+        <v>2808</v>
       </c>
       <c r="AC486" t="s">
         <v>3055</v>
@@ -73961,7 +73961,7 @@
         <v>1660</v>
       </c>
       <c r="AB487" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="AC487" t="s">
         <v>3109</v>
@@ -74217,7 +74217,7 @@
         <v>1589</v>
       </c>
       <c r="AB489" t="s">
-        <v>2809</v>
+        <v>2810</v>
       </c>
       <c r="AC489" t="s">
         <v>2148</v>
@@ -74229,7 +74229,7 @@
         <v>1596</v>
       </c>
       <c r="AF489" t="s">
-        <v>2809</v>
+        <v>2810</v>
       </c>
       <c r="AG489" t="s">
         <v>3482</v>
@@ -74345,7 +74345,7 @@
         <v>1782</v>
       </c>
       <c r="AB490" t="s">
-        <v>2810</v>
+        <v>2811</v>
       </c>
       <c r="AC490" t="s">
         <v>3027</v>
@@ -74473,7 +74473,7 @@
         <v>1625</v>
       </c>
       <c r="AB491" t="s">
-        <v>2811</v>
+        <v>2812</v>
       </c>
       <c r="AC491" t="s">
         <v>2149</v>
@@ -74485,7 +74485,7 @@
         <v>1578</v>
       </c>
       <c r="AF491" t="s">
-        <v>2811</v>
+        <v>2812</v>
       </c>
       <c r="AG491" t="s">
         <v>2149</v>
@@ -74497,7 +74497,7 @@
         <v>1578</v>
       </c>
       <c r="AJ491" t="s">
-        <v>2811</v>
+        <v>2812</v>
       </c>
       <c r="AK491" t="s">
         <v>2151</v>
@@ -74601,7 +74601,7 @@
         <v>1625</v>
       </c>
       <c r="AB492" t="s">
-        <v>2812</v>
+        <v>2813</v>
       </c>
       <c r="AC492" t="s">
         <v>3110</v>
@@ -74613,7 +74613,7 @@
         <v>1624</v>
       </c>
       <c r="AF492" t="s">
-        <v>2812</v>
+        <v>2813</v>
       </c>
       <c r="AG492" t="s">
         <v>2976</v>
@@ -74857,7 +74857,7 @@
         <v>1625</v>
       </c>
       <c r="AB494" t="s">
-        <v>2813</v>
+        <v>2814</v>
       </c>
       <c r="AC494" t="s">
         <v>2982</v>
@@ -74869,7 +74869,7 @@
         <v>1578</v>
       </c>
       <c r="AF494" t="s">
-        <v>2813</v>
+        <v>2814</v>
       </c>
       <c r="AG494" t="s">
         <v>2982</v>
@@ -74881,7 +74881,7 @@
         <v>1633</v>
       </c>
       <c r="AJ494" t="s">
-        <v>2747</v>
+        <v>2748</v>
       </c>
       <c r="AK494" t="s">
         <v>2151</v>
@@ -74985,7 +74985,7 @@
         <v>1662</v>
       </c>
       <c r="AB495" t="s">
-        <v>2814</v>
+        <v>2815</v>
       </c>
       <c r="AC495" t="s">
         <v>2981</v>
@@ -74997,7 +74997,7 @@
         <v>1589</v>
       </c>
       <c r="AF495" t="s">
-        <v>2814</v>
+        <v>2815</v>
       </c>
       <c r="AG495" t="s">
         <v>2148</v>
@@ -75009,7 +75009,7 @@
         <v>1662</v>
       </c>
       <c r="AJ495" t="s">
-        <v>2814</v>
+        <v>2815</v>
       </c>
       <c r="AK495" t="s">
         <v>2148</v>
@@ -75113,7 +75113,7 @@
         <v>1624</v>
       </c>
       <c r="AB496" t="s">
-        <v>2815</v>
+        <v>2816</v>
       </c>
       <c r="AC496" t="s">
         <v>3096</v>
@@ -75369,7 +75369,7 @@
         <v>1630</v>
       </c>
       <c r="AB498" t="s">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="AC498" t="s">
         <v>3045</v>
@@ -75497,7 +75497,7 @@
         <v>1805</v>
       </c>
       <c r="AB499" t="s">
-        <v>2816</v>
+        <v>2817</v>
       </c>
       <c r="AC499" t="s">
         <v>2976</v>
@@ -75509,7 +75509,7 @@
         <v>1805</v>
       </c>
       <c r="AF499" t="s">
-        <v>2743</v>
+        <v>2744</v>
       </c>
       <c r="AG499" t="s">
         <v>3069</v>
@@ -75521,7 +75521,7 @@
         <v>1784</v>
       </c>
       <c r="AJ499" t="s">
-        <v>2743</v>
+        <v>2744</v>
       </c>
       <c r="AK499" t="s">
         <v>3069</v>
@@ -75753,7 +75753,7 @@
         <v>1662</v>
       </c>
       <c r="AB501" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="AC501" t="s">
         <v>3103</v>
@@ -75765,7 +75765,7 @@
         <v>1662</v>
       </c>
       <c r="AF501" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="AG501" t="s">
         <v>3070</v>
@@ -75777,7 +75777,7 @@
         <v>1630</v>
       </c>
       <c r="AJ501" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="AK501" t="s">
         <v>3446</v>
@@ -75881,7 +75881,7 @@
         <v>1625</v>
       </c>
       <c r="AB502" t="s">
-        <v>2818</v>
+        <v>2819</v>
       </c>
       <c r="AC502" t="s">
         <v>3111</v>
@@ -76009,7 +76009,7 @@
         <v>1628</v>
       </c>
       <c r="AB503" t="s">
-        <v>2819</v>
+        <v>2820</v>
       </c>
       <c r="AC503" t="s">
         <v>2148</v>
@@ -76265,7 +76265,7 @@
         <v>1660</v>
       </c>
       <c r="AB505" t="s">
-        <v>2820</v>
+        <v>2821</v>
       </c>
       <c r="AC505" t="s">
         <v>3089</v>
@@ -76277,7 +76277,7 @@
         <v>1636</v>
       </c>
       <c r="AF505" t="s">
-        <v>2820</v>
+        <v>2821</v>
       </c>
       <c r="AG505" t="s">
         <v>3089</v>
@@ -76289,7 +76289,7 @@
         <v>1624</v>
       </c>
       <c r="AJ505" t="s">
-        <v>2820</v>
+        <v>2821</v>
       </c>
       <c r="AK505" t="s">
         <v>3089</v>
@@ -76393,7 +76393,7 @@
         <v>1589</v>
       </c>
       <c r="AB506" t="s">
-        <v>2821</v>
+        <v>2822</v>
       </c>
       <c r="AC506" t="s">
         <v>3042</v>
@@ -76521,7 +76521,7 @@
         <v>1630</v>
       </c>
       <c r="AB507" t="s">
-        <v>2811</v>
+        <v>2812</v>
       </c>
       <c r="AC507" t="s">
         <v>3070</v>
@@ -76533,7 +76533,7 @@
         <v>1662</v>
       </c>
       <c r="AF507" t="s">
-        <v>2811</v>
+        <v>2812</v>
       </c>
       <c r="AG507" t="s">
         <v>3070</v>
@@ -76545,7 +76545,7 @@
         <v>1650</v>
       </c>
       <c r="AJ507" t="s">
-        <v>2811</v>
+        <v>2812</v>
       </c>
       <c r="AK507" t="s">
         <v>2151</v>
@@ -76649,7 +76649,7 @@
         <v>1670</v>
       </c>
       <c r="AB508" t="s">
-        <v>2822</v>
+        <v>2823</v>
       </c>
       <c r="AC508" t="s">
         <v>3075</v>
@@ -76661,7 +76661,7 @@
         <v>1625</v>
       </c>
       <c r="AF508" t="s">
-        <v>2822</v>
+        <v>2823</v>
       </c>
       <c r="AG508" t="s">
         <v>3484</v>
@@ -77033,7 +77033,7 @@
         <v>1656</v>
       </c>
       <c r="AB511" t="s">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="AC511" t="s">
         <v>3113</v>
@@ -77045,7 +77045,7 @@
         <v>1630</v>
       </c>
       <c r="AF511" t="s">
-        <v>2848</v>
+        <v>2849</v>
       </c>
       <c r="AG511" t="s">
         <v>3055</v>
@@ -77057,7 +77057,7 @@
         <v>1650</v>
       </c>
       <c r="AJ511" t="s">
-        <v>2848</v>
+        <v>2849</v>
       </c>
       <c r="AK511" t="s">
         <v>3055</v>
@@ -77161,7 +77161,7 @@
         <v>1642</v>
       </c>
       <c r="AB512" t="s">
-        <v>2823</v>
+        <v>2824</v>
       </c>
       <c r="AC512" t="s">
         <v>3069</v>
@@ -77289,7 +77289,7 @@
         <v>1633</v>
       </c>
       <c r="AB513" t="s">
-        <v>2824</v>
+        <v>2825</v>
       </c>
       <c r="AC513" t="s">
         <v>3067</v>
@@ -77417,7 +77417,7 @@
         <v>1670</v>
       </c>
       <c r="AB514" t="s">
-        <v>2825</v>
+        <v>2826</v>
       </c>
       <c r="AC514" t="s">
         <v>2982</v>
@@ -77429,7 +77429,7 @@
         <v>1645</v>
       </c>
       <c r="AF514" t="s">
-        <v>2825</v>
+        <v>2826</v>
       </c>
       <c r="AG514" t="s">
         <v>2982</v>
@@ -77441,7 +77441,7 @@
         <v>1670</v>
       </c>
       <c r="AJ514" t="s">
-        <v>2825</v>
+        <v>2826</v>
       </c>
       <c r="AK514" t="s">
         <v>2982</v>
@@ -77545,7 +77545,7 @@
         <v>1596</v>
       </c>
       <c r="AB515" t="s">
-        <v>2826</v>
+        <v>2827</v>
       </c>
       <c r="AC515" t="s">
         <v>3096</v>
@@ -77673,7 +77673,7 @@
         <v>1670</v>
       </c>
       <c r="AB516" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="AC516" t="s">
         <v>2991</v>
@@ -77801,7 +77801,7 @@
         <v>1630</v>
       </c>
       <c r="AB517" t="s">
-        <v>2827</v>
+        <v>2828</v>
       </c>
       <c r="AC517" t="s">
         <v>3050</v>
@@ -77813,7 +77813,7 @@
         <v>1630</v>
       </c>
       <c r="AF517" t="s">
-        <v>2827</v>
+        <v>2828</v>
       </c>
       <c r="AG517" t="s">
         <v>3050</v>
@@ -77825,7 +77825,7 @@
         <v>1662</v>
       </c>
       <c r="AJ517" t="s">
-        <v>2827</v>
+        <v>2828</v>
       </c>
       <c r="AK517" t="s">
         <v>3480</v>
@@ -77929,7 +77929,7 @@
         <v>1636</v>
       </c>
       <c r="AB518" t="s">
-        <v>2828</v>
+        <v>2829</v>
       </c>
       <c r="AC518" t="s">
         <v>3048</v>
@@ -77941,7 +77941,7 @@
         <v>1633</v>
       </c>
       <c r="AF518" t="s">
-        <v>2828</v>
+        <v>2829</v>
       </c>
       <c r="AG518" t="s">
         <v>3486</v>
@@ -78313,7 +78313,7 @@
         <v>1621</v>
       </c>
       <c r="AB521" t="s">
-        <v>2829</v>
+        <v>2830</v>
       </c>
       <c r="AC521" t="s">
         <v>3097</v>
@@ -78325,7 +78325,7 @@
         <v>1621</v>
       </c>
       <c r="AF521" t="s">
-        <v>2829</v>
+        <v>2830</v>
       </c>
       <c r="AG521" t="s">
         <v>3097</v>
@@ -78441,7 +78441,7 @@
         <v>1596</v>
       </c>
       <c r="AB522" t="s">
-        <v>2830</v>
+        <v>2831</v>
       </c>
       <c r="AC522" t="s">
         <v>3114</v>
@@ -78569,7 +78569,7 @@
         <v>1670</v>
       </c>
       <c r="AB523" t="s">
-        <v>2831</v>
+        <v>2832</v>
       </c>
       <c r="AC523" t="s">
         <v>2999</v>
@@ -78581,7 +78581,7 @@
         <v>1670</v>
       </c>
       <c r="AF523" t="s">
-        <v>2831</v>
+        <v>2832</v>
       </c>
       <c r="AG523" t="s">
         <v>2999</v>
@@ -78953,7 +78953,7 @@
         <v>1674</v>
       </c>
       <c r="AB526" t="s">
-        <v>2832</v>
+        <v>2833</v>
       </c>
       <c r="AC526" t="s">
         <v>3069</v>
@@ -79209,7 +79209,7 @@
         <v>1660</v>
       </c>
       <c r="AB528" t="s">
-        <v>2833</v>
+        <v>2834</v>
       </c>
       <c r="AC528" t="s">
         <v>2999</v>
@@ -79221,7 +79221,7 @@
         <v>1660</v>
       </c>
       <c r="AF528" t="s">
-        <v>2833</v>
+        <v>2834</v>
       </c>
       <c r="AG528" t="s">
         <v>2999</v>
@@ -79233,7 +79233,7 @@
         <v>1660</v>
       </c>
       <c r="AJ528" t="s">
-        <v>2833</v>
+        <v>2834</v>
       </c>
       <c r="AK528" t="s">
         <v>2999</v>
@@ -79465,7 +79465,7 @@
         <v>1630</v>
       </c>
       <c r="AB530" t="s">
-        <v>2834</v>
+        <v>2835</v>
       </c>
       <c r="AC530" t="s">
         <v>3038</v>
@@ -79477,7 +79477,7 @@
         <v>1630</v>
       </c>
       <c r="AF530" t="s">
-        <v>2741</v>
+        <v>2742</v>
       </c>
       <c r="AG530" t="s">
         <v>3487</v>
@@ -79489,7 +79489,7 @@
         <v>1636</v>
       </c>
       <c r="AJ530" t="s">
-        <v>2822</v>
+        <v>2823</v>
       </c>
       <c r="AK530" t="s">
         <v>3001</v>
@@ -79593,7 +79593,7 @@
         <v>1609</v>
       </c>
       <c r="AB531" t="s">
-        <v>2835</v>
+        <v>2836</v>
       </c>
       <c r="AC531" t="s">
         <v>2976</v>
@@ -79605,7 +79605,7 @@
         <v>2003</v>
       </c>
       <c r="AF531" t="s">
-        <v>2835</v>
+        <v>2836</v>
       </c>
       <c r="AG531" t="s">
         <v>2976</v>
@@ -79849,7 +79849,7 @@
         <v>1589</v>
       </c>
       <c r="AB533" t="s">
-        <v>2734</v>
+        <v>2735</v>
       </c>
       <c r="AC533" t="s">
         <v>3047</v>
@@ -80105,7 +80105,7 @@
         <v>1630</v>
       </c>
       <c r="AB535" t="s">
-        <v>2836</v>
+        <v>2837</v>
       </c>
       <c r="AC535" t="s">
         <v>2999</v>
@@ -80230,7 +80230,7 @@
         <v>1737</v>
       </c>
       <c r="AB536" t="s">
-        <v>2837</v>
+        <v>2838</v>
       </c>
       <c r="AC536" t="s">
         <v>3116</v>
@@ -80382,7 +80382,7 @@
         <v>1642</v>
       </c>
       <c r="AJ537" t="s">
-        <v>2918</v>
+        <v>2919</v>
       </c>
       <c r="AK537" t="s">
         <v>3753</v>
@@ -80614,7 +80614,7 @@
         <v>1625</v>
       </c>
       <c r="AB539" t="s">
-        <v>2838</v>
+        <v>2839</v>
       </c>
       <c r="AC539" t="s">
         <v>3070</v>
@@ -80626,7 +80626,7 @@
         <v>1662</v>
       </c>
       <c r="AF539" t="s">
-        <v>2838</v>
+        <v>2839</v>
       </c>
       <c r="AG539" t="s">
         <v>3070</v>
@@ -80638,7 +80638,7 @@
         <v>1654</v>
       </c>
       <c r="AJ539" t="s">
-        <v>2838</v>
+        <v>2839</v>
       </c>
       <c r="AK539" t="s">
         <v>3070</v>
@@ -80870,7 +80870,7 @@
         <v>1624</v>
       </c>
       <c r="AB541" t="s">
-        <v>2839</v>
+        <v>2840</v>
       </c>
       <c r="AC541" t="s">
         <v>2980</v>
@@ -80882,7 +80882,7 @@
         <v>1630</v>
       </c>
       <c r="AF541" t="s">
-        <v>2839</v>
+        <v>2840</v>
       </c>
       <c r="AG541" t="s">
         <v>2980</v>
@@ -80998,7 +80998,7 @@
         <v>1662</v>
       </c>
       <c r="AB542" t="s">
-        <v>2840</v>
+        <v>2841</v>
       </c>
       <c r="AC542" t="s">
         <v>3117</v>
@@ -81126,7 +81126,7 @@
         <v>1628</v>
       </c>
       <c r="AB543" t="s">
-        <v>2841</v>
+        <v>2842</v>
       </c>
       <c r="AC543" t="s">
         <v>3079</v>
@@ -81138,7 +81138,7 @@
         <v>1628</v>
       </c>
       <c r="AF543" t="s">
-        <v>2841</v>
+        <v>2842</v>
       </c>
       <c r="AG543" t="s">
         <v>3079</v>
@@ -81766,7 +81766,7 @@
         <v>1630</v>
       </c>
       <c r="AB548" t="s">
-        <v>2839</v>
+        <v>2840</v>
       </c>
       <c r="AC548" t="s">
         <v>3038</v>
@@ -81894,7 +81894,7 @@
         <v>1628</v>
       </c>
       <c r="AB549" t="s">
-        <v>2842</v>
+        <v>2843</v>
       </c>
       <c r="AC549" t="s">
         <v>2151</v>
@@ -82022,7 +82022,7 @@
         <v>1589</v>
       </c>
       <c r="AB550" t="s">
-        <v>2843</v>
+        <v>2844</v>
       </c>
       <c r="AC550" t="s">
         <v>2973</v>
@@ -82150,7 +82150,7 @@
         <v>1662</v>
       </c>
       <c r="AB551" t="s">
-        <v>2844</v>
+        <v>2845</v>
       </c>
       <c r="AC551" t="s">
         <v>2999</v>
@@ -82534,7 +82534,7 @@
         <v>1660</v>
       </c>
       <c r="AB554" t="s">
-        <v>2845</v>
+        <v>2846</v>
       </c>
       <c r="AC554" t="s">
         <v>2976</v>
@@ -82790,7 +82790,7 @@
         <v>1589</v>
       </c>
       <c r="AB556" t="s">
-        <v>2846</v>
+        <v>2847</v>
       </c>
       <c r="AC556" t="s">
         <v>3042</v>
@@ -82918,7 +82918,7 @@
         <v>1688</v>
       </c>
       <c r="AB557" t="s">
-        <v>2847</v>
+        <v>2848</v>
       </c>
       <c r="AC557" t="s">
         <v>2976</v>
@@ -83302,7 +83302,7 @@
         <v>1671</v>
       </c>
       <c r="AB560" t="s">
-        <v>2810</v>
+        <v>2811</v>
       </c>
       <c r="AC560" t="s">
         <v>3070</v>
@@ -83314,7 +83314,7 @@
         <v>1660</v>
       </c>
       <c r="AF560" t="s">
-        <v>2810</v>
+        <v>2811</v>
       </c>
       <c r="AG560" t="s">
         <v>3489</v>
@@ -83686,7 +83686,7 @@
         <v>1662</v>
       </c>
       <c r="AB563" t="s">
-        <v>2848</v>
+        <v>2849</v>
       </c>
       <c r="AC563" t="s">
         <v>2151</v>
@@ -83698,7 +83698,7 @@
         <v>1589</v>
       </c>
       <c r="AF563" t="s">
-        <v>2848</v>
+        <v>2849</v>
       </c>
       <c r="AG563" t="s">
         <v>2982</v>
@@ -83814,7 +83814,7 @@
         <v>1630</v>
       </c>
       <c r="AB564" t="s">
-        <v>2811</v>
+        <v>2812</v>
       </c>
       <c r="AC564" t="s">
         <v>2997</v>
@@ -83942,7 +83942,7 @@
         <v>1687</v>
       </c>
       <c r="AB565" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="AC565" t="s">
         <v>3018</v>
@@ -83954,7 +83954,7 @@
         <v>3256</v>
       </c>
       <c r="AF565" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="AG565" t="s">
         <v>3441</v>
@@ -84198,7 +84198,7 @@
         <v>1630</v>
       </c>
       <c r="AB567" t="s">
-        <v>2850</v>
+        <v>2851</v>
       </c>
       <c r="AC567" t="s">
         <v>3120</v>
@@ -84210,7 +84210,7 @@
         <v>1630</v>
       </c>
       <c r="AF567" t="s">
-        <v>2850</v>
+        <v>2851</v>
       </c>
       <c r="AG567" t="s">
         <v>2975</v>
@@ -84222,7 +84222,7 @@
         <v>1630</v>
       </c>
       <c r="AJ567" t="s">
-        <v>2850</v>
+        <v>2851</v>
       </c>
       <c r="AK567" t="s">
         <v>2975</v>
@@ -84326,7 +84326,7 @@
         <v>1662</v>
       </c>
       <c r="AB568" t="s">
-        <v>2851</v>
+        <v>2852</v>
       </c>
       <c r="AC568" t="s">
         <v>2983</v>
@@ -84338,7 +84338,7 @@
         <v>1662</v>
       </c>
       <c r="AF568" t="s">
-        <v>2851</v>
+        <v>2852</v>
       </c>
       <c r="AG568" t="s">
         <v>3081</v>
@@ -84350,7 +84350,7 @@
         <v>1670</v>
       </c>
       <c r="AJ568" t="s">
-        <v>2851</v>
+        <v>2852</v>
       </c>
       <c r="AK568" t="s">
         <v>3081</v>
@@ -84582,7 +84582,7 @@
         <v>1630</v>
       </c>
       <c r="AB570" t="s">
-        <v>2852</v>
+        <v>2853</v>
       </c>
       <c r="AC570" t="s">
         <v>3027</v>
@@ -84966,7 +84966,7 @@
         <v>1671</v>
       </c>
       <c r="AB573" t="s">
-        <v>2853</v>
+        <v>2854</v>
       </c>
       <c r="AC573" t="s">
         <v>3096</v>
@@ -85094,7 +85094,7 @@
         <v>1630</v>
       </c>
       <c r="AB574" t="s">
-        <v>2854</v>
+        <v>2855</v>
       </c>
       <c r="AC574" t="s">
         <v>3069</v>
@@ -85222,7 +85222,7 @@
         <v>1628</v>
       </c>
       <c r="AB575" t="s">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="AC575" t="s">
         <v>3121</v>
@@ -85362,7 +85362,7 @@
         <v>1660</v>
       </c>
       <c r="AF576" t="s">
-        <v>2742</v>
+        <v>2743</v>
       </c>
       <c r="AG576" t="s">
         <v>2148</v>
@@ -85374,7 +85374,7 @@
         <v>1625</v>
       </c>
       <c r="AJ576" t="s">
-        <v>2742</v>
+        <v>2743</v>
       </c>
       <c r="AK576" t="s">
         <v>2148</v>
@@ -85478,7 +85478,7 @@
         <v>1654</v>
       </c>
       <c r="AB577" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="AC577" t="s">
         <v>2148</v>
@@ -85606,7 +85606,7 @@
         <v>1589</v>
       </c>
       <c r="AB578" t="s">
-        <v>2856</v>
+        <v>2857</v>
       </c>
       <c r="AD578" t="s">
         <v>1574</v>
@@ -85859,7 +85859,7 @@
         <v>1589</v>
       </c>
       <c r="AB580" t="s">
-        <v>2857</v>
+        <v>2858</v>
       </c>
       <c r="AC580" t="s">
         <v>2999</v>
@@ -85987,7 +85987,7 @@
         <v>1662</v>
       </c>
       <c r="AB581" t="s">
-        <v>2858</v>
+        <v>2859</v>
       </c>
       <c r="AC581" t="s">
         <v>3122</v>
@@ -86115,7 +86115,7 @@
         <v>1624</v>
       </c>
       <c r="AB582" t="s">
-        <v>2859</v>
+        <v>2860</v>
       </c>
       <c r="AC582" t="s">
         <v>3070</v>
@@ -86127,7 +86127,7 @@
         <v>1662</v>
       </c>
       <c r="AF582" t="s">
-        <v>2859</v>
+        <v>2860</v>
       </c>
       <c r="AG582" t="s">
         <v>2997</v>
@@ -86139,7 +86139,7 @@
         <v>1636</v>
       </c>
       <c r="AJ582" t="s">
-        <v>2822</v>
+        <v>2823</v>
       </c>
       <c r="AK582" t="s">
         <v>3070</v>
@@ -86243,7 +86243,7 @@
         <v>1647</v>
       </c>
       <c r="AB583" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
       <c r="AC583" t="s">
         <v>3068</v>
@@ -86255,7 +86255,7 @@
         <v>1647</v>
       </c>
       <c r="AF583" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
       <c r="AG583" t="s">
         <v>3042</v>
@@ -86499,7 +86499,7 @@
         <v>1692</v>
       </c>
       <c r="AB585" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
       <c r="AC585" t="s">
         <v>3043</v>
@@ -86627,7 +86627,7 @@
         <v>1662</v>
       </c>
       <c r="AB586" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
       <c r="AC586" t="s">
         <v>3092</v>
@@ -86639,7 +86639,7 @@
         <v>1662</v>
       </c>
       <c r="AF586" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
       <c r="AG586" t="s">
         <v>3092</v>
@@ -86883,7 +86883,7 @@
         <v>1589</v>
       </c>
       <c r="AB588" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="AC588" t="s">
         <v>2972</v>
@@ -86895,7 +86895,7 @@
         <v>1670</v>
       </c>
       <c r="AF588" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="AG588" t="s">
         <v>2151</v>
@@ -86907,7 +86907,7 @@
         <v>1578</v>
       </c>
       <c r="AJ588" t="s">
-        <v>2813</v>
+        <v>2814</v>
       </c>
       <c r="AK588" t="s">
         <v>2151</v>
@@ -87011,7 +87011,7 @@
         <v>1630</v>
       </c>
       <c r="AB589" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
       <c r="AC589" t="s">
         <v>2999</v>
@@ -87264,7 +87264,7 @@
         <v>1662</v>
       </c>
       <c r="AB591" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
       <c r="AC591" t="s">
         <v>2133</v>
@@ -87520,7 +87520,7 @@
         <v>1589</v>
       </c>
       <c r="AB593" t="s">
-        <v>2866</v>
+        <v>2867</v>
       </c>
       <c r="AC593" t="s">
         <v>3049</v>
@@ -87648,7 +87648,7 @@
         <v>1670</v>
       </c>
       <c r="AB594" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="AC594" t="s">
         <v>2997</v>
@@ -87660,7 +87660,7 @@
         <v>1630</v>
       </c>
       <c r="AF594" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="AG594" t="s">
         <v>2982</v>
@@ -87776,7 +87776,7 @@
         <v>1624</v>
       </c>
       <c r="AB595" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
       <c r="AC595" t="s">
         <v>2982</v>
@@ -87788,7 +87788,7 @@
         <v>1670</v>
       </c>
       <c r="AF595" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
       <c r="AG595" t="s">
         <v>2982</v>
@@ -87904,7 +87904,7 @@
         <v>1656</v>
       </c>
       <c r="AB596" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
       <c r="AC596" t="s">
         <v>3069</v>
@@ -88032,7 +88032,7 @@
         <v>2444</v>
       </c>
       <c r="AB597" t="s">
-        <v>2869</v>
+        <v>2870</v>
       </c>
       <c r="AC597" t="s">
         <v>2999</v>
@@ -88160,7 +88160,7 @@
         <v>1739</v>
       </c>
       <c r="AB598" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="AC598" t="s">
         <v>3029</v>
@@ -88288,7 +88288,7 @@
         <v>1596</v>
       </c>
       <c r="AB599" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="AC599" t="s">
         <v>3124</v>
@@ -88300,7 +88300,7 @@
         <v>1667</v>
       </c>
       <c r="AF599" t="s">
-        <v>2739</v>
+        <v>2740</v>
       </c>
       <c r="AG599" t="s">
         <v>2983</v>
@@ -88544,7 +88544,7 @@
         <v>1625</v>
       </c>
       <c r="AB601" t="s">
-        <v>2872</v>
+        <v>2873</v>
       </c>
       <c r="AC601" t="s">
         <v>3092</v>
@@ -88556,7 +88556,7 @@
         <v>1625</v>
       </c>
       <c r="AF601" t="s">
-        <v>2872</v>
+        <v>2873</v>
       </c>
       <c r="AG601" t="s">
         <v>3092</v>
@@ -88800,7 +88800,7 @@
         <v>1777</v>
       </c>
       <c r="AB603" t="s">
-        <v>2810</v>
+        <v>2811</v>
       </c>
       <c r="AC603" t="s">
         <v>2148</v>
@@ -88812,7 +88812,7 @@
         <v>1841</v>
       </c>
       <c r="AF603" t="s">
-        <v>2810</v>
+        <v>2811</v>
       </c>
       <c r="AG603" t="s">
         <v>3492</v>
@@ -88824,7 +88824,7 @@
         <v>1906</v>
       </c>
       <c r="AJ603" t="s">
-        <v>2810</v>
+        <v>2811</v>
       </c>
       <c r="AK603" t="s">
         <v>3081</v>
@@ -88928,7 +88928,7 @@
         <v>1662</v>
       </c>
       <c r="AB604" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
       <c r="AC604" t="s">
         <v>3077</v>
@@ -88940,7 +88940,7 @@
         <v>1662</v>
       </c>
       <c r="AF604" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
       <c r="AG604" t="s">
         <v>3077</v>
@@ -88952,7 +88952,7 @@
         <v>1662</v>
       </c>
       <c r="AJ604" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
       <c r="AK604" t="s">
         <v>3077</v>
@@ -89056,7 +89056,7 @@
         <v>1690</v>
       </c>
       <c r="AB605" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
       <c r="AC605" t="s">
         <v>2978</v>
@@ -89184,7 +89184,7 @@
         <v>1674</v>
       </c>
       <c r="AB606" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
       <c r="AC606" t="s">
         <v>2999</v>
@@ -89196,7 +89196,7 @@
         <v>1674</v>
       </c>
       <c r="AF606" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
       <c r="AG606" t="s">
         <v>2999</v>
@@ -89208,7 +89208,7 @@
         <v>1674</v>
       </c>
       <c r="AJ606" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
       <c r="AK606" t="s">
         <v>2999</v>
@@ -89312,7 +89312,7 @@
         <v>1921</v>
       </c>
       <c r="AB607" t="s">
-        <v>2876</v>
+        <v>2877</v>
       </c>
       <c r="AC607" t="s">
         <v>3069</v>
@@ -89440,7 +89440,7 @@
         <v>1739</v>
       </c>
       <c r="AB608" t="s">
-        <v>2877</v>
+        <v>2878</v>
       </c>
       <c r="AC608" t="s">
         <v>3004</v>
@@ -89568,7 +89568,7 @@
         <v>1656</v>
       </c>
       <c r="AB609" t="s">
-        <v>2878</v>
+        <v>2879</v>
       </c>
       <c r="AC609" t="s">
         <v>2978</v>
@@ -89696,7 +89696,7 @@
         <v>1674</v>
       </c>
       <c r="AB610" t="s">
-        <v>2879</v>
+        <v>2880</v>
       </c>
       <c r="AC610" t="s">
         <v>3031</v>
@@ -89708,7 +89708,7 @@
         <v>1674</v>
       </c>
       <c r="AF610" t="s">
-        <v>2879</v>
+        <v>2880</v>
       </c>
       <c r="AG610" t="s">
         <v>3031</v>
@@ -89720,7 +89720,7 @@
         <v>1624</v>
       </c>
       <c r="AJ610" t="s">
-        <v>2879</v>
+        <v>2880</v>
       </c>
       <c r="AK610" t="s">
         <v>3031</v>
@@ -89824,7 +89824,7 @@
         <v>1656</v>
       </c>
       <c r="AB611" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
       <c r="AC611" t="s">
         <v>3047</v>
@@ -89952,7 +89952,7 @@
         <v>1739</v>
       </c>
       <c r="AB612" t="s">
-        <v>2881</v>
+        <v>2882</v>
       </c>
       <c r="AC612" t="s">
         <v>3030</v>
@@ -90080,7 +90080,7 @@
         <v>1624</v>
       </c>
       <c r="AB613" t="s">
-        <v>2882</v>
+        <v>2883</v>
       </c>
       <c r="AC613" t="s">
         <v>3096</v>
@@ -90208,7 +90208,7 @@
         <v>1589</v>
       </c>
       <c r="AB614" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="AC614" t="s">
         <v>3127</v>
@@ -90336,7 +90336,7 @@
         <v>1656</v>
       </c>
       <c r="AB615" t="s">
-        <v>2839</v>
+        <v>2840</v>
       </c>
       <c r="AC615" t="s">
         <v>2980</v>
@@ -90348,7 +90348,7 @@
         <v>1630</v>
       </c>
       <c r="AF615" t="s">
-        <v>2839</v>
+        <v>2840</v>
       </c>
       <c r="AG615" t="s">
         <v>2980</v>
@@ -90464,7 +90464,7 @@
         <v>1624</v>
       </c>
       <c r="AB616" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
       <c r="AC616" t="s">
         <v>2999</v>
@@ -90476,7 +90476,7 @@
         <v>1624</v>
       </c>
       <c r="AF616" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
       <c r="AG616" t="s">
         <v>2999</v>
@@ -90488,7 +90488,7 @@
         <v>1624</v>
       </c>
       <c r="AJ616" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
       <c r="AK616" t="s">
         <v>2999</v>
@@ -90604,7 +90604,7 @@
         <v>1678</v>
       </c>
       <c r="AF617" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="AG617" t="s">
         <v>3089</v>
@@ -90616,7 +90616,7 @@
         <v>1745</v>
       </c>
       <c r="AJ617" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="AK617" t="s">
         <v>3089</v>
@@ -90720,7 +90720,7 @@
         <v>1589</v>
       </c>
       <c r="AB618" t="s">
-        <v>2884</v>
+        <v>2885</v>
       </c>
       <c r="AC618" t="s">
         <v>2999</v>
@@ -90848,7 +90848,7 @@
         <v>1752</v>
       </c>
       <c r="AB619" t="s">
-        <v>2885</v>
+        <v>2886</v>
       </c>
       <c r="AC619" t="s">
         <v>3042</v>
@@ -90860,7 +90860,7 @@
         <v>1633</v>
       </c>
       <c r="AF619" t="s">
-        <v>2885</v>
+        <v>2886</v>
       </c>
       <c r="AG619" t="s">
         <v>3112</v>
@@ -90872,7 +90872,7 @@
         <v>1589</v>
       </c>
       <c r="AJ619" t="s">
-        <v>2885</v>
+        <v>2886</v>
       </c>
       <c r="AK619" t="s">
         <v>3042</v>
@@ -91256,7 +91256,7 @@
         <v>1650</v>
       </c>
       <c r="AJ622" t="s">
-        <v>2897</v>
+        <v>2898</v>
       </c>
       <c r="AK622" t="s">
         <v>2151</v>
@@ -91360,7 +91360,7 @@
         <v>1674</v>
       </c>
       <c r="AB623" t="s">
-        <v>2886</v>
+        <v>2887</v>
       </c>
       <c r="AC623" t="s">
         <v>2999</v>
@@ -91372,7 +91372,7 @@
         <v>1578</v>
       </c>
       <c r="AF623" t="s">
-        <v>2886</v>
+        <v>2887</v>
       </c>
       <c r="AG623" t="s">
         <v>2149</v>
@@ -91384,7 +91384,7 @@
         <v>1578</v>
       </c>
       <c r="AJ623" t="s">
-        <v>2886</v>
+        <v>2887</v>
       </c>
       <c r="AK623" t="s">
         <v>2149</v>
@@ -91616,7 +91616,7 @@
         <v>1624</v>
       </c>
       <c r="AB625" t="s">
-        <v>2887</v>
+        <v>2888</v>
       </c>
       <c r="AC625" t="s">
         <v>2985</v>
@@ -91628,7 +91628,7 @@
         <v>1678</v>
       </c>
       <c r="AF625" t="s">
-        <v>2887</v>
+        <v>2888</v>
       </c>
       <c r="AG625" t="s">
         <v>3036</v>
@@ -91744,7 +91744,7 @@
         <v>1674</v>
       </c>
       <c r="AB626" t="s">
-        <v>2888</v>
+        <v>2889</v>
       </c>
       <c r="AC626" t="s">
         <v>2985</v>
@@ -91756,7 +91756,7 @@
         <v>1674</v>
       </c>
       <c r="AF626" t="s">
-        <v>2888</v>
+        <v>2889</v>
       </c>
       <c r="AG626" t="s">
         <v>3036</v>
@@ -91768,7 +91768,7 @@
         <v>1636</v>
       </c>
       <c r="AJ626" t="s">
-        <v>2888</v>
+        <v>2889</v>
       </c>
       <c r="AK626" t="s">
         <v>2151</v>
@@ -92000,7 +92000,7 @@
         <v>1624</v>
       </c>
       <c r="AB628" t="s">
-        <v>2889</v>
+        <v>2890</v>
       </c>
       <c r="AC628" t="s">
         <v>3047</v>
@@ -92012,7 +92012,7 @@
         <v>1589</v>
       </c>
       <c r="AF628" t="s">
-        <v>2807</v>
+        <v>2808</v>
       </c>
       <c r="AG628" t="s">
         <v>3047</v>
@@ -92384,7 +92384,7 @@
         <v>1662</v>
       </c>
       <c r="AB631" t="s">
-        <v>2890</v>
+        <v>2891</v>
       </c>
       <c r="AC631" t="s">
         <v>3055</v>
@@ -92396,7 +92396,7 @@
         <v>1596</v>
       </c>
       <c r="AF631" t="s">
-        <v>2890</v>
+        <v>2891</v>
       </c>
       <c r="AG631" t="s">
         <v>3494</v>
@@ -92408,7 +92408,7 @@
         <v>1784</v>
       </c>
       <c r="AJ631" t="s">
-        <v>2890</v>
+        <v>2891</v>
       </c>
       <c r="AK631" t="s">
         <v>2993</v>
@@ -92512,7 +92512,7 @@
         <v>1647</v>
       </c>
       <c r="AB632" t="s">
-        <v>2891</v>
+        <v>2892</v>
       </c>
       <c r="AC632" t="s">
         <v>3042</v>
@@ -92524,7 +92524,7 @@
         <v>1688</v>
       </c>
       <c r="AF632" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="AG632" t="s">
         <v>2982</v>
@@ -92640,7 +92640,7 @@
         <v>1630</v>
       </c>
       <c r="AB633" t="s">
-        <v>2892</v>
+        <v>2893</v>
       </c>
       <c r="AC633" t="s">
         <v>2976</v>
@@ -92768,7 +92768,7 @@
         <v>1647</v>
       </c>
       <c r="AB634" t="s">
-        <v>2893</v>
+        <v>2894</v>
       </c>
       <c r="AC634" t="s">
         <v>3042</v>
@@ -93024,7 +93024,7 @@
         <v>1621</v>
       </c>
       <c r="AB636" t="s">
-        <v>2894</v>
+        <v>2895</v>
       </c>
       <c r="AC636" t="s">
         <v>2999</v>
@@ -93036,7 +93036,7 @@
         <v>1621</v>
       </c>
       <c r="AF636" t="s">
-        <v>2894</v>
+        <v>2895</v>
       </c>
       <c r="AG636" t="s">
         <v>2999</v>
@@ -93048,7 +93048,7 @@
         <v>1621</v>
       </c>
       <c r="AJ636" t="s">
-        <v>2894</v>
+        <v>2895</v>
       </c>
       <c r="AK636" t="s">
         <v>2999</v>
@@ -93152,7 +93152,7 @@
         <v>1621</v>
       </c>
       <c r="AB637" t="s">
-        <v>2895</v>
+        <v>2896</v>
       </c>
       <c r="AC637" t="s">
         <v>3128</v>
@@ -93164,7 +93164,7 @@
         <v>1636</v>
       </c>
       <c r="AF637" t="s">
-        <v>2895</v>
+        <v>2896</v>
       </c>
       <c r="AG637" t="s">
         <v>2151</v>
@@ -93176,7 +93176,7 @@
         <v>1656</v>
       </c>
       <c r="AJ637" t="s">
-        <v>2895</v>
+        <v>2896</v>
       </c>
       <c r="AK637" t="s">
         <v>3756</v>
@@ -93408,7 +93408,7 @@
         <v>1589</v>
       </c>
       <c r="AB639" t="s">
-        <v>2896</v>
+        <v>2897</v>
       </c>
       <c r="AC639" t="s">
         <v>3042</v>
@@ -93536,7 +93536,7 @@
         <v>1589</v>
       </c>
       <c r="AB640" t="s">
-        <v>2897</v>
+        <v>2898</v>
       </c>
       <c r="AC640" t="s">
         <v>3069</v>
@@ -93664,7 +93664,7 @@
         <v>1642</v>
       </c>
       <c r="AB641" t="s">
-        <v>2898</v>
+        <v>2899</v>
       </c>
       <c r="AD641" t="s">
         <v>3239</v>
@@ -93917,7 +93917,7 @@
         <v>1674</v>
       </c>
       <c r="AB643" t="s">
-        <v>2899</v>
+        <v>2900</v>
       </c>
       <c r="AC643" t="s">
         <v>3129</v>
@@ -94045,7 +94045,7 @@
         <v>1687</v>
       </c>
       <c r="AB644" t="s">
-        <v>2900</v>
+        <v>2901</v>
       </c>
       <c r="AC644" t="s">
         <v>2976</v>
@@ -94173,7 +94173,7 @@
         <v>1656</v>
       </c>
       <c r="AB645" t="s">
-        <v>2786</v>
+        <v>2787</v>
       </c>
       <c r="AC645" t="s">
         <v>3045</v>
@@ -94185,7 +94185,7 @@
         <v>1656</v>
       </c>
       <c r="AF645" t="s">
-        <v>2786</v>
+        <v>2787</v>
       </c>
       <c r="AG645" t="s">
         <v>3045</v>
@@ -94429,7 +94429,7 @@
         <v>1670</v>
       </c>
       <c r="AB647" t="s">
-        <v>2901</v>
+        <v>2902</v>
       </c>
       <c r="AC647" t="s">
         <v>2999</v>
@@ -94441,7 +94441,7 @@
         <v>1608</v>
       </c>
       <c r="AF647" t="s">
-        <v>2901</v>
+        <v>2902</v>
       </c>
       <c r="AG647" t="s">
         <v>2999</v>
@@ -94557,7 +94557,7 @@
         <v>1647</v>
       </c>
       <c r="AB648" t="s">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="AC648" t="s">
         <v>3131</v>
@@ -94569,7 +94569,7 @@
         <v>1647</v>
       </c>
       <c r="AF648" t="s">
-        <v>2717</v>
+        <v>2718</v>
       </c>
       <c r="AG648" t="s">
         <v>3068</v>
@@ -94685,7 +94685,7 @@
         <v>1784</v>
       </c>
       <c r="AB649" t="s">
-        <v>2903</v>
+        <v>2904</v>
       </c>
       <c r="AC649" t="s">
         <v>2999</v>
@@ -94697,7 +94697,7 @@
         <v>1784</v>
       </c>
       <c r="AF649" t="s">
-        <v>2903</v>
+        <v>2904</v>
       </c>
       <c r="AG649" t="s">
         <v>2999</v>
@@ -94709,7 +94709,7 @@
         <v>1784</v>
       </c>
       <c r="AJ649" t="s">
-        <v>2903</v>
+        <v>2904</v>
       </c>
       <c r="AK649" t="s">
         <v>2999</v>
@@ -94813,7 +94813,7 @@
         <v>1589</v>
       </c>
       <c r="AB650" t="s">
-        <v>2904</v>
+        <v>2905</v>
       </c>
       <c r="AC650" t="s">
         <v>2978</v>
@@ -94941,7 +94941,7 @@
         <v>1598</v>
       </c>
       <c r="AB651" t="s">
-        <v>2905</v>
+        <v>2906</v>
       </c>
       <c r="AC651" t="s">
         <v>2999</v>
@@ -94953,7 +94953,7 @@
         <v>1598</v>
       </c>
       <c r="AF651" t="s">
-        <v>2905</v>
+        <v>2906</v>
       </c>
       <c r="AG651" t="s">
         <v>2999</v>
@@ -94965,7 +94965,7 @@
         <v>1598</v>
       </c>
       <c r="AJ651" t="s">
-        <v>2905</v>
+        <v>2906</v>
       </c>
       <c r="AK651" t="s">
         <v>2999</v>
@@ -95322,7 +95322,7 @@
         <v>1731</v>
       </c>
       <c r="AB654" t="s">
-        <v>2906</v>
+        <v>2907</v>
       </c>
       <c r="AC654" t="s">
         <v>2999</v>
@@ -95450,7 +95450,7 @@
         <v>1739</v>
       </c>
       <c r="AB655" t="s">
-        <v>2907</v>
+        <v>2908</v>
       </c>
       <c r="AC655" t="s">
         <v>3077</v>
@@ -95462,7 +95462,7 @@
         <v>1739</v>
       </c>
       <c r="AF655" t="s">
-        <v>2907</v>
+        <v>2908</v>
       </c>
       <c r="AG655" t="s">
         <v>3077</v>
@@ -95474,7 +95474,7 @@
         <v>1739</v>
       </c>
       <c r="AJ655" t="s">
-        <v>2907</v>
+        <v>2908</v>
       </c>
       <c r="AK655" t="s">
         <v>3077</v>
@@ -95578,7 +95578,7 @@
         <v>1656</v>
       </c>
       <c r="AB656" t="s">
-        <v>2908</v>
+        <v>2909</v>
       </c>
       <c r="AC656" t="s">
         <v>3070</v>
@@ -95834,7 +95834,7 @@
         <v>1674</v>
       </c>
       <c r="AB658" t="s">
-        <v>2909</v>
+        <v>2910</v>
       </c>
       <c r="AC658" t="s">
         <v>3096</v>
@@ -95962,7 +95962,7 @@
         <v>1624</v>
       </c>
       <c r="AB659" t="s">
-        <v>2910</v>
+        <v>2911</v>
       </c>
       <c r="AC659" t="s">
         <v>2978</v>
@@ -95974,7 +95974,7 @@
         <v>1674</v>
       </c>
       <c r="AF659" t="s">
-        <v>2910</v>
+        <v>2911</v>
       </c>
       <c r="AG659" t="s">
         <v>2999</v>
@@ -95986,7 +95986,7 @@
         <v>1624</v>
       </c>
       <c r="AJ659" t="s">
-        <v>2913</v>
+        <v>2914</v>
       </c>
       <c r="AK659" t="s">
         <v>2999</v>
@@ -96090,7 +96090,7 @@
         <v>1956</v>
       </c>
       <c r="AB660" t="s">
-        <v>2911</v>
+        <v>2912</v>
       </c>
       <c r="AC660" t="s">
         <v>3079</v>
@@ -96102,7 +96102,7 @@
         <v>1956</v>
       </c>
       <c r="AF660" t="s">
-        <v>2911</v>
+        <v>2912</v>
       </c>
       <c r="AG660" t="s">
         <v>3079</v>
@@ -96218,7 +96218,7 @@
         <v>1578</v>
       </c>
       <c r="AB661" t="s">
-        <v>2822</v>
+        <v>2823</v>
       </c>
       <c r="AC661" t="s">
         <v>3133</v>
@@ -96358,7 +96358,7 @@
         <v>1678</v>
       </c>
       <c r="AF662" t="s">
-        <v>2925</v>
+        <v>2926</v>
       </c>
       <c r="AG662" t="s">
         <v>2133</v>
@@ -96474,7 +96474,7 @@
         <v>1596</v>
       </c>
       <c r="AB663" t="s">
-        <v>2912</v>
+        <v>2913</v>
       </c>
       <c r="AC663" t="s">
         <v>2999</v>
@@ -96486,7 +96486,7 @@
         <v>1596</v>
       </c>
       <c r="AF663" t="s">
-        <v>2912</v>
+        <v>2913</v>
       </c>
       <c r="AG663" t="s">
         <v>2999</v>
@@ -96498,7 +96498,7 @@
         <v>1596</v>
       </c>
       <c r="AJ663" t="s">
-        <v>2912</v>
+        <v>2913</v>
       </c>
       <c r="AK663" t="s">
         <v>2999</v>
@@ -96602,7 +96602,7 @@
         <v>1660</v>
       </c>
       <c r="AB664" t="s">
-        <v>2913</v>
+        <v>2914</v>
       </c>
       <c r="AC664" t="s">
         <v>3055</v>
@@ -96614,7 +96614,7 @@
         <v>1650</v>
       </c>
       <c r="AF664" t="s">
-        <v>2913</v>
+        <v>2914</v>
       </c>
       <c r="AG664" t="s">
         <v>2993</v>
@@ -96730,7 +96730,7 @@
         <v>1647</v>
       </c>
       <c r="AB665" t="s">
-        <v>2914</v>
+        <v>2915</v>
       </c>
       <c r="AC665" t="s">
         <v>2999</v>
@@ -96858,7 +96858,7 @@
         <v>1687</v>
       </c>
       <c r="AB666" t="s">
-        <v>2915</v>
+        <v>2916</v>
       </c>
       <c r="AC666" t="s">
         <v>2981</v>
@@ -96870,7 +96870,7 @@
         <v>1687</v>
       </c>
       <c r="AF666" t="s">
-        <v>2915</v>
+        <v>2916</v>
       </c>
       <c r="AG666" t="s">
         <v>2981</v>
@@ -96882,7 +96882,7 @@
         <v>1687</v>
       </c>
       <c r="AJ666" t="s">
-        <v>2915</v>
+        <v>2916</v>
       </c>
       <c r="AK666" t="s">
         <v>2981</v>
@@ -96986,7 +96986,7 @@
         <v>1677</v>
       </c>
       <c r="AB667" t="s">
-        <v>2717</v>
+        <v>2718</v>
       </c>
       <c r="AC667" t="s">
         <v>3068</v>
@@ -96998,7 +96998,7 @@
         <v>1677</v>
       </c>
       <c r="AF667" t="s">
-        <v>2717</v>
+        <v>2718</v>
       </c>
       <c r="AG667" t="s">
         <v>3068</v>
@@ -97111,7 +97111,7 @@
         <v>1642</v>
       </c>
       <c r="AB668" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="AC668" t="s">
         <v>2978</v>
@@ -97123,7 +97123,7 @@
         <v>1642</v>
       </c>
       <c r="AF668" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="AG668" t="s">
         <v>2999</v>
@@ -97367,7 +97367,7 @@
         <v>1651</v>
       </c>
       <c r="AB670" t="s">
-        <v>2809</v>
+        <v>2810</v>
       </c>
       <c r="AC670" t="s">
         <v>2151</v>
@@ -97379,7 +97379,7 @@
         <v>1598</v>
       </c>
       <c r="AF670" t="s">
-        <v>2809</v>
+        <v>2810</v>
       </c>
       <c r="AG670" t="s">
         <v>2151</v>
@@ -97391,7 +97391,7 @@
         <v>1662</v>
       </c>
       <c r="AJ670" t="s">
-        <v>2809</v>
+        <v>2810</v>
       </c>
       <c r="AK670" t="s">
         <v>2151</v>
@@ -97495,7 +97495,7 @@
         <v>1687</v>
       </c>
       <c r="AB671" t="s">
-        <v>2916</v>
+        <v>2917</v>
       </c>
       <c r="AC671" t="s">
         <v>3016</v>
@@ -97507,7 +97507,7 @@
         <v>1687</v>
       </c>
       <c r="AF671" t="s">
-        <v>2916</v>
+        <v>2917</v>
       </c>
       <c r="AG671" t="s">
         <v>3016</v>
@@ -97519,7 +97519,7 @@
         <v>1687</v>
       </c>
       <c r="AJ671" t="s">
-        <v>2916</v>
+        <v>2917</v>
       </c>
       <c r="AK671" t="s">
         <v>3016</v>
@@ -97775,7 +97775,7 @@
         <v>1608</v>
       </c>
       <c r="AJ673" t="s">
-        <v>2917</v>
+        <v>2918</v>
       </c>
       <c r="AK673" t="s">
         <v>3446</v>
@@ -97879,7 +97879,7 @@
         <v>2089</v>
       </c>
       <c r="AB674" t="s">
-        <v>2917</v>
+        <v>2918</v>
       </c>
       <c r="AC674" t="s">
         <v>2976</v>
@@ -98007,7 +98007,7 @@
         <v>2446</v>
       </c>
       <c r="AB675" t="s">
-        <v>2918</v>
+        <v>2919</v>
       </c>
       <c r="AC675" t="s">
         <v>3030</v>
@@ -98019,7 +98019,7 @@
         <v>1660</v>
       </c>
       <c r="AF675" t="s">
-        <v>2918</v>
+        <v>2919</v>
       </c>
       <c r="AG675" t="s">
         <v>3496</v>
@@ -98031,7 +98031,7 @@
         <v>1906</v>
       </c>
       <c r="AJ675" t="s">
-        <v>2918</v>
+        <v>2919</v>
       </c>
       <c r="AK675" t="s">
         <v>3030</v>
@@ -98135,7 +98135,7 @@
         <v>1677</v>
       </c>
       <c r="AB676" t="s">
-        <v>2829</v>
+        <v>2830</v>
       </c>
       <c r="AC676" t="s">
         <v>2979</v>
@@ -98147,7 +98147,7 @@
         <v>1677</v>
       </c>
       <c r="AF676" t="s">
-        <v>2829</v>
+        <v>2830</v>
       </c>
       <c r="AG676" t="s">
         <v>2979</v>
@@ -98159,7 +98159,7 @@
         <v>1686</v>
       </c>
       <c r="AJ676" t="s">
-        <v>2829</v>
+        <v>2830</v>
       </c>
       <c r="AK676" t="s">
         <v>2137</v>
@@ -98263,7 +98263,7 @@
         <v>1690</v>
       </c>
       <c r="AB677" t="s">
-        <v>2919</v>
+        <v>2920</v>
       </c>
       <c r="AC677" t="s">
         <v>2999</v>
@@ -98275,7 +98275,7 @@
         <v>1690</v>
       </c>
       <c r="AF677" t="s">
-        <v>2919</v>
+        <v>2920</v>
       </c>
       <c r="AG677" t="s">
         <v>2999</v>
@@ -98287,7 +98287,7 @@
         <v>1690</v>
       </c>
       <c r="AJ677" t="s">
-        <v>2919</v>
+        <v>2920</v>
       </c>
       <c r="AK677" t="s">
         <v>2999</v>
@@ -98519,7 +98519,7 @@
         <v>1677</v>
       </c>
       <c r="AB679" t="s">
-        <v>2920</v>
+        <v>2921</v>
       </c>
       <c r="AC679" t="s">
         <v>2973</v>
@@ -98531,7 +98531,7 @@
         <v>1677</v>
       </c>
       <c r="AF679" t="s">
-        <v>2920</v>
+        <v>2921</v>
       </c>
       <c r="AG679" t="s">
         <v>3429</v>
@@ -98543,7 +98543,7 @@
         <v>1624</v>
       </c>
       <c r="AJ679" t="s">
-        <v>2920</v>
+        <v>2921</v>
       </c>
       <c r="AK679" t="s">
         <v>3758</v>
@@ -98647,7 +98647,7 @@
         <v>1805</v>
       </c>
       <c r="AB680" t="s">
-        <v>2921</v>
+        <v>2922</v>
       </c>
       <c r="AC680" t="s">
         <v>3001</v>
@@ -98659,7 +98659,7 @@
         <v>1589</v>
       </c>
       <c r="AF680" t="s">
-        <v>2921</v>
+        <v>2922</v>
       </c>
       <c r="AG680" t="s">
         <v>3075</v>
@@ -98671,7 +98671,7 @@
         <v>1642</v>
       </c>
       <c r="AJ680" t="s">
-        <v>2921</v>
+        <v>2922</v>
       </c>
       <c r="AK680" t="s">
         <v>3003</v>
@@ -98787,7 +98787,7 @@
         <v>1623</v>
       </c>
       <c r="AF681" t="s">
-        <v>2912</v>
+        <v>2913</v>
       </c>
       <c r="AG681" t="s">
         <v>2145</v>
@@ -98903,7 +98903,7 @@
         <v>1784</v>
       </c>
       <c r="AB682" t="s">
-        <v>2922</v>
+        <v>2923</v>
       </c>
       <c r="AC682" t="s">
         <v>3092</v>
@@ -98915,7 +98915,7 @@
         <v>1784</v>
       </c>
       <c r="AF682" t="s">
-        <v>2922</v>
+        <v>2923</v>
       </c>
       <c r="AG682" t="s">
         <v>3092</v>
@@ -98927,7 +98927,7 @@
         <v>1674</v>
       </c>
       <c r="AJ682" t="s">
-        <v>2922</v>
+        <v>2923</v>
       </c>
       <c r="AK682" t="s">
         <v>3092</v>
@@ -99031,7 +99031,7 @@
         <v>1633</v>
       </c>
       <c r="AB683" t="s">
-        <v>2923</v>
+        <v>2924</v>
       </c>
       <c r="AC683" t="s">
         <v>2993</v>
@@ -99043,7 +99043,7 @@
         <v>1633</v>
       </c>
       <c r="AF683" t="s">
-        <v>2923</v>
+        <v>2924</v>
       </c>
       <c r="AG683" t="s">
         <v>2993</v>
@@ -99055,7 +99055,7 @@
         <v>1633</v>
       </c>
       <c r="AJ683" t="s">
-        <v>2923</v>
+        <v>2924</v>
       </c>
       <c r="AK683" t="s">
         <v>2993</v>
@@ -99159,7 +99159,7 @@
         <v>1782</v>
       </c>
       <c r="AB684" t="s">
-        <v>2924</v>
+        <v>2925</v>
       </c>
       <c r="AC684" t="s">
         <v>3027</v>
@@ -99287,7 +99287,7 @@
         <v>1644</v>
       </c>
       <c r="AB685" t="s">
-        <v>2925</v>
+        <v>2926</v>
       </c>
       <c r="AC685" t="s">
         <v>2972</v>
@@ -99299,7 +99299,7 @@
         <v>1673</v>
       </c>
       <c r="AF685" t="s">
-        <v>2925</v>
+        <v>2926</v>
       </c>
       <c r="AG685" t="s">
         <v>2133</v>
@@ -99311,7 +99311,7 @@
         <v>1673</v>
       </c>
       <c r="AJ685" t="s">
-        <v>2925</v>
+        <v>2926</v>
       </c>
       <c r="AL685">
         <v>3.29</v>
@@ -99412,7 +99412,7 @@
         <v>1621</v>
       </c>
       <c r="AB686" t="s">
-        <v>2741</v>
+        <v>2742</v>
       </c>
       <c r="AC686" t="s">
         <v>2149</v>
@@ -99668,7 +99668,7 @@
         <v>1784</v>
       </c>
       <c r="AB688" t="s">
-        <v>2926</v>
+        <v>2927</v>
       </c>
       <c r="AC688" t="s">
         <v>3069</v>
@@ -99692,7 +99692,7 @@
         <v>1805</v>
       </c>
       <c r="AJ688" t="s">
-        <v>2920</v>
+        <v>2921</v>
       </c>
       <c r="AK688" t="s">
         <v>2976</v>
@@ -99924,7 +99924,7 @@
         <v>1647</v>
       </c>
       <c r="AB690" t="s">
-        <v>2927</v>
+        <v>2928</v>
       </c>
       <c r="AC690" t="s">
         <v>2999</v>
@@ -99936,7 +99936,7 @@
         <v>1647</v>
       </c>
       <c r="AF690" t="s">
-        <v>2927</v>
+        <v>2928</v>
       </c>
       <c r="AG690" t="s">
         <v>2999</v>
@@ -100052,7 +100052,7 @@
         <v>1642</v>
       </c>
       <c r="AB691" t="s">
-        <v>2928</v>
+        <v>2929</v>
       </c>
       <c r="AC691" t="s">
         <v>2999</v>
@@ -100180,7 +100180,7 @@
         <v>1677</v>
       </c>
       <c r="AB692" t="s">
-        <v>2929</v>
+        <v>2930</v>
       </c>
       <c r="AC692" t="s">
         <v>3013</v>
@@ -100192,7 +100192,7 @@
         <v>1624</v>
       </c>
       <c r="AF692" t="s">
-        <v>2929</v>
+        <v>2930</v>
       </c>
       <c r="AG692" t="s">
         <v>2149</v>
@@ -100204,7 +100204,7 @@
         <v>1677</v>
       </c>
       <c r="AJ692" t="s">
-        <v>2929</v>
+        <v>2930</v>
       </c>
       <c r="AK692" t="s">
         <v>2149</v>
@@ -100436,7 +100436,7 @@
         <v>1624</v>
       </c>
       <c r="AB694" t="s">
-        <v>2930</v>
+        <v>2931</v>
       </c>
       <c r="AC694" t="s">
         <v>3027</v>
@@ -100564,7 +100564,7 @@
         <v>1805</v>
       </c>
       <c r="AB695" t="s">
-        <v>2931</v>
+        <v>2710</v>
       </c>
       <c r="AC695" t="s">
         <v>3135</v>
@@ -100832,7 +100832,7 @@
         <v>1784</v>
       </c>
       <c r="AF697" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="AG697" t="s">
         <v>3500</v>
@@ -100844,7 +100844,7 @@
         <v>1673</v>
       </c>
       <c r="AJ697" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="AK697" t="s">
         <v>3760</v>
@@ -101076,7 +101076,7 @@
         <v>1784</v>
       </c>
       <c r="AB699" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="AC699" t="s">
         <v>2993</v>
@@ -101088,7 +101088,7 @@
         <v>1739</v>
       </c>
       <c r="AF699" t="s">
-        <v>2747</v>
+        <v>2748</v>
       </c>
       <c r="AG699" t="s">
         <v>2993</v>
@@ -101460,7 +101460,7 @@
         <v>1902</v>
       </c>
       <c r="AB702" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
       <c r="AC702" t="s">
         <v>3068</v>
@@ -102484,7 +102484,7 @@
         <v>1739</v>
       </c>
       <c r="AB710" t="s">
-        <v>2743</v>
+        <v>2744</v>
       </c>
       <c r="AC710" t="s">
         <v>3138</v>
@@ -102612,7 +102612,7 @@
         <v>1745</v>
       </c>
       <c r="AB711" t="s">
-        <v>2891</v>
+        <v>2892</v>
       </c>
       <c r="AC711" t="s">
         <v>3068</v>
@@ -102624,7 +102624,7 @@
         <v>1745</v>
       </c>
       <c r="AF711" t="s">
-        <v>2891</v>
+        <v>2892</v>
       </c>
       <c r="AG711" t="s">
         <v>3068</v>
@@ -102636,7 +102636,7 @@
         <v>1745</v>
       </c>
       <c r="AJ711" t="s">
-        <v>2891</v>
+        <v>2892</v>
       </c>
       <c r="AK711" t="s">
         <v>3042</v>
@@ -102880,7 +102880,7 @@
         <v>1624</v>
       </c>
       <c r="AF713" t="s">
-        <v>2774</v>
+        <v>2775</v>
       </c>
       <c r="AG713" t="s">
         <v>3043</v>
@@ -102892,7 +102892,7 @@
         <v>1656</v>
       </c>
       <c r="AJ713" t="s">
-        <v>2774</v>
+        <v>2775</v>
       </c>
       <c r="AK713" t="s">
         <v>3043</v>
@@ -103764,7 +103764,7 @@
         <v>1784</v>
       </c>
       <c r="AB720" t="s">
-        <v>2795</v>
+        <v>2796</v>
       </c>
       <c r="AC720" t="s">
         <v>2999</v>
@@ -103776,7 +103776,7 @@
         <v>1784</v>
       </c>
       <c r="AF720" t="s">
-        <v>2795</v>
+        <v>2796</v>
       </c>
       <c r="AG720" t="s">
         <v>2999</v>
@@ -103788,7 +103788,7 @@
         <v>1784</v>
       </c>
       <c r="AJ720" t="s">
-        <v>2795</v>
+        <v>2796</v>
       </c>
       <c r="AK720" t="s">
         <v>2999</v>
@@ -104276,7 +104276,7 @@
         <v>1784</v>
       </c>
       <c r="AB724" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="AC724" t="s">
         <v>3096</v>
@@ -104288,7 +104288,7 @@
         <v>1784</v>
       </c>
       <c r="AF724" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="AG724" t="s">
         <v>3096</v>
@@ -104809,7 +104809,7 @@
         <v>1956</v>
       </c>
       <c r="AJ728" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
       <c r="AK728" t="s">
         <v>3043</v>
@@ -105553,7 +105553,7 @@
         <v>1686</v>
       </c>
       <c r="AB734" t="s">
-        <v>2809</v>
+        <v>2810</v>
       </c>
       <c r="AC734" t="s">
         <v>2991</v>
@@ -106586,7 +106586,7 @@
         <v>1902</v>
       </c>
       <c r="AF742" t="s">
-        <v>2920</v>
+        <v>2921</v>
       </c>
       <c r="AG742" t="s">
         <v>3043</v>
@@ -107342,7 +107342,7 @@
         <v>2105</v>
       </c>
       <c r="AB748" t="s">
-        <v>2885</v>
+        <v>2886</v>
       </c>
       <c r="AC748" t="s">
         <v>3069</v>
@@ -108110,7 +108110,7 @@
         <v>2077</v>
       </c>
       <c r="AB754" t="s">
-        <v>2893</v>
+        <v>2894</v>
       </c>
       <c r="AC754" t="s">
         <v>2999</v>
@@ -108122,7 +108122,7 @@
         <v>2077</v>
       </c>
       <c r="AF754" t="s">
-        <v>2893</v>
+        <v>2894</v>
       </c>
       <c r="AG754" t="s">
         <v>2999</v>
@@ -108134,7 +108134,7 @@
         <v>2077</v>
       </c>
       <c r="AJ754" t="s">
-        <v>2893</v>
+        <v>2894</v>
       </c>
       <c r="AK754" t="s">
         <v>2999</v>
@@ -108262,7 +108262,7 @@
         <v>1662</v>
       </c>
       <c r="AJ755" t="s">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="AK755" t="s">
         <v>3125</v>
@@ -108494,7 +108494,7 @@
         <v>1769</v>
       </c>
       <c r="AB757" t="s">
-        <v>2916</v>
+        <v>2917</v>
       </c>
       <c r="AC757" t="s">
         <v>2985</v>
@@ -108506,7 +108506,7 @@
         <v>1983</v>
       </c>
       <c r="AF757" t="s">
-        <v>2916</v>
+        <v>2917</v>
       </c>
       <c r="AG757" t="s">
         <v>3036</v>
@@ -108631,25 +108631,25 @@
         <v>2193</v>
       </c>
       <c r="AE758" t="s">
-        <v>1781</v>
+        <v>1662</v>
       </c>
       <c r="AF758" t="s">
-        <v>2966</v>
+        <v>2478</v>
       </c>
       <c r="AG758" t="s">
-        <v>3092</v>
+        <v>2991</v>
       </c>
       <c r="AH758" t="s">
         <v>2193</v>
       </c>
       <c r="AI758" t="s">
-        <v>1662</v>
+        <v>1781</v>
       </c>
       <c r="AJ758" t="s">
-        <v>2478</v>
+        <v>2966</v>
       </c>
       <c r="AK758" t="s">
-        <v>2991</v>
+        <v>3092</v>
       </c>
       <c r="AL758">
         <v>2.95</v>
@@ -109018,7 +109018,7 @@
         <v>1654</v>
       </c>
       <c r="AF761" t="s">
-        <v>2917</v>
+        <v>2918</v>
       </c>
       <c r="AG761" t="s">
         <v>2149</v>
@@ -109030,7 +109030,7 @@
         <v>1690</v>
       </c>
       <c r="AJ761" t="s">
-        <v>2917</v>
+        <v>2918</v>
       </c>
       <c r="AK761" t="s">
         <v>2149</v>
@@ -109390,7 +109390,7 @@
         <v>1589</v>
       </c>
       <c r="AB764" t="s">
-        <v>2790</v>
+        <v>2791</v>
       </c>
       <c r="AC764" t="s">
         <v>2973</v>
@@ -109402,7 +109402,7 @@
         <v>1589</v>
       </c>
       <c r="AF764" t="s">
-        <v>2790</v>
+        <v>2791</v>
       </c>
       <c r="AG764" t="s">
         <v>2972</v>
@@ -109414,7 +109414,7 @@
         <v>1578</v>
       </c>
       <c r="AJ764" t="s">
-        <v>2790</v>
+        <v>2791</v>
       </c>
       <c r="AK764" t="s">
         <v>2133</v>

--- a/dados/ADD/Dados_ADD_PF/relatorio_produtos.xlsx
+++ b/dados/ADD/Dados_ADD_PF/relatorio_produtos.xlsx
@@ -34794,7 +34794,7 @@
         <v>1655</v>
       </c>
       <c r="AJ183" t="s">
-        <v>1539</v>
+        <v>2546</v>
       </c>
       <c r="AK183" t="s">
         <v>2968</v>
@@ -60248,7 +60248,7 @@
         <v>1626</v>
       </c>
       <c r="AF382" t="s">
-        <v>2678</v>
+        <v>1539</v>
       </c>
       <c r="AG382" t="s">
         <v>2968</v>
@@ -62284,7 +62284,7 @@
         <v>1626</v>
       </c>
       <c r="AB398" t="s">
-        <v>2419</v>
+        <v>1539</v>
       </c>
       <c r="AC398" t="s">
         <v>2935</v>
@@ -62314,7 +62314,7 @@
         <v>2935</v>
       </c>
       <c r="AL398">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM398">
         <v>275</v>
